--- a/all/Data/HRV_Params.xlsx
+++ b/all/Data/HRV_Params.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25629"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25726"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Client\OneDrive - ut.ac.ir\Desktop\Projects\VNS HRV\tVNSHRV-metaAnalysis\all\Data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://utacir-my.sharepoint.com/personal/sepehr_sima_ut_ac_ir/Documents/Desktop/Projects/VNS HRV/tVNSHRV-metaAnalysis/all/Data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8FD07FB7-B8A9-4611-9BD0-F9D60D97F4D6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="1" documentId="13_ncr:1_{8FD07FB7-B8A9-4611-9BD0-F9D60D97F4D6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{3505F964-7856-4E44-BA94-160D3493F360}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="LF" sheetId="5" r:id="rId1"/>
@@ -31,20 +31,12 @@
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
-        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
-      </xcalcf:calcFeatures>
-    </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2020" uniqueCount="477">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2020" uniqueCount="483">
   <si>
     <t>design</t>
   </si>
@@ -277,9 +269,6 @@
     <t>Author</t>
   </si>
   <si>
-    <t>Bretherton et al. (2019) Ex.2</t>
-  </si>
-  <si>
     <t>within</t>
   </si>
   <si>
@@ -326,9 +315,6 @@
     <t>continuous</t>
   </si>
   <si>
-    <t>Bretherton et al. (2019) Ex.3</t>
-  </si>
-  <si>
     <t>continuously for 15 min daily for 2 week</t>
   </si>
   <si>
@@ -341,9 +327,6 @@
     <t>multiple sessions</t>
   </si>
   <si>
-    <t>Decouck et al. (2016) Ex.1 #1</t>
-  </si>
-  <si>
     <t>control</t>
   </si>
   <si>
@@ -368,9 +351,6 @@
     <t>slow burst</t>
   </si>
   <si>
-    <t>Decouck et al. (2016) Ex.1 #2</t>
-  </si>
-  <si>
     <t>R-concha</t>
   </si>
   <si>
@@ -380,9 +360,6 @@
     <t>45.1 ± 26.2</t>
   </si>
   <si>
-    <t>Decouck et al. (2016) Ex.2</t>
-  </si>
-  <si>
     <t>60 min/ 30 s on, 30 s off</t>
   </si>
   <si>
@@ -407,9 +384,6 @@
     <t>63.61 ± 27.99</t>
   </si>
   <si>
-    <t>Borges et al. (2021) Ex.1 #1</t>
-  </si>
-  <si>
     <t>23.2 ± 3.1</t>
   </si>
   <si>
@@ -425,18 +399,12 @@
     <t>47.29 ± 25.49</t>
   </si>
   <si>
-    <t>Borges et al. (2021) Ex.1 #2</t>
-  </si>
-  <si>
     <t>43.81 ± 23.67</t>
   </si>
   <si>
     <t>47.77 ± 23.76</t>
   </si>
   <si>
-    <t>Gauthey et al. (2020) Ex.1 #1</t>
-  </si>
-  <si>
     <t>healthy young adult with no history of neurological, or psychiatric, or cardiological disease</t>
   </si>
   <si>
@@ -461,9 +429,6 @@
     <t>47.9 ± 24.8</t>
   </si>
   <si>
-    <t>Gauthey et al. (2020) Ex.1 #2</t>
-  </si>
-  <si>
     <t>healthy young adult with no history of neurological or psychiatric, or cardiological disease</t>
   </si>
   <si>
@@ -2734,12 +2699,6 @@
     <t>Geng et al. (2022)</t>
   </si>
   <si>
-    <t>Shen et al. (2021) Ex.1</t>
-  </si>
-  <si>
-    <t>Shen et al. (2021) Ex.2</t>
-  </si>
-  <si>
     <r>
       <t xml:space="preserve">74.15 </t>
     </r>
@@ -3862,6 +3821,57 @@
   </si>
   <si>
     <t>burst</t>
+  </si>
+  <si>
+    <t>Shen et al. (2021) #2</t>
+  </si>
+  <si>
+    <t>Shen et al. (2021) #1</t>
+  </si>
+  <si>
+    <t>Decouck et al. (2016) #1</t>
+  </si>
+  <si>
+    <t>Decouck et al. (2016) #2</t>
+  </si>
+  <si>
+    <t>Gauthey et al. (2020) #1</t>
+  </si>
+  <si>
+    <t>Gauthey et al. (2020) #2</t>
+  </si>
+  <si>
+    <t>Bretherton et al. (2019) #3</t>
+  </si>
+  <si>
+    <t>Borges et al. (2021) #1</t>
+  </si>
+  <si>
+    <t>Borges et al. (2021) #2</t>
+  </si>
+  <si>
+    <t>Tang et al. (2020) .1</t>
+  </si>
+  <si>
+    <t>Tang et al. (2020) .2</t>
+  </si>
+  <si>
+    <t>Tang et al. (2020) .3</t>
+  </si>
+  <si>
+    <t>Tang et al. (2020) .4</t>
+  </si>
+  <si>
+    <t>Tobaldini et al. (2019) .1</t>
+  </si>
+  <si>
+    <t>Bretherton et al. (2019) .2</t>
+  </si>
+  <si>
+    <t>Decouck et al. (2016) .2</t>
+  </si>
+  <si>
+    <t>Decouck et al. (2016) #3</t>
   </si>
 </sst>
 </file>
@@ -4411,8 +4421,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="A1:Z19"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C19" sqref="C19"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A14" sqref="A14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4488,13 +4498,13 @@
         <v>12</v>
       </c>
       <c r="O1" s="27" t="s">
-        <v>459</v>
+        <v>448</v>
       </c>
       <c r="P1" s="27" t="s">
         <v>13</v>
       </c>
       <c r="Q1" s="12" t="s">
-        <v>460</v>
+        <v>449</v>
       </c>
       <c r="R1" s="27" t="s">
         <v>14</v>
@@ -4503,13 +4513,13 @@
         <v>15</v>
       </c>
       <c r="T1" s="27" t="s">
-        <v>458</v>
+        <v>447</v>
       </c>
       <c r="U1" s="27" t="s">
         <v>16</v>
       </c>
       <c r="V1" s="27" t="s">
-        <v>461</v>
+        <v>450</v>
       </c>
       <c r="W1" s="27" t="s">
         <v>17</v>
@@ -4526,70 +4536,70 @@
     </row>
     <row r="2" spans="1:26" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A2" s="9" t="s">
-        <v>157</v>
+        <v>148</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="C2" s="2">
         <v>48</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>158</v>
+        <v>149</v>
       </c>
       <c r="E2" s="5">
         <v>0.5</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>324</v>
+        <v>315</v>
       </c>
       <c r="G2" s="2" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="H2" s="2">
         <v>30</v>
       </c>
       <c r="I2" s="6" t="s">
-        <v>159</v>
+        <v>150</v>
       </c>
       <c r="J2" s="2">
         <v>200</v>
       </c>
       <c r="K2" s="2" t="s">
-        <v>107</v>
+        <v>98</v>
       </c>
       <c r="L2" s="2" t="s">
-        <v>160</v>
+        <v>151</v>
       </c>
       <c r="M2" s="2" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="N2" s="2" t="s">
-        <v>434</v>
+        <v>423</v>
       </c>
       <c r="O2" s="2" t="s">
-        <v>435</v>
+        <v>424</v>
       </c>
       <c r="P2" s="7" t="s">
-        <v>107</v>
+        <v>98</v>
       </c>
       <c r="Q2" s="7" t="s">
-        <v>107</v>
+        <v>98</v>
       </c>
       <c r="R2" s="2">
         <v>34</v>
       </c>
       <c r="S2" s="2" t="s">
-        <v>436</v>
+        <v>425</v>
       </c>
       <c r="T2" s="2" t="s">
-        <v>437</v>
+        <v>426</v>
       </c>
       <c r="U2" s="7" t="s">
-        <v>107</v>
+        <v>98</v>
       </c>
       <c r="V2" s="7" t="s">
-        <v>107</v>
+        <v>98</v>
       </c>
       <c r="W2" s="2">
         <v>14</v>
@@ -4601,78 +4611,78 @@
         <v>0.16200000000000001</v>
       </c>
       <c r="Z2" s="4" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
     </row>
     <row r="3" spans="1:26" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
+        <v>360</v>
+      </c>
+      <c r="B3" s="22" t="s">
         <v>44</v>
-      </c>
-      <c r="B3" s="22" t="s">
-        <v>45</v>
       </c>
       <c r="C3" s="2">
         <v>51</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="E3" s="5">
         <v>0.46</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>318</v>
+        <v>309</v>
       </c>
       <c r="G3" s="2" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="H3" s="2">
         <v>30</v>
       </c>
       <c r="I3" s="6" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="J3" s="2">
         <v>200</v>
       </c>
       <c r="K3" s="2" t="s">
-        <v>107</v>
+        <v>98</v>
       </c>
       <c r="L3" s="2" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="M3" s="7" t="s">
-        <v>107</v>
+        <v>98</v>
       </c>
       <c r="N3" s="2" t="s">
-        <v>438</v>
+        <v>427</v>
       </c>
       <c r="O3" s="2" t="s">
-        <v>439</v>
+        <v>428</v>
       </c>
       <c r="P3" s="2" t="s">
-        <v>440</v>
+        <v>429</v>
       </c>
       <c r="Q3" s="7" t="s">
-        <v>107</v>
+        <v>98</v>
       </c>
       <c r="R3" s="2">
         <v>48</v>
       </c>
       <c r="S3" s="7" t="s">
-        <v>107</v>
+        <v>98</v>
       </c>
       <c r="T3" s="7" t="s">
-        <v>107</v>
+        <v>98</v>
       </c>
       <c r="U3" s="7" t="s">
-        <v>107</v>
+        <v>98</v>
       </c>
       <c r="V3" s="7" t="s">
-        <v>107</v>
+        <v>98</v>
       </c>
       <c r="W3" s="2" t="s">
-        <v>107</v>
+        <v>98</v>
       </c>
       <c r="X3" s="4">
         <v>2.3237900077244502E-4</v>
@@ -4681,78 +4691,78 @@
         <v>1.6200000000000003E-2</v>
       </c>
       <c r="Z3" s="4" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
     </row>
     <row r="4" spans="1:26" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A4" s="2" t="s">
-        <v>53</v>
+        <v>472</v>
       </c>
       <c r="B4" s="22" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="C4" s="2">
         <v>29</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="E4" s="5">
         <v>0.31</v>
       </c>
       <c r="F4" s="2" t="s">
-        <v>319</v>
+        <v>310</v>
       </c>
       <c r="G4" s="2" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="H4" s="2">
         <v>30</v>
       </c>
       <c r="I4" s="6" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="J4" s="2">
         <v>200</v>
       </c>
       <c r="K4" s="2" t="s">
-        <v>107</v>
+        <v>98</v>
       </c>
       <c r="L4" s="2" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="M4" s="7" t="s">
-        <v>107</v>
+        <v>98</v>
       </c>
       <c r="N4" s="2" t="s">
-        <v>395</v>
+        <v>384</v>
       </c>
       <c r="O4" s="2" t="s">
-        <v>396</v>
+        <v>385</v>
       </c>
       <c r="P4" s="2" t="s">
-        <v>397</v>
+        <v>386</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>107</v>
+        <v>98</v>
       </c>
       <c r="R4" s="2">
         <v>26</v>
       </c>
       <c r="S4" s="7" t="s">
-        <v>107</v>
+        <v>98</v>
       </c>
       <c r="T4" s="7" t="s">
-        <v>107</v>
+        <v>98</v>
       </c>
       <c r="U4" s="7" t="s">
-        <v>107</v>
+        <v>98</v>
       </c>
       <c r="V4" s="7" t="s">
-        <v>107</v>
+        <v>98</v>
       </c>
       <c r="W4" s="2" t="s">
-        <v>107</v>
+        <v>98</v>
       </c>
       <c r="X4" s="4">
         <v>2.3237900077244502E-4</v>
@@ -4761,21 +4771,21 @@
         <v>1.6200000000000003E-2</v>
       </c>
       <c r="Z4" s="4" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
     </row>
     <row r="5" spans="1:26" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A5" s="9" t="s">
-        <v>58</v>
+        <v>468</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="C5" s="2">
         <v>30</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="E5" s="5">
         <v>0.5</v>
@@ -4790,7 +4800,7 @@
         <v>25</v>
       </c>
       <c r="I5" s="8" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="J5" s="2">
         <v>250</v>
@@ -4799,37 +4809,37 @@
         <v>35</v>
       </c>
       <c r="L5" s="2" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="M5" s="2" t="s">
         <v>37</v>
       </c>
       <c r="N5" s="2" t="s">
-        <v>161</v>
+        <v>152</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>107</v>
+        <v>98</v>
       </c>
       <c r="P5" s="2" t="s">
-        <v>162</v>
+        <v>153</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>107</v>
+        <v>98</v>
       </c>
       <c r="R5" s="2">
         <v>30</v>
       </c>
       <c r="S5" s="2" t="s">
-        <v>161</v>
+        <v>152</v>
       </c>
       <c r="T5" s="7" t="s">
-        <v>107</v>
+        <v>98</v>
       </c>
       <c r="U5" s="2" t="s">
-        <v>163</v>
+        <v>154</v>
       </c>
       <c r="V5" s="7" t="s">
-        <v>107</v>
+        <v>98</v>
       </c>
       <c r="W5" s="2">
         <v>30</v>
@@ -4841,21 +4851,21 @@
         <v>1.3125000000000001E-3</v>
       </c>
       <c r="Z5" s="4" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
     </row>
     <row r="6" spans="1:26" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A6" s="9" t="s">
-        <v>67</v>
+        <v>469</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="C6" s="2">
         <v>30</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="E6" s="5">
         <v>0.5</v>
@@ -4864,13 +4874,13 @@
         <v>37</v>
       </c>
       <c r="G6" s="2" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
       <c r="H6" s="2">
         <v>25</v>
       </c>
       <c r="I6" s="8" t="s">
-        <v>69</v>
+        <v>65</v>
       </c>
       <c r="J6" s="2">
         <v>250</v>
@@ -4879,37 +4889,37 @@
         <v>35</v>
       </c>
       <c r="L6" s="2" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="M6" s="2" t="s">
         <v>37</v>
       </c>
       <c r="N6" s="2" t="s">
-        <v>161</v>
+        <v>152</v>
       </c>
       <c r="O6" s="7" t="s">
-        <v>107</v>
+        <v>98</v>
       </c>
       <c r="P6" s="2" t="s">
-        <v>164</v>
+        <v>155</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>107</v>
+        <v>98</v>
       </c>
       <c r="R6" s="2">
         <v>30</v>
       </c>
       <c r="S6" s="2" t="s">
-        <v>161</v>
+        <v>152</v>
       </c>
       <c r="T6" s="7" t="s">
-        <v>107</v>
+        <v>98</v>
       </c>
       <c r="U6" s="2" t="s">
-        <v>163</v>
+        <v>154</v>
       </c>
       <c r="V6" s="7" t="s">
-        <v>107</v>
+        <v>98</v>
       </c>
       <c r="W6" s="2">
         <v>30</v>
@@ -4921,21 +4931,21 @@
         <v>1.3125000000000001E-3</v>
       </c>
       <c r="Z6" s="4" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
     </row>
     <row r="7" spans="1:26" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A7" s="9" t="s">
-        <v>71</v>
+        <v>482</v>
       </c>
       <c r="B7" s="22" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="C7" s="2">
         <v>30</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="E7" s="5">
         <v>0.5</v>
@@ -4944,13 +4954,13 @@
         <v>44</v>
       </c>
       <c r="G7" s="2" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
       <c r="H7" s="2">
         <v>25</v>
       </c>
       <c r="I7" s="8" t="s">
-        <v>325</v>
+        <v>316</v>
       </c>
       <c r="J7" s="2">
         <v>250</v>
@@ -4959,40 +4969,40 @@
         <v>35</v>
       </c>
       <c r="L7" s="2" t="s">
-        <v>72</v>
+        <v>67</v>
       </c>
       <c r="M7" s="7" t="s">
-        <v>107</v>
+        <v>98</v>
       </c>
       <c r="N7" s="2" t="s">
-        <v>165</v>
+        <v>156</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>107</v>
+        <v>98</v>
       </c>
       <c r="P7" s="2" t="s">
-        <v>166</v>
+        <v>157</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>107</v>
+        <v>98</v>
       </c>
       <c r="R7" s="2">
         <v>30</v>
       </c>
       <c r="S7" s="7" t="s">
-        <v>107</v>
+        <v>98</v>
       </c>
       <c r="T7" s="7" t="s">
-        <v>107</v>
+        <v>98</v>
       </c>
       <c r="U7" s="7" t="s">
-        <v>107</v>
+        <v>98</v>
       </c>
       <c r="V7" s="7" t="s">
-        <v>107</v>
+        <v>98</v>
       </c>
       <c r="W7" s="2" t="s">
-        <v>107</v>
+        <v>98</v>
       </c>
       <c r="X7" s="4">
         <v>5.5901699437494697E-5</v>
@@ -5001,27 +5011,27 @@
         <v>1.125E-2</v>
       </c>
       <c r="Z7" s="4" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
     </row>
     <row r="8" spans="1:26" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A8" s="9" t="s">
-        <v>167</v>
+        <v>158</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="C8" s="2">
         <v>10</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>168</v>
+        <v>159</v>
       </c>
       <c r="E8" s="5">
         <v>0.8</v>
       </c>
       <c r="F8" s="2" t="s">
-        <v>169</v>
+        <v>160</v>
       </c>
       <c r="G8" s="2" t="s">
         <v>34</v>
@@ -5030,46 +5040,46 @@
         <v>25</v>
       </c>
       <c r="I8" s="6" t="s">
-        <v>170</v>
+        <v>161</v>
       </c>
       <c r="J8" s="2">
         <v>250</v>
       </c>
       <c r="K8" s="2" t="s">
-        <v>171</v>
+        <v>162</v>
       </c>
       <c r="L8" s="2" t="s">
-        <v>326</v>
+        <v>317</v>
       </c>
       <c r="M8" s="2" t="s">
-        <v>77</v>
+        <v>72</v>
       </c>
       <c r="N8" s="2" t="s">
-        <v>327</v>
+        <v>318</v>
       </c>
       <c r="O8" s="2" t="s">
-        <v>328</v>
+        <v>319</v>
       </c>
       <c r="P8" s="2" t="s">
-        <v>329</v>
+        <v>320</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>107</v>
+        <v>98</v>
       </c>
       <c r="R8" s="2">
         <v>9</v>
       </c>
       <c r="S8" s="2" t="s">
-        <v>330</v>
+        <v>321</v>
       </c>
       <c r="T8" s="2" t="s">
-        <v>331</v>
+        <v>322</v>
       </c>
       <c r="U8" s="2" t="s">
-        <v>332</v>
+        <v>323</v>
       </c>
       <c r="V8" s="7" t="s">
-        <v>107</v>
+        <v>98</v>
       </c>
       <c r="W8" s="2">
         <v>9</v>
@@ -5081,75 +5091,75 @@
         <v>5.2500000000000003E-3</v>
       </c>
       <c r="Z8" s="4" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
     </row>
     <row r="9" spans="1:26" s="1" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="2" t="s">
-        <v>89</v>
+        <v>470</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="C9" s="2">
         <v>28</v>
       </c>
       <c r="D9" s="9" t="s">
-        <v>90</v>
+        <v>82</v>
       </c>
       <c r="E9" s="5">
         <v>1</v>
       </c>
       <c r="F9" s="2" t="s">
-        <v>91</v>
+        <v>83</v>
       </c>
       <c r="G9" s="2" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
       <c r="H9" s="2">
         <v>5</v>
       </c>
       <c r="I9" s="8" t="s">
-        <v>92</v>
+        <v>84</v>
       </c>
       <c r="J9" s="2">
         <v>200</v>
       </c>
       <c r="K9" s="2" t="s">
-        <v>107</v>
+        <v>98</v>
       </c>
       <c r="L9" s="2" t="s">
-        <v>93</v>
+        <v>85</v>
       </c>
       <c r="M9" s="2" t="s">
-        <v>77</v>
+        <v>72</v>
       </c>
       <c r="N9" s="2" t="s">
-        <v>173</v>
+        <v>164</v>
       </c>
       <c r="O9" s="2" t="s">
-        <v>174</v>
+        <v>165</v>
       </c>
       <c r="P9" s="2" t="s">
-        <v>351</v>
+        <v>342</v>
       </c>
       <c r="Q9" s="7" t="s">
-        <v>107</v>
+        <v>98</v>
       </c>
       <c r="R9" s="2">
         <v>28</v>
       </c>
       <c r="S9" s="2" t="s">
-        <v>175</v>
+        <v>166</v>
       </c>
       <c r="T9" s="2" t="s">
-        <v>176</v>
+        <v>167</v>
       </c>
       <c r="U9" s="2" t="s">
-        <v>353</v>
+        <v>344</v>
       </c>
       <c r="V9" s="7" t="s">
-        <v>107</v>
+        <v>98</v>
       </c>
       <c r="W9" s="2">
         <v>28</v>
@@ -5161,75 +5171,75 @@
         <v>7.1999999999999994E-4</v>
       </c>
       <c r="Z9" s="4" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
     </row>
     <row r="10" spans="1:26" s="1" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="2" t="s">
-        <v>98</v>
+        <v>471</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="C10" s="2">
         <v>28</v>
       </c>
       <c r="D10" s="9" t="s">
-        <v>99</v>
+        <v>90</v>
       </c>
       <c r="E10" s="5">
         <v>1</v>
       </c>
       <c r="F10" s="2" t="s">
-        <v>91</v>
+        <v>83</v>
       </c>
       <c r="G10" s="2" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
       <c r="H10" s="2">
         <v>25</v>
       </c>
       <c r="I10" s="8" t="s">
-        <v>100</v>
+        <v>91</v>
       </c>
       <c r="J10" s="2">
         <v>200</v>
       </c>
       <c r="K10" s="2" t="s">
-        <v>107</v>
+        <v>98</v>
       </c>
       <c r="L10" s="2" t="s">
-        <v>93</v>
+        <v>85</v>
       </c>
       <c r="M10" s="2" t="s">
-        <v>77</v>
+        <v>72</v>
       </c>
       <c r="N10" s="2" t="s">
-        <v>177</v>
+        <v>168</v>
       </c>
       <c r="O10" s="2" t="s">
-        <v>178</v>
+        <v>169</v>
       </c>
       <c r="P10" s="2" t="s">
-        <v>352</v>
+        <v>343</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>107</v>
+        <v>98</v>
       </c>
       <c r="R10" s="2">
         <v>28</v>
       </c>
       <c r="S10" s="2" t="s">
-        <v>175</v>
+        <v>166</v>
       </c>
       <c r="T10" s="2" t="s">
-        <v>176</v>
+        <v>167</v>
       </c>
       <c r="U10" s="2" t="s">
-        <v>353</v>
+        <v>344</v>
       </c>
       <c r="V10" s="7" t="s">
-        <v>107</v>
+        <v>98</v>
       </c>
       <c r="W10" s="2">
         <v>28</v>
@@ -5241,15 +5251,15 @@
         <v>1.6500000000000001E-2</v>
       </c>
       <c r="Z10" s="4" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
     </row>
     <row r="11" spans="1:26" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A11" s="2" t="s">
-        <v>389</v>
+        <v>380</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="C11" s="2">
         <v>14</v>
@@ -5276,40 +5286,40 @@
         <v>250</v>
       </c>
       <c r="K11" s="2" t="s">
-        <v>107</v>
+        <v>98</v>
       </c>
       <c r="L11" s="2" t="s">
         <v>25</v>
       </c>
       <c r="M11" s="2" t="s">
-        <v>77</v>
+        <v>72</v>
       </c>
       <c r="N11" s="2" t="s">
-        <v>398</v>
+        <v>387</v>
       </c>
       <c r="O11" s="2" t="s">
-        <v>399</v>
+        <v>388</v>
       </c>
       <c r="P11" s="2" t="s">
-        <v>400</v>
+        <v>389</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>107</v>
+        <v>98</v>
       </c>
       <c r="R11" s="2">
         <v>14</v>
       </c>
       <c r="S11" s="2" t="s">
-        <v>401</v>
+        <v>390</v>
       </c>
       <c r="T11" s="2" t="s">
-        <v>402</v>
+        <v>391</v>
       </c>
       <c r="U11" s="2" t="s">
-        <v>403</v>
+        <v>392</v>
       </c>
       <c r="V11" s="7" t="s">
-        <v>107</v>
+        <v>98</v>
       </c>
       <c r="W11" s="2">
         <v>14</v>
@@ -5321,15 +5331,15 @@
         <v>2.0249999999999997E-2</v>
       </c>
       <c r="Z11" s="17" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
     </row>
     <row r="12" spans="1:26" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="2" t="s">
-        <v>390</v>
+        <v>467</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="C12" s="2">
         <v>42</v>
@@ -5350,7 +5360,7 @@
         <v>500</v>
       </c>
       <c r="I12" s="9" t="s">
-        <v>407</v>
+        <v>396</v>
       </c>
       <c r="J12" s="2">
         <v>500</v>
@@ -5365,31 +5375,31 @@
         <v>37</v>
       </c>
       <c r="N12" s="2" t="s">
-        <v>252</v>
+        <v>243</v>
       </c>
       <c r="O12" s="2" t="s">
-        <v>253</v>
+        <v>244</v>
       </c>
       <c r="P12" s="2" t="s">
-        <v>404</v>
+        <v>393</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>107</v>
+        <v>98</v>
       </c>
       <c r="R12" s="2">
         <v>42</v>
       </c>
       <c r="S12" s="2" t="s">
-        <v>252</v>
+        <v>243</v>
       </c>
       <c r="T12" s="2" t="s">
-        <v>254</v>
+        <v>245</v>
       </c>
       <c r="U12" s="2" t="s">
-        <v>255</v>
+        <v>246</v>
       </c>
       <c r="V12" s="7" t="s">
-        <v>107</v>
+        <v>98</v>
       </c>
       <c r="W12" s="2">
         <v>42</v>
@@ -5401,15 +5411,15 @@
         <v>2.2499999999999999E-2</v>
       </c>
       <c r="Z12" s="4" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
     </row>
     <row r="13" spans="1:26" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="2" t="s">
-        <v>391</v>
+        <v>466</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="C13" s="2">
         <v>42</v>
@@ -5430,7 +5440,7 @@
         <v>25</v>
       </c>
       <c r="I13" s="9" t="s">
-        <v>407</v>
+        <v>396</v>
       </c>
       <c r="J13" s="2">
         <v>500</v>
@@ -5445,31 +5455,31 @@
         <v>37</v>
       </c>
       <c r="N13" s="2" t="s">
-        <v>252</v>
+        <v>243</v>
       </c>
       <c r="O13" s="2" t="s">
-        <v>405</v>
+        <v>394</v>
       </c>
       <c r="P13" s="2" t="s">
-        <v>406</v>
+        <v>395</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>107</v>
+        <v>98</v>
       </c>
       <c r="R13" s="2">
         <v>42</v>
       </c>
       <c r="S13" s="2" t="s">
-        <v>252</v>
+        <v>243</v>
       </c>
       <c r="T13" s="2" t="s">
-        <v>254</v>
+        <v>245</v>
       </c>
       <c r="U13" s="2" t="s">
-        <v>255</v>
+        <v>246</v>
       </c>
       <c r="V13" s="7" t="s">
-        <v>107</v>
+        <v>98</v>
       </c>
       <c r="W13" s="2">
         <v>42</v>
@@ -5481,75 +5491,75 @@
         <v>2.2499999999999999E-2</v>
       </c>
       <c r="Z13" s="4" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
     </row>
     <row r="14" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A14" s="2" t="s">
-        <v>432</v>
+        <v>421</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="C14" s="2">
         <v>21</v>
       </c>
       <c r="D14" s="2" t="s">
-        <v>287</v>
+        <v>278</v>
       </c>
       <c r="E14" s="14">
         <v>0.61899999999999999</v>
       </c>
       <c r="F14" s="2" t="s">
-        <v>288</v>
+        <v>279</v>
       </c>
       <c r="G14" s="2" t="s">
-        <v>433</v>
+        <v>422</v>
       </c>
       <c r="H14" s="2">
         <v>25</v>
       </c>
       <c r="I14" s="2" t="s">
-        <v>289</v>
+        <v>280</v>
       </c>
       <c r="J14" s="2">
         <v>500</v>
       </c>
       <c r="K14" s="2" t="s">
-        <v>107</v>
+        <v>98</v>
       </c>
       <c r="L14" s="2" t="s">
-        <v>290</v>
+        <v>281</v>
       </c>
       <c r="M14" s="9" t="s">
-        <v>441</v>
+        <v>430</v>
       </c>
       <c r="N14" s="2" t="s">
-        <v>291</v>
+        <v>282</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>107</v>
+        <v>98</v>
       </c>
       <c r="P14" s="2" t="s">
-        <v>292</v>
+        <v>283</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>107</v>
+        <v>98</v>
       </c>
       <c r="R14" s="2">
         <v>21</v>
       </c>
       <c r="S14" s="2" t="s">
-        <v>291</v>
+        <v>282</v>
       </c>
       <c r="T14" s="7" t="s">
-        <v>107</v>
+        <v>98</v>
       </c>
       <c r="U14" s="2" t="s">
-        <v>293</v>
+        <v>284</v>
       </c>
       <c r="V14" s="7" t="s">
-        <v>107</v>
+        <v>98</v>
       </c>
       <c r="W14" s="2">
         <v>21</v>
@@ -5561,15 +5571,15 @@
         <v>8.9999999999999993E-3</v>
       </c>
       <c r="Z14" s="17" t="s">
-        <v>476</v>
+        <v>465</v>
       </c>
     </row>
     <row r="15" spans="1:26" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="7" t="s">
-        <v>413</v>
+        <v>402</v>
       </c>
       <c r="B15" s="7" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="C15" s="7">
         <v>23</v>
@@ -5581,75 +5591,75 @@
         <v>0.43469999999999998</v>
       </c>
       <c r="F15" s="7" t="s">
-        <v>267</v>
+        <v>258</v>
       </c>
       <c r="G15" s="7" t="s">
-        <v>268</v>
+        <v>259</v>
       </c>
       <c r="H15" s="7">
         <v>1</v>
       </c>
       <c r="I15" s="7" t="s">
-        <v>266</v>
+        <v>257</v>
       </c>
       <c r="J15" s="7">
         <v>4000</v>
       </c>
       <c r="K15" s="7" t="s">
-        <v>107</v>
+        <v>98</v>
       </c>
       <c r="L15" s="7" t="s">
         <v>42</v>
       </c>
       <c r="M15" s="7" t="s">
-        <v>107</v>
+        <v>98</v>
       </c>
       <c r="N15" s="7" t="s">
-        <v>269</v>
+        <v>260</v>
       </c>
       <c r="O15" s="7" t="s">
-        <v>107</v>
+        <v>98</v>
       </c>
       <c r="P15" s="7" t="s">
-        <v>271</v>
+        <v>262</v>
       </c>
       <c r="Q15" s="7" t="s">
-        <v>107</v>
+        <v>98</v>
       </c>
       <c r="R15" s="7">
         <v>23</v>
       </c>
       <c r="S15" s="7" t="s">
-        <v>107</v>
+        <v>98</v>
       </c>
       <c r="T15" s="7" t="s">
-        <v>107</v>
+        <v>98</v>
       </c>
       <c r="U15" s="7" t="s">
-        <v>107</v>
+        <v>98</v>
       </c>
       <c r="V15" s="7" t="s">
-        <v>107</v>
+        <v>98</v>
       </c>
       <c r="W15" s="7" t="s">
-        <v>107</v>
+        <v>98</v>
       </c>
       <c r="X15" s="4" t="s">
-        <v>107</v>
+        <v>98</v>
       </c>
       <c r="Y15" s="4" t="s">
-        <v>107</v>
+        <v>98</v>
       </c>
       <c r="Z15" s="4" t="s">
-        <v>107</v>
+        <v>98</v>
       </c>
     </row>
     <row r="16" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A16" s="7" t="s">
-        <v>414</v>
+        <v>403</v>
       </c>
       <c r="B16" s="7" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="C16" s="7">
         <v>23</v>
@@ -5661,75 +5671,75 @@
         <v>0.43469999999999998</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>267</v>
+        <v>258</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>236</v>
+        <v>227</v>
       </c>
       <c r="H16" s="7">
         <v>1</v>
       </c>
       <c r="I16" s="7" t="s">
-        <v>266</v>
+        <v>257</v>
       </c>
       <c r="J16" s="7">
         <v>4000</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>107</v>
+        <v>98</v>
       </c>
       <c r="L16" s="7" t="s">
         <v>42</v>
       </c>
       <c r="M16" s="7" t="s">
-        <v>107</v>
+        <v>98</v>
       </c>
       <c r="N16" s="7" t="s">
-        <v>270</v>
+        <v>261</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>107</v>
+        <v>98</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>272</v>
+        <v>263</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>107</v>
+        <v>98</v>
       </c>
       <c r="R16" s="7">
         <v>23</v>
       </c>
       <c r="S16" s="7" t="s">
-        <v>107</v>
+        <v>98</v>
       </c>
       <c r="T16" s="7" t="s">
-        <v>107</v>
+        <v>98</v>
       </c>
       <c r="U16" s="7" t="s">
-        <v>107</v>
+        <v>98</v>
       </c>
       <c r="V16" s="7" t="s">
-        <v>107</v>
+        <v>98</v>
       </c>
       <c r="W16" s="7" t="s">
-        <v>107</v>
+        <v>98</v>
       </c>
       <c r="X16" s="4" t="s">
-        <v>107</v>
+        <v>98</v>
       </c>
       <c r="Y16" s="4" t="s">
-        <v>107</v>
+        <v>98</v>
       </c>
       <c r="Z16" s="4" t="s">
-        <v>107</v>
+        <v>98</v>
       </c>
     </row>
     <row r="17" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A17" s="7" t="s">
-        <v>415</v>
+        <v>404</v>
       </c>
       <c r="B17" s="7" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="C17" s="7">
         <v>23</v>
@@ -5741,75 +5751,75 @@
         <v>0.43469999999999998</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>267</v>
+        <v>258</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>268</v>
+        <v>259</v>
       </c>
       <c r="H17" s="7">
         <v>25</v>
       </c>
       <c r="I17" s="7" t="s">
-        <v>266</v>
+        <v>257</v>
       </c>
       <c r="J17" s="7">
         <v>4000</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>107</v>
+        <v>98</v>
       </c>
       <c r="L17" s="7" t="s">
         <v>42</v>
       </c>
       <c r="M17" s="7" t="s">
-        <v>107</v>
+        <v>98</v>
       </c>
       <c r="N17" s="7" t="s">
-        <v>269</v>
+        <v>260</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>107</v>
+        <v>98</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>273</v>
+        <v>264</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>107</v>
+        <v>98</v>
       </c>
       <c r="R17" s="7">
         <v>23</v>
       </c>
       <c r="S17" s="7" t="s">
-        <v>107</v>
+        <v>98</v>
       </c>
       <c r="T17" s="7" t="s">
-        <v>107</v>
+        <v>98</v>
       </c>
       <c r="U17" s="7" t="s">
-        <v>107</v>
+        <v>98</v>
       </c>
       <c r="V17" s="7" t="s">
-        <v>107</v>
+        <v>98</v>
       </c>
       <c r="W17" s="7" t="s">
-        <v>107</v>
+        <v>98</v>
       </c>
       <c r="X17" s="4" t="s">
-        <v>107</v>
+        <v>98</v>
       </c>
       <c r="Y17" s="4" t="s">
-        <v>107</v>
+        <v>98</v>
       </c>
       <c r="Z17" s="4" t="s">
-        <v>107</v>
+        <v>98</v>
       </c>
     </row>
     <row r="18" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A18" s="7" t="s">
-        <v>416</v>
+        <v>405</v>
       </c>
       <c r="B18" s="7" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="C18" s="7">
         <v>23</v>
@@ -5821,67 +5831,67 @@
         <v>0.43469999999999998</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>267</v>
+        <v>258</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>236</v>
+        <v>227</v>
       </c>
       <c r="H18" s="7">
         <v>25</v>
       </c>
       <c r="I18" s="7" t="s">
-        <v>266</v>
+        <v>257</v>
       </c>
       <c r="J18" s="7">
         <v>4000</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>107</v>
+        <v>98</v>
       </c>
       <c r="L18" s="7" t="s">
         <v>42</v>
       </c>
       <c r="M18" s="7" t="s">
-        <v>107</v>
+        <v>98</v>
       </c>
       <c r="N18" s="7" t="s">
-        <v>270</v>
+        <v>261</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>107</v>
+        <v>98</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>274</v>
+        <v>265</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>107</v>
+        <v>98</v>
       </c>
       <c r="R18" s="7">
         <v>23</v>
       </c>
       <c r="S18" s="7" t="s">
-        <v>107</v>
+        <v>98</v>
       </c>
       <c r="T18" s="7" t="s">
-        <v>107</v>
+        <v>98</v>
       </c>
       <c r="U18" s="7" t="s">
-        <v>107</v>
+        <v>98</v>
       </c>
       <c r="V18" s="7" t="s">
-        <v>107</v>
+        <v>98</v>
       </c>
       <c r="W18" s="7" t="s">
-        <v>107</v>
+        <v>98</v>
       </c>
       <c r="X18" s="4" t="s">
-        <v>107</v>
+        <v>98</v>
       </c>
       <c r="Y18" s="4" t="s">
-        <v>107</v>
+        <v>98</v>
       </c>
       <c r="Z18" s="4" t="s">
-        <v>107</v>
+        <v>98</v>
       </c>
     </row>
     <row r="19" spans="1:26" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -5897,7 +5907,7 @@
   <dimension ref="A1:Z25"/>
   <sheetViews>
     <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="B19" sqref="B19"/>
+      <selection activeCell="B13" sqref="B13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5970,13 +5980,13 @@
         <v>12</v>
       </c>
       <c r="O1" s="32" t="s">
-        <v>459</v>
+        <v>448</v>
       </c>
       <c r="P1" s="32" t="s">
         <v>13</v>
       </c>
       <c r="Q1" s="12" t="s">
-        <v>460</v>
+        <v>449</v>
       </c>
       <c r="R1" s="32" t="s">
         <v>14</v>
@@ -5985,13 +5995,13 @@
         <v>15</v>
       </c>
       <c r="T1" s="32" t="s">
-        <v>458</v>
+        <v>447</v>
       </c>
       <c r="U1" s="32" t="s">
         <v>16</v>
       </c>
       <c r="V1" s="27" t="s">
-        <v>461</v>
+        <v>450</v>
       </c>
       <c r="W1" s="32" t="s">
         <v>17</v>
@@ -6008,70 +6018,70 @@
     </row>
     <row r="2" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A2" s="9" t="s">
-        <v>157</v>
+        <v>148</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="C2" s="2">
         <v>48</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>158</v>
+        <v>149</v>
       </c>
       <c r="E2" s="5">
         <v>0.5</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>324</v>
+        <v>315</v>
       </c>
       <c r="G2" s="2" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="H2" s="2">
         <v>30</v>
       </c>
       <c r="I2" s="6" t="s">
-        <v>159</v>
+        <v>150</v>
       </c>
       <c r="J2" s="2">
         <v>200</v>
       </c>
       <c r="K2" s="2" t="s">
-        <v>107</v>
+        <v>98</v>
       </c>
       <c r="L2" s="2" t="s">
-        <v>160</v>
+        <v>151</v>
       </c>
       <c r="M2" s="2" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="N2" s="2" t="s">
-        <v>417</v>
+        <v>406</v>
       </c>
       <c r="O2" s="2" t="s">
-        <v>179</v>
+        <v>170</v>
       </c>
       <c r="P2" s="7" t="s">
-        <v>107</v>
+        <v>98</v>
       </c>
       <c r="Q2" s="7" t="s">
-        <v>107</v>
+        <v>98</v>
       </c>
       <c r="R2" s="2">
         <v>34</v>
       </c>
       <c r="S2" s="2" t="s">
-        <v>180</v>
+        <v>171</v>
       </c>
       <c r="T2" s="2" t="s">
-        <v>181</v>
+        <v>172</v>
       </c>
       <c r="U2" s="22" t="s">
-        <v>107</v>
+        <v>98</v>
       </c>
       <c r="V2" s="7" t="s">
-        <v>107</v>
+        <v>98</v>
       </c>
       <c r="W2" s="2">
         <v>14</v>
@@ -6083,78 +6093,78 @@
         <v>0.16200000000000001</v>
       </c>
       <c r="Z2" s="4" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
     </row>
     <row r="3" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
+        <v>360</v>
+      </c>
+      <c r="B3" s="7" t="s">
         <v>44</v>
-      </c>
-      <c r="B3" s="7" t="s">
-        <v>45</v>
       </c>
       <c r="C3" s="2">
         <v>51</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="E3" s="5">
         <v>0.46</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>318</v>
+        <v>309</v>
       </c>
       <c r="G3" s="2" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="H3" s="2">
         <v>30</v>
       </c>
       <c r="I3" s="6" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="J3" s="2">
         <v>200</v>
       </c>
       <c r="K3" s="2" t="s">
-        <v>107</v>
+        <v>98</v>
       </c>
       <c r="L3" s="2" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="M3" s="7" t="s">
-        <v>107</v>
+        <v>98</v>
       </c>
       <c r="N3" s="2" t="s">
-        <v>418</v>
+        <v>407</v>
       </c>
       <c r="O3" s="2" t="s">
-        <v>419</v>
+        <v>408</v>
       </c>
       <c r="P3" s="2" t="s">
-        <v>420</v>
+        <v>409</v>
       </c>
       <c r="Q3" s="7" t="s">
-        <v>107</v>
+        <v>98</v>
       </c>
       <c r="R3" s="2">
         <v>48</v>
       </c>
       <c r="S3" s="7" t="s">
-        <v>107</v>
+        <v>98</v>
       </c>
       <c r="T3" s="7" t="s">
-        <v>107</v>
+        <v>98</v>
       </c>
       <c r="U3" s="7" t="s">
-        <v>107</v>
+        <v>98</v>
       </c>
       <c r="V3" s="7" t="s">
-        <v>107</v>
+        <v>98</v>
       </c>
       <c r="W3" s="7" t="s">
-        <v>107</v>
+        <v>98</v>
       </c>
       <c r="X3" s="4">
         <v>2.3237900077244502E-4</v>
@@ -6163,78 +6173,78 @@
         <v>1.6200000000000003E-2</v>
       </c>
       <c r="Z3" s="4" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
     </row>
     <row r="4" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A4" s="2" t="s">
-        <v>53</v>
+        <v>472</v>
       </c>
       <c r="B4" s="7" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="C4" s="2">
         <v>29</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="E4" s="5">
         <v>0.31</v>
       </c>
       <c r="F4" s="2" t="s">
-        <v>319</v>
+        <v>310</v>
       </c>
       <c r="G4" s="2" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="H4" s="2">
         <v>30</v>
       </c>
       <c r="I4" s="6" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="J4" s="2">
         <v>200</v>
       </c>
       <c r="K4" s="2" t="s">
-        <v>107</v>
+        <v>98</v>
       </c>
       <c r="L4" s="2" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="M4" s="7" t="s">
-        <v>107</v>
+        <v>98</v>
       </c>
       <c r="N4" s="7" t="s">
-        <v>421</v>
+        <v>410</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>107</v>
+        <v>98</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>422</v>
+        <v>411</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>107</v>
+        <v>98</v>
       </c>
       <c r="R4" s="2">
         <v>26</v>
       </c>
       <c r="S4" s="7" t="s">
-        <v>107</v>
+        <v>98</v>
       </c>
       <c r="T4" s="7" t="s">
-        <v>107</v>
+        <v>98</v>
       </c>
       <c r="U4" s="7" t="s">
-        <v>107</v>
+        <v>98</v>
       </c>
       <c r="V4" s="7" t="s">
-        <v>107</v>
+        <v>98</v>
       </c>
       <c r="W4" s="7" t="s">
-        <v>107</v>
+        <v>98</v>
       </c>
       <c r="X4" s="4">
         <v>2.3237900077244499E-4</v>
@@ -6243,21 +6253,21 @@
         <v>1.6200000000000003E-2</v>
       </c>
       <c r="Z4" s="4" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
     </row>
-    <row r="5" spans="1:26" ht="30" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A5" s="9" t="s">
-        <v>58</v>
+        <v>468</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="C5" s="2">
         <v>30</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="E5" s="5">
         <v>0.5</v>
@@ -6272,7 +6282,7 @@
         <v>25</v>
       </c>
       <c r="I5" s="8" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="J5" s="2">
         <v>250</v>
@@ -6281,37 +6291,37 @@
         <v>35</v>
       </c>
       <c r="L5" s="2" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="M5" s="2" t="s">
         <v>37</v>
       </c>
       <c r="N5" s="2" t="s">
-        <v>183</v>
+        <v>174</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>107</v>
+        <v>98</v>
       </c>
       <c r="P5" s="2" t="s">
-        <v>182</v>
+        <v>173</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>107</v>
+        <v>98</v>
       </c>
       <c r="R5" s="2">
         <v>30</v>
       </c>
       <c r="S5" s="2" t="s">
-        <v>183</v>
+        <v>174</v>
       </c>
       <c r="T5" s="7" t="s">
-        <v>107</v>
+        <v>98</v>
       </c>
       <c r="U5" s="2" t="s">
-        <v>184</v>
+        <v>175</v>
       </c>
       <c r="V5" s="7" t="s">
-        <v>107</v>
+        <v>98</v>
       </c>
       <c r="W5" s="2">
         <v>30</v>
@@ -6323,21 +6333,21 @@
         <v>1.3125000000000001E-3</v>
       </c>
       <c r="Z5" s="4" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
     </row>
     <row r="6" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A6" s="2" t="s">
-        <v>67</v>
+        <v>469</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="C6" s="2">
         <v>30</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="E6" s="5">
         <v>0.5</v>
@@ -6346,13 +6356,13 @@
         <v>37</v>
       </c>
       <c r="G6" s="2" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
       <c r="H6" s="2">
         <v>25</v>
       </c>
       <c r="I6" s="8" t="s">
-        <v>69</v>
+        <v>65</v>
       </c>
       <c r="J6" s="2">
         <v>250</v>
@@ -6361,37 +6371,37 @@
         <v>35</v>
       </c>
       <c r="L6" s="2" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="M6" s="2" t="s">
         <v>37</v>
       </c>
       <c r="N6" s="2" t="s">
-        <v>183</v>
+        <v>174</v>
       </c>
       <c r="O6" s="7" t="s">
-        <v>107</v>
+        <v>98</v>
       </c>
       <c r="P6" s="2" t="s">
-        <v>185</v>
+        <v>176</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>107</v>
+        <v>98</v>
       </c>
       <c r="R6" s="2">
         <v>30</v>
       </c>
       <c r="S6" s="2" t="s">
-        <v>183</v>
+        <v>174</v>
       </c>
       <c r="T6" s="7" t="s">
-        <v>107</v>
+        <v>98</v>
       </c>
       <c r="U6" s="2" t="s">
-        <v>184</v>
+        <v>175</v>
       </c>
       <c r="V6" s="7" t="s">
-        <v>107</v>
+        <v>98</v>
       </c>
       <c r="W6" s="2">
         <v>30</v>
@@ -6403,21 +6413,21 @@
         <v>1.3125000000000001E-3</v>
       </c>
       <c r="Z6" s="4" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
     </row>
     <row r="7" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A7" s="2" t="s">
-        <v>71</v>
+        <v>482</v>
       </c>
       <c r="B7" s="7" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="C7" s="2">
         <v>30</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="E7" s="5">
         <v>0.5</v>
@@ -6426,13 +6436,13 @@
         <v>44</v>
       </c>
       <c r="G7" s="2" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
       <c r="H7" s="2">
         <v>25</v>
       </c>
       <c r="I7" s="8" t="s">
-        <v>325</v>
+        <v>316</v>
       </c>
       <c r="J7" s="2">
         <v>250</v>
@@ -6441,40 +6451,40 @@
         <v>35</v>
       </c>
       <c r="L7" s="2" t="s">
-        <v>72</v>
+        <v>67</v>
       </c>
       <c r="M7" s="7" t="s">
-        <v>107</v>
+        <v>98</v>
       </c>
       <c r="N7" s="7" t="s">
-        <v>197</v>
+        <v>188</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>107</v>
+        <v>98</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>186</v>
+        <v>177</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>107</v>
+        <v>98</v>
       </c>
       <c r="R7" s="2">
         <v>30</v>
       </c>
       <c r="S7" s="7" t="s">
-        <v>107</v>
+        <v>98</v>
       </c>
       <c r="T7" s="7" t="s">
-        <v>107</v>
+        <v>98</v>
       </c>
       <c r="U7" s="7" t="s">
-        <v>107</v>
+        <v>98</v>
       </c>
       <c r="V7" s="7" t="s">
-        <v>107</v>
+        <v>98</v>
       </c>
       <c r="W7" s="7" t="s">
-        <v>107</v>
+        <v>98</v>
       </c>
       <c r="X7" s="4">
         <v>5.5901699437494697E-5</v>
@@ -6483,27 +6493,27 @@
         <v>1.125E-2</v>
       </c>
       <c r="Z7" s="4" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
     </row>
     <row r="8" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A8" s="2" t="s">
-        <v>167</v>
+        <v>158</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="C8" s="2">
         <v>10</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>168</v>
+        <v>159</v>
       </c>
       <c r="E8" s="5">
         <v>0.8</v>
       </c>
       <c r="F8" s="2" t="s">
-        <v>169</v>
+        <v>160</v>
       </c>
       <c r="G8" s="2" t="s">
         <v>34</v>
@@ -6512,46 +6522,46 @@
         <v>25</v>
       </c>
       <c r="I8" s="6" t="s">
-        <v>170</v>
+        <v>161</v>
       </c>
       <c r="J8" s="2">
         <v>250</v>
       </c>
       <c r="K8" s="2" t="s">
-        <v>171</v>
+        <v>162</v>
       </c>
       <c r="L8" s="2" t="s">
-        <v>172</v>
+        <v>163</v>
       </c>
       <c r="M8" s="2" t="s">
-        <v>77</v>
+        <v>72</v>
       </c>
       <c r="N8" s="2" t="s">
-        <v>333</v>
+        <v>324</v>
       </c>
       <c r="O8" s="2" t="s">
-        <v>334</v>
+        <v>325</v>
       </c>
       <c r="P8" s="2" t="s">
-        <v>335</v>
+        <v>326</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>107</v>
+        <v>98</v>
       </c>
       <c r="R8" s="2">
         <v>9</v>
       </c>
       <c r="S8" s="2" t="s">
-        <v>336</v>
+        <v>327</v>
       </c>
       <c r="T8" s="2" t="s">
-        <v>337</v>
+        <v>328</v>
       </c>
       <c r="U8" s="2" t="s">
-        <v>338</v>
+        <v>329</v>
       </c>
       <c r="V8" s="7" t="s">
-        <v>107</v>
+        <v>98</v>
       </c>
       <c r="W8" s="2">
         <v>9</v>
@@ -6563,27 +6573,27 @@
         <v>5.2500000000000003E-3</v>
       </c>
       <c r="Z8" s="4" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
     </row>
     <row r="9" spans="1:26" ht="30" x14ac:dyDescent="0.25">
       <c r="A9" s="2" t="s">
-        <v>80</v>
+        <v>473</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="C9" s="2">
         <v>42</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>76</v>
+        <v>71</v>
       </c>
       <c r="E9" s="14">
         <v>0.42799999999999999</v>
       </c>
       <c r="F9" s="2" t="s">
-        <v>198</v>
+        <v>189</v>
       </c>
       <c r="G9" s="2" t="s">
         <v>34</v>
@@ -6592,46 +6602,46 @@
         <v>25</v>
       </c>
       <c r="I9" s="8" t="s">
-        <v>423</v>
+        <v>412</v>
       </c>
       <c r="J9" s="2">
         <v>250</v>
       </c>
       <c r="K9" s="2" t="s">
-        <v>107</v>
+        <v>98</v>
       </c>
       <c r="L9" s="2" t="s">
-        <v>82</v>
+        <v>76</v>
       </c>
       <c r="M9" s="2" t="s">
-        <v>77</v>
+        <v>72</v>
       </c>
       <c r="N9" s="2" t="s">
-        <v>199</v>
+        <v>190</v>
       </c>
       <c r="O9" s="2" t="s">
-        <v>187</v>
+        <v>178</v>
       </c>
       <c r="P9" s="2" t="s">
-        <v>315</v>
+        <v>306</v>
       </c>
       <c r="Q9" s="7" t="s">
-        <v>107</v>
+        <v>98</v>
       </c>
       <c r="R9" s="2">
         <v>42</v>
       </c>
       <c r="S9" s="2" t="s">
-        <v>188</v>
+        <v>179</v>
       </c>
       <c r="T9" s="2" t="s">
-        <v>189</v>
+        <v>180</v>
       </c>
       <c r="U9" s="2" t="s">
-        <v>316</v>
+        <v>307</v>
       </c>
       <c r="V9" s="7" t="s">
-        <v>107</v>
+        <v>98</v>
       </c>
       <c r="W9" s="2">
         <v>42</v>
@@ -6643,27 +6653,27 @@
         <v>1.41E-3</v>
       </c>
       <c r="Z9" s="4" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
     </row>
     <row r="10" spans="1:26" ht="30" x14ac:dyDescent="0.25">
       <c r="A10" s="2" t="s">
-        <v>86</v>
+        <v>474</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="C10" s="2">
         <v>42</v>
       </c>
       <c r="D10" s="2" t="s">
-        <v>76</v>
+        <v>71</v>
       </c>
       <c r="E10" s="14">
         <v>0.42799999999999999</v>
       </c>
       <c r="F10" s="2" t="s">
-        <v>198</v>
+        <v>189</v>
       </c>
       <c r="G10" s="2" t="s">
         <v>23</v>
@@ -6672,46 +6682,46 @@
         <v>25</v>
       </c>
       <c r="I10" s="8" t="s">
-        <v>424</v>
+        <v>413</v>
       </c>
       <c r="J10" s="2">
         <v>250</v>
       </c>
       <c r="K10" s="2" t="s">
-        <v>107</v>
+        <v>98</v>
       </c>
       <c r="L10" s="2" t="s">
-        <v>82</v>
+        <v>76</v>
       </c>
       <c r="M10" s="2" t="s">
-        <v>77</v>
+        <v>72</v>
       </c>
       <c r="N10" s="2" t="s">
-        <v>200</v>
+        <v>191</v>
       </c>
       <c r="O10" s="2" t="s">
-        <v>190</v>
+        <v>181</v>
       </c>
       <c r="P10" s="2" t="s">
-        <v>317</v>
+        <v>308</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>107</v>
+        <v>98</v>
       </c>
       <c r="R10" s="2">
         <v>42</v>
       </c>
       <c r="S10" s="2" t="s">
-        <v>188</v>
+        <v>179</v>
       </c>
       <c r="T10" s="2" t="s">
-        <v>189</v>
+        <v>180</v>
       </c>
       <c r="U10" s="2" t="s">
-        <v>316</v>
+        <v>307</v>
       </c>
       <c r="V10" s="7" t="s">
-        <v>107</v>
+        <v>98</v>
       </c>
       <c r="W10" s="2">
         <v>42</v>
@@ -6723,75 +6733,75 @@
         <v>3.2700000000000003E-3</v>
       </c>
       <c r="Z10" s="4" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
     </row>
     <row r="11" spans="1:26" ht="30" x14ac:dyDescent="0.25">
       <c r="A11" s="2" t="s">
-        <v>89</v>
+        <v>470</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="C11" s="2">
         <v>28</v>
       </c>
       <c r="D11" s="9" t="s">
-        <v>90</v>
+        <v>82</v>
       </c>
       <c r="E11" s="5">
         <v>1</v>
       </c>
       <c r="F11" s="2" t="s">
-        <v>91</v>
+        <v>83</v>
       </c>
       <c r="G11" s="2" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
       <c r="H11" s="2">
         <v>5</v>
       </c>
       <c r="I11" s="8" t="s">
-        <v>92</v>
+        <v>84</v>
       </c>
       <c r="J11" s="2">
         <v>200</v>
       </c>
       <c r="K11" s="2" t="s">
-        <v>107</v>
+        <v>98</v>
       </c>
       <c r="L11" s="2" t="s">
-        <v>93</v>
+        <v>85</v>
       </c>
       <c r="M11" s="2" t="s">
-        <v>77</v>
+        <v>72</v>
       </c>
       <c r="N11" s="2" t="s">
-        <v>201</v>
+        <v>192</v>
       </c>
       <c r="O11" s="2" t="s">
-        <v>191</v>
+        <v>182</v>
       </c>
       <c r="P11" s="2" t="s">
-        <v>354</v>
+        <v>345</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>107</v>
+        <v>98</v>
       </c>
       <c r="R11" s="2">
         <v>28</v>
       </c>
       <c r="S11" s="2" t="s">
-        <v>192</v>
+        <v>183</v>
       </c>
       <c r="T11" s="2" t="s">
-        <v>193</v>
+        <v>184</v>
       </c>
       <c r="U11" s="2" t="s">
-        <v>356</v>
+        <v>347</v>
       </c>
       <c r="V11" s="7" t="s">
-        <v>107</v>
+        <v>98</v>
       </c>
       <c r="W11" s="2">
         <v>28</v>
@@ -6803,75 +6813,75 @@
         <v>7.1999999999999994E-4</v>
       </c>
       <c r="Z11" s="4" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
     </row>
     <row r="12" spans="1:26" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="2" t="s">
-        <v>98</v>
+        <v>471</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="C12" s="2">
         <v>28</v>
       </c>
       <c r="D12" s="9" t="s">
-        <v>99</v>
+        <v>90</v>
       </c>
       <c r="E12" s="5">
         <v>1</v>
       </c>
       <c r="F12" s="2" t="s">
-        <v>91</v>
+        <v>83</v>
       </c>
       <c r="G12" s="2" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
       <c r="H12" s="2">
         <v>20</v>
       </c>
       <c r="I12" s="8" t="s">
-        <v>100</v>
+        <v>91</v>
       </c>
       <c r="J12" s="2">
         <v>200</v>
       </c>
       <c r="K12" s="2" t="s">
-        <v>107</v>
+        <v>98</v>
       </c>
       <c r="L12" s="2" t="s">
-        <v>93</v>
+        <v>85</v>
       </c>
       <c r="M12" s="2" t="s">
-        <v>77</v>
+        <v>72</v>
       </c>
       <c r="N12" s="2" t="s">
-        <v>202</v>
+        <v>193</v>
       </c>
       <c r="O12" s="2" t="s">
-        <v>194</v>
+        <v>185</v>
       </c>
       <c r="P12" s="2" t="s">
-        <v>355</v>
+        <v>346</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>107</v>
+        <v>98</v>
       </c>
       <c r="R12" s="2">
         <v>28</v>
       </c>
       <c r="S12" s="2" t="s">
-        <v>192</v>
+        <v>183</v>
       </c>
       <c r="T12" s="2" t="s">
-        <v>193</v>
+        <v>184</v>
       </c>
       <c r="U12" s="2" t="s">
-        <v>356</v>
+        <v>347</v>
       </c>
       <c r="V12" s="7" t="s">
-        <v>107</v>
+        <v>98</v>
       </c>
       <c r="W12" s="2">
         <v>28</v>
@@ -6883,15 +6893,15 @@
         <v>1.6500000000000001E-2</v>
       </c>
       <c r="Z12" s="4" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
     </row>
     <row r="13" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A13" s="2" t="s">
-        <v>247</v>
+        <v>238</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="C13" s="2">
         <v>14</v>
@@ -6918,40 +6928,40 @@
         <v>250</v>
       </c>
       <c r="K13" s="2" t="s">
-        <v>107</v>
+        <v>98</v>
       </c>
       <c r="L13" s="2" t="s">
         <v>25</v>
       </c>
       <c r="M13" s="2" t="s">
-        <v>77</v>
+        <v>72</v>
       </c>
       <c r="N13" s="2" t="s">
-        <v>475</v>
+        <v>464</v>
       </c>
       <c r="O13" s="2" t="s">
-        <v>473</v>
+        <v>462</v>
       </c>
       <c r="P13" s="2" t="s">
-        <v>474</v>
+        <v>463</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>107</v>
+        <v>98</v>
       </c>
       <c r="R13" s="2">
         <v>14</v>
       </c>
       <c r="S13" s="2" t="s">
-        <v>472</v>
+        <v>461</v>
       </c>
       <c r="T13" s="2" t="s">
-        <v>471</v>
+        <v>460</v>
       </c>
       <c r="U13" s="2" t="s">
-        <v>470</v>
+        <v>459</v>
       </c>
       <c r="V13" s="7" t="s">
-        <v>107</v>
+        <v>98</v>
       </c>
       <c r="W13" s="2">
         <v>14</v>
@@ -6963,15 +6973,15 @@
         <v>2.0249999999999997E-2</v>
       </c>
       <c r="Z13" s="17" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
     </row>
     <row r="14" spans="1:26" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="2" t="s">
-        <v>390</v>
+        <v>467</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="C14" s="2">
         <v>42</v>
@@ -6992,7 +7002,7 @@
         <v>500</v>
       </c>
       <c r="I14" s="9" t="s">
-        <v>407</v>
+        <v>396</v>
       </c>
       <c r="J14" s="2">
         <v>500</v>
@@ -7007,31 +7017,31 @@
         <v>37</v>
       </c>
       <c r="N14" s="2" t="s">
-        <v>256</v>
+        <v>247</v>
       </c>
       <c r="O14" s="2" t="s">
-        <v>257</v>
+        <v>248</v>
       </c>
       <c r="P14" s="2" t="s">
-        <v>430</v>
+        <v>419</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>107</v>
+        <v>98</v>
       </c>
       <c r="R14" s="2">
         <v>42</v>
       </c>
       <c r="S14" s="2" t="s">
-        <v>256</v>
+        <v>247</v>
       </c>
       <c r="T14" s="2" t="s">
-        <v>259</v>
+        <v>250</v>
       </c>
       <c r="U14" s="2" t="s">
-        <v>260</v>
+        <v>251</v>
       </c>
       <c r="V14" s="7" t="s">
-        <v>107</v>
+        <v>98</v>
       </c>
       <c r="W14" s="2">
         <v>42</v>
@@ -7043,15 +7053,15 @@
         <v>2.2499999999999999E-2</v>
       </c>
       <c r="Z14" s="4" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
     </row>
     <row r="15" spans="1:26" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="2" t="s">
-        <v>391</v>
+        <v>466</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="C15" s="2">
         <v>42</v>
@@ -7072,7 +7082,7 @@
         <v>25</v>
       </c>
       <c r="I15" s="9" t="s">
-        <v>407</v>
+        <v>396</v>
       </c>
       <c r="J15" s="2">
         <v>500</v>
@@ -7087,31 +7097,31 @@
         <v>37</v>
       </c>
       <c r="N15" s="2" t="s">
-        <v>256</v>
+        <v>247</v>
       </c>
       <c r="O15" s="2" t="s">
-        <v>258</v>
+        <v>249</v>
       </c>
       <c r="P15" s="2" t="s">
-        <v>431</v>
+        <v>420</v>
       </c>
       <c r="Q15" s="7" t="s">
-        <v>107</v>
+        <v>98</v>
       </c>
       <c r="R15" s="2">
         <v>42</v>
       </c>
       <c r="S15" s="2" t="s">
-        <v>256</v>
+        <v>247</v>
       </c>
       <c r="T15" s="2" t="s">
-        <v>259</v>
+        <v>250</v>
       </c>
       <c r="U15" s="2" t="s">
-        <v>260</v>
+        <v>251</v>
       </c>
       <c r="V15" s="7" t="s">
-        <v>107</v>
+        <v>98</v>
       </c>
       <c r="W15" s="2">
         <v>42</v>
@@ -7123,75 +7133,75 @@
         <v>2.2499999999999999E-2</v>
       </c>
       <c r="Z15" s="4" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
     </row>
     <row r="16" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A16" s="2" t="s">
-        <v>432</v>
+        <v>421</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="C16" s="2">
         <v>21</v>
       </c>
       <c r="D16" s="2" t="s">
-        <v>287</v>
+        <v>278</v>
       </c>
       <c r="E16" s="14">
         <v>0.61899999999999999</v>
       </c>
       <c r="F16" s="2" t="s">
-        <v>288</v>
+        <v>279</v>
       </c>
       <c r="G16" s="2" t="s">
-        <v>433</v>
+        <v>422</v>
       </c>
       <c r="H16" s="2">
         <v>25</v>
       </c>
       <c r="I16" s="2" t="s">
-        <v>289</v>
+        <v>280</v>
       </c>
       <c r="J16" s="2">
         <v>500</v>
       </c>
       <c r="K16" s="2" t="s">
-        <v>107</v>
+        <v>98</v>
       </c>
       <c r="L16" s="2" t="s">
-        <v>290</v>
+        <v>281</v>
       </c>
       <c r="M16" s="9" t="s">
-        <v>441</v>
+        <v>430</v>
       </c>
       <c r="N16" s="2" t="s">
-        <v>294</v>
+        <v>285</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>107</v>
+        <v>98</v>
       </c>
       <c r="P16" s="2" t="s">
-        <v>295</v>
+        <v>286</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>107</v>
+        <v>98</v>
       </c>
       <c r="R16" s="2">
         <v>21</v>
       </c>
       <c r="S16" s="2" t="s">
-        <v>294</v>
+        <v>285</v>
       </c>
       <c r="T16" s="7" t="s">
-        <v>107</v>
+        <v>98</v>
       </c>
       <c r="U16" s="2" t="s">
-        <v>296</v>
+        <v>287</v>
       </c>
       <c r="V16" s="7" t="s">
-        <v>107</v>
+        <v>98</v>
       </c>
       <c r="W16" s="2">
         <v>21</v>
@@ -7203,15 +7213,15 @@
         <v>8.9999999999999993E-3</v>
       </c>
       <c r="Z16" s="17" t="s">
-        <v>476</v>
+        <v>465</v>
       </c>
     </row>
     <row r="17" spans="1:26" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="7" t="s">
-        <v>413</v>
+        <v>402</v>
       </c>
       <c r="B17" s="7" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="C17" s="7">
         <v>23</v>
@@ -7223,75 +7233,75 @@
         <v>0.43469999999999998</v>
       </c>
       <c r="F17" s="22" t="s">
-        <v>267</v>
+        <v>258</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>268</v>
+        <v>259</v>
       </c>
       <c r="H17" s="7">
         <v>1</v>
       </c>
       <c r="I17" s="22" t="s">
-        <v>266</v>
+        <v>257</v>
       </c>
       <c r="J17" s="7">
         <v>4000</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>107</v>
+        <v>98</v>
       </c>
       <c r="L17" s="7" t="s">
         <v>42</v>
       </c>
       <c r="M17" s="7" t="s">
-        <v>107</v>
+        <v>98</v>
       </c>
       <c r="N17" s="22" t="s">
-        <v>275</v>
+        <v>266</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>107</v>
+        <v>98</v>
       </c>
       <c r="P17" s="22" t="s">
-        <v>277</v>
+        <v>268</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>107</v>
+        <v>98</v>
       </c>
       <c r="R17" s="7">
         <v>23</v>
       </c>
       <c r="S17" s="7" t="s">
-        <v>107</v>
+        <v>98</v>
       </c>
       <c r="T17" s="7" t="s">
-        <v>107</v>
+        <v>98</v>
       </c>
       <c r="U17" s="7" t="s">
-        <v>107</v>
+        <v>98</v>
       </c>
       <c r="V17" s="7" t="s">
-        <v>107</v>
+        <v>98</v>
       </c>
       <c r="W17" s="7" t="s">
-        <v>107</v>
+        <v>98</v>
       </c>
       <c r="X17" s="17" t="s">
-        <v>107</v>
+        <v>98</v>
       </c>
       <c r="Y17" s="17" t="s">
-        <v>107</v>
+        <v>98</v>
       </c>
       <c r="Z17" s="17" t="s">
-        <v>107</v>
+        <v>98</v>
       </c>
     </row>
     <row r="18" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A18" s="7" t="s">
-        <v>414</v>
+        <v>403</v>
       </c>
       <c r="B18" s="7" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="C18" s="7">
         <v>23</v>
@@ -7303,75 +7313,75 @@
         <v>0.43469999999999998</v>
       </c>
       <c r="F18" s="22" t="s">
-        <v>267</v>
+        <v>258</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>236</v>
+        <v>227</v>
       </c>
       <c r="H18" s="7">
         <v>1</v>
       </c>
       <c r="I18" s="22" t="s">
-        <v>266</v>
+        <v>257</v>
       </c>
       <c r="J18" s="7">
         <v>4000</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>107</v>
+        <v>98</v>
       </c>
       <c r="L18" s="7" t="s">
         <v>42</v>
       </c>
       <c r="M18" s="7" t="s">
-        <v>107</v>
+        <v>98</v>
       </c>
       <c r="N18" s="22" t="s">
-        <v>276</v>
+        <v>267</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>107</v>
+        <v>98</v>
       </c>
       <c r="P18" s="22" t="s">
-        <v>278</v>
+        <v>269</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>107</v>
+        <v>98</v>
       </c>
       <c r="R18" s="7">
         <v>23</v>
       </c>
       <c r="S18" s="7" t="s">
-        <v>107</v>
+        <v>98</v>
       </c>
       <c r="T18" s="7" t="s">
-        <v>107</v>
+        <v>98</v>
       </c>
       <c r="U18" s="7" t="s">
-        <v>107</v>
+        <v>98</v>
       </c>
       <c r="V18" s="7" t="s">
-        <v>107</v>
+        <v>98</v>
       </c>
       <c r="W18" s="7" t="s">
-        <v>107</v>
+        <v>98</v>
       </c>
       <c r="X18" s="17" t="s">
-        <v>107</v>
+        <v>98</v>
       </c>
       <c r="Y18" s="17" t="s">
-        <v>107</v>
+        <v>98</v>
       </c>
       <c r="Z18" s="17" t="s">
-        <v>107</v>
+        <v>98</v>
       </c>
     </row>
     <row r="19" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A19" s="7" t="s">
-        <v>415</v>
+        <v>404</v>
       </c>
       <c r="B19" s="7" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="C19" s="7">
         <v>23</v>
@@ -7383,75 +7393,75 @@
         <v>0.43469999999999998</v>
       </c>
       <c r="F19" s="22" t="s">
-        <v>267</v>
+        <v>258</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>268</v>
+        <v>259</v>
       </c>
       <c r="H19" s="7">
         <v>25</v>
       </c>
       <c r="I19" s="22" t="s">
-        <v>266</v>
+        <v>257</v>
       </c>
       <c r="J19" s="7">
         <v>4000</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>107</v>
+        <v>98</v>
       </c>
       <c r="L19" s="7" t="s">
         <v>42</v>
       </c>
       <c r="M19" s="7" t="s">
-        <v>107</v>
+        <v>98</v>
       </c>
       <c r="N19" s="22" t="s">
-        <v>275</v>
+        <v>266</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>107</v>
+        <v>98</v>
       </c>
       <c r="P19" s="22" t="s">
-        <v>279</v>
+        <v>270</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>107</v>
+        <v>98</v>
       </c>
       <c r="R19" s="7">
         <v>23</v>
       </c>
       <c r="S19" s="7" t="s">
-        <v>107</v>
+        <v>98</v>
       </c>
       <c r="T19" s="7" t="s">
-        <v>107</v>
+        <v>98</v>
       </c>
       <c r="U19" s="7" t="s">
-        <v>107</v>
+        <v>98</v>
       </c>
       <c r="V19" s="7" t="s">
-        <v>107</v>
+        <v>98</v>
       </c>
       <c r="W19" s="7" t="s">
-        <v>107</v>
+        <v>98</v>
       </c>
       <c r="X19" s="17" t="s">
-        <v>107</v>
+        <v>98</v>
       </c>
       <c r="Y19" s="17" t="s">
-        <v>107</v>
+        <v>98</v>
       </c>
       <c r="Z19" s="17" t="s">
-        <v>107</v>
+        <v>98</v>
       </c>
     </row>
     <row r="20" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A20" s="7" t="s">
-        <v>416</v>
+        <v>405</v>
       </c>
       <c r="B20" s="7" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="C20" s="7">
         <v>23</v>
@@ -7463,87 +7473,87 @@
         <v>0.43469999999999998</v>
       </c>
       <c r="F20" s="22" t="s">
-        <v>267</v>
+        <v>258</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>236</v>
+        <v>227</v>
       </c>
       <c r="H20" s="7">
         <v>25</v>
       </c>
       <c r="I20" s="22" t="s">
-        <v>266</v>
+        <v>257</v>
       </c>
       <c r="J20" s="7">
         <v>4000</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>107</v>
+        <v>98</v>
       </c>
       <c r="L20" s="7" t="s">
         <v>42</v>
       </c>
       <c r="M20" s="7" t="s">
-        <v>107</v>
+        <v>98</v>
       </c>
       <c r="N20" s="22" t="s">
-        <v>276</v>
+        <v>267</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>107</v>
+        <v>98</v>
       </c>
       <c r="P20" s="22" t="s">
-        <v>280</v>
+        <v>271</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>107</v>
+        <v>98</v>
       </c>
       <c r="R20" s="7">
         <v>23</v>
       </c>
       <c r="S20" s="7" t="s">
-        <v>107</v>
+        <v>98</v>
       </c>
       <c r="T20" s="7" t="s">
-        <v>107</v>
+        <v>98</v>
       </c>
       <c r="U20" s="7" t="s">
-        <v>107</v>
+        <v>98</v>
       </c>
       <c r="V20" s="7" t="s">
-        <v>107</v>
+        <v>98</v>
       </c>
       <c r="W20" s="7" t="s">
-        <v>107</v>
+        <v>98</v>
       </c>
       <c r="X20" s="17" t="s">
-        <v>107</v>
+        <v>98</v>
       </c>
       <c r="Y20" s="17" t="s">
-        <v>107</v>
+        <v>98</v>
       </c>
       <c r="Z20" s="17" t="s">
-        <v>107</v>
+        <v>98</v>
       </c>
     </row>
     <row r="21" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A21" s="7" t="s">
-        <v>203</v>
+        <v>194</v>
       </c>
       <c r="B21" s="7" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="C21" s="7">
         <v>26</v>
       </c>
       <c r="D21" s="7" t="s">
-        <v>104</v>
+        <v>95</v>
       </c>
       <c r="E21" s="33">
         <v>0.38</v>
       </c>
       <c r="F21" s="7" t="s">
-        <v>425</v>
+        <v>414</v>
       </c>
       <c r="G21" s="7" t="s">
         <v>34</v>
@@ -7552,46 +7562,46 @@
         <v>25</v>
       </c>
       <c r="I21" s="34" t="s">
-        <v>204</v>
+        <v>195</v>
       </c>
       <c r="J21" s="7">
         <v>200</v>
       </c>
       <c r="K21" s="7" t="s">
-        <v>107</v>
+        <v>98</v>
       </c>
       <c r="L21" s="7" t="s">
-        <v>93</v>
+        <v>85</v>
       </c>
       <c r="M21" s="7" t="s">
         <v>37</v>
       </c>
       <c r="N21" s="7" t="s">
-        <v>107</v>
+        <v>98</v>
       </c>
       <c r="O21" s="7" t="s">
-        <v>107</v>
+        <v>98</v>
       </c>
       <c r="P21" s="7" t="s">
-        <v>195</v>
+        <v>186</v>
       </c>
       <c r="Q21" s="7" t="s">
-        <v>107</v>
+        <v>98</v>
       </c>
       <c r="R21" s="7">
         <v>13</v>
       </c>
       <c r="S21" s="7" t="s">
-        <v>107</v>
+        <v>98</v>
       </c>
       <c r="T21" s="7" t="s">
-        <v>107</v>
+        <v>98</v>
       </c>
       <c r="U21" s="7" t="s">
-        <v>196</v>
+        <v>187</v>
       </c>
       <c r="V21" s="7" t="s">
-        <v>107</v>
+        <v>98</v>
       </c>
       <c r="W21" s="7">
         <v>13</v>
@@ -7603,87 +7613,87 @@
         <v>1.0500000000000001E-2</v>
       </c>
       <c r="Z21" s="4" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
     </row>
     <row r="22" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A22" s="7" t="s">
-        <v>233</v>
+        <v>224</v>
       </c>
       <c r="B22" s="7" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="C22" s="7">
         <v>46</v>
       </c>
       <c r="D22" s="31" t="s">
-        <v>205</v>
+        <v>196</v>
       </c>
       <c r="E22" s="33">
         <v>0.3</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>426</v>
+        <v>415</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="H22" s="7">
         <v>25</v>
       </c>
       <c r="I22" s="34" t="s">
-        <v>234</v>
+        <v>225</v>
       </c>
       <c r="J22" s="7">
         <v>250</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>107</v>
+        <v>98</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>427</v>
+        <v>416</v>
       </c>
       <c r="M22" s="7" t="s">
-        <v>77</v>
+        <v>72</v>
       </c>
       <c r="N22" s="7" t="s">
-        <v>107</v>
+        <v>98</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>107</v>
+        <v>98</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>428</v>
+        <v>417</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>107</v>
+        <v>98</v>
       </c>
       <c r="R22" s="7">
         <v>46</v>
       </c>
       <c r="S22" s="7" t="s">
-        <v>107</v>
+        <v>98</v>
       </c>
       <c r="T22" s="7" t="s">
-        <v>107</v>
+        <v>98</v>
       </c>
       <c r="U22" s="7" t="s">
-        <v>429</v>
+        <v>418</v>
       </c>
       <c r="V22" s="7" t="s">
-        <v>107</v>
+        <v>98</v>
       </c>
       <c r="W22" s="7">
         <v>46</v>
       </c>
       <c r="X22" s="4" t="s">
-        <v>107</v>
+        <v>98</v>
       </c>
       <c r="Y22" s="4" t="s">
-        <v>107</v>
+        <v>98</v>
       </c>
       <c r="Z22" s="4" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
     </row>
     <row r="24" spans="1:26" x14ac:dyDescent="0.25">
@@ -7747,7 +7757,7 @@
   <dimension ref="A1:Z25"/>
   <sheetViews>
     <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="A14" sqref="A14:Z24"/>
+      <selection activeCell="A19" sqref="A19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -7822,13 +7832,13 @@
         <v>12</v>
       </c>
       <c r="O1" s="3" t="s">
-        <v>459</v>
+        <v>448</v>
       </c>
       <c r="P1" s="3" t="s">
         <v>13</v>
       </c>
       <c r="Q1" s="12" t="s">
-        <v>460</v>
+        <v>449</v>
       </c>
       <c r="R1" s="3" t="s">
         <v>14</v>
@@ -7837,13 +7847,13 @@
         <v>15</v>
       </c>
       <c r="T1" s="3" t="s">
-        <v>458</v>
+        <v>447</v>
       </c>
       <c r="U1" s="3" t="s">
         <v>16</v>
       </c>
       <c r="V1" s="27" t="s">
-        <v>461</v>
+        <v>450</v>
       </c>
       <c r="W1" s="3" t="s">
         <v>17</v>
@@ -7860,70 +7870,70 @@
     </row>
     <row r="2" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
-        <v>206</v>
+        <v>197</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="C2" s="2">
         <v>13</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>207</v>
+        <v>198</v>
       </c>
       <c r="E2" s="14">
         <v>1</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>300</v>
+        <v>291</v>
       </c>
       <c r="G2" s="2" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="H2" s="2">
         <v>30</v>
       </c>
       <c r="I2" s="2" t="s">
-        <v>208</v>
+        <v>199</v>
       </c>
       <c r="J2" s="2">
         <v>200</v>
       </c>
       <c r="K2" s="2" t="s">
-        <v>107</v>
+        <v>98</v>
       </c>
       <c r="L2" s="2" t="s">
-        <v>160</v>
+        <v>151</v>
       </c>
       <c r="M2" s="2" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="N2" s="2" t="s">
-        <v>301</v>
+        <v>292</v>
       </c>
       <c r="O2" s="2" t="s">
-        <v>302</v>
+        <v>293</v>
       </c>
       <c r="P2" s="2" t="s">
-        <v>303</v>
+        <v>294</v>
       </c>
       <c r="Q2" s="7" t="s">
-        <v>107</v>
+        <v>98</v>
       </c>
       <c r="R2" s="2">
         <v>13</v>
       </c>
       <c r="S2" s="2" t="s">
-        <v>304</v>
+        <v>295</v>
       </c>
       <c r="T2" s="2" t="s">
-        <v>305</v>
+        <v>296</v>
       </c>
       <c r="U2" s="2" t="s">
-        <v>306</v>
+        <v>297</v>
       </c>
       <c r="V2" s="7" t="s">
-        <v>107</v>
+        <v>98</v>
       </c>
       <c r="W2" s="2">
         <v>13</v>
@@ -7935,27 +7945,27 @@
         <v>0.24299999999999999</v>
       </c>
       <c r="Z2" s="4" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
     </row>
     <row r="3" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
-        <v>209</v>
+        <v>200</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="C3" s="2">
         <v>13</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>207</v>
+        <v>198</v>
       </c>
       <c r="E3" s="14">
         <v>1</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>300</v>
+        <v>291</v>
       </c>
       <c r="G3" s="2" t="s">
         <v>26</v>
@@ -7964,46 +7974,46 @@
         <v>30</v>
       </c>
       <c r="I3" s="2" t="s">
-        <v>208</v>
+        <v>199</v>
       </c>
       <c r="J3" s="2">
         <v>200</v>
       </c>
       <c r="K3" s="2" t="s">
-        <v>107</v>
+        <v>98</v>
       </c>
       <c r="L3" s="2" t="s">
-        <v>160</v>
+        <v>151</v>
       </c>
       <c r="M3" s="2" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="N3" s="2" t="s">
-        <v>307</v>
+        <v>298</v>
       </c>
       <c r="O3" s="2" t="s">
-        <v>308</v>
+        <v>299</v>
       </c>
       <c r="P3" s="2" t="s">
-        <v>309</v>
+        <v>300</v>
       </c>
       <c r="Q3" s="7" t="s">
-        <v>107</v>
+        <v>98</v>
       </c>
       <c r="R3" s="2">
         <v>13</v>
       </c>
       <c r="S3" s="2" t="s">
-        <v>304</v>
+        <v>295</v>
       </c>
       <c r="T3" s="2" t="s">
-        <v>305</v>
+        <v>296</v>
       </c>
       <c r="U3" s="2" t="s">
-        <v>306</v>
+        <v>297</v>
       </c>
       <c r="V3" s="7" t="s">
-        <v>107</v>
+        <v>98</v>
       </c>
       <c r="W3" s="2">
         <v>13</v>
@@ -8015,75 +8025,75 @@
         <v>0.24299999999999999</v>
       </c>
       <c r="Z3" s="4" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
     </row>
     <row r="4" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A4" s="9" t="s">
-        <v>157</v>
+        <v>148</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="C4" s="2">
         <v>48</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>158</v>
+        <v>149</v>
       </c>
       <c r="E4" s="14">
         <v>0.5</v>
       </c>
       <c r="F4" s="2" t="s">
-        <v>324</v>
+        <v>315</v>
       </c>
       <c r="G4" s="2" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="H4" s="2">
         <v>30</v>
       </c>
       <c r="I4" s="6" t="s">
-        <v>159</v>
+        <v>150</v>
       </c>
       <c r="J4" s="2">
         <v>200</v>
       </c>
       <c r="K4" s="2" t="s">
-        <v>107</v>
+        <v>98</v>
       </c>
       <c r="L4" s="2" t="s">
-        <v>160</v>
+        <v>151</v>
       </c>
       <c r="M4" s="2" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="N4" s="2" t="s">
-        <v>210</v>
+        <v>201</v>
       </c>
       <c r="O4" s="2" t="s">
-        <v>211</v>
+        <v>202</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>107</v>
+        <v>98</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>107</v>
+        <v>98</v>
       </c>
       <c r="R4" s="2">
         <v>34</v>
       </c>
       <c r="S4" s="2" t="s">
-        <v>212</v>
+        <v>203</v>
       </c>
       <c r="T4" s="2" t="s">
-        <v>213</v>
+        <v>204</v>
       </c>
       <c r="U4" s="7" t="s">
-        <v>107</v>
+        <v>98</v>
       </c>
       <c r="V4" s="7" t="s">
-        <v>107</v>
+        <v>98</v>
       </c>
       <c r="W4" s="2">
         <v>14</v>
@@ -8095,21 +8105,21 @@
         <v>0.16200000000000001</v>
       </c>
       <c r="Z4" s="4" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
     </row>
     <row r="5" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A5" s="9" t="s">
-        <v>58</v>
+        <v>468</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="C5" s="2">
         <v>30</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="E5" s="14">
         <v>0.5</v>
@@ -8118,13 +8128,13 @@
         <v>37</v>
       </c>
       <c r="G5" s="2" t="s">
-        <v>216</v>
+        <v>207</v>
       </c>
       <c r="H5" s="2">
         <v>25</v>
       </c>
       <c r="I5" s="8" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="J5" s="2">
         <v>250</v>
@@ -8133,37 +8143,37 @@
         <v>35</v>
       </c>
       <c r="L5" s="2" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="M5" s="2" t="s">
         <v>37</v>
       </c>
       <c r="N5" s="2" t="s">
-        <v>217</v>
+        <v>208</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>107</v>
+        <v>98</v>
       </c>
       <c r="P5" s="2" t="s">
-        <v>218</v>
+        <v>209</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>107</v>
+        <v>98</v>
       </c>
       <c r="R5" s="2">
         <v>30</v>
       </c>
       <c r="S5" s="2" t="s">
-        <v>217</v>
+        <v>208</v>
       </c>
       <c r="T5" s="7" t="s">
-        <v>107</v>
+        <v>98</v>
       </c>
       <c r="U5" s="2" t="s">
-        <v>219</v>
+        <v>210</v>
       </c>
       <c r="V5" s="7" t="s">
-        <v>107</v>
+        <v>98</v>
       </c>
       <c r="W5" s="2">
         <v>30</v>
@@ -8175,21 +8185,21 @@
         <v>1.3125000000000001E-3</v>
       </c>
       <c r="Z5" s="4" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
     </row>
     <row r="6" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A6" s="9" t="s">
-        <v>67</v>
+        <v>469</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="C6" s="2">
         <v>30</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="E6" s="37">
         <v>0.5</v>
@@ -8198,13 +8208,13 @@
         <v>37</v>
       </c>
       <c r="G6" s="2" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
       <c r="H6" s="2">
         <v>25</v>
       </c>
       <c r="I6" s="8" t="s">
-        <v>69</v>
+        <v>65</v>
       </c>
       <c r="J6" s="2">
         <v>250</v>
@@ -8213,37 +8223,37 @@
         <v>35</v>
       </c>
       <c r="L6" s="2" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="M6" s="2" t="s">
         <v>37</v>
       </c>
       <c r="N6" s="2" t="s">
-        <v>217</v>
+        <v>208</v>
       </c>
       <c r="O6" s="7" t="s">
-        <v>107</v>
+        <v>98</v>
       </c>
       <c r="P6" s="2" t="s">
-        <v>220</v>
+        <v>211</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>107</v>
+        <v>98</v>
       </c>
       <c r="R6" s="2">
         <v>30</v>
       </c>
       <c r="S6" s="2" t="s">
-        <v>217</v>
+        <v>208</v>
       </c>
       <c r="T6" s="7" t="s">
-        <v>107</v>
+        <v>98</v>
       </c>
       <c r="U6" s="2" t="s">
-        <v>219</v>
+        <v>210</v>
       </c>
       <c r="V6" s="7" t="s">
-        <v>107</v>
+        <v>98</v>
       </c>
       <c r="W6" s="2">
         <v>30</v>
@@ -8255,75 +8265,75 @@
         <v>1.3125000000000001E-3</v>
       </c>
       <c r="Z6" s="4" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
     </row>
     <row r="7" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A7" s="2" t="s">
-        <v>167</v>
+        <v>158</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="C7" s="2">
         <v>10</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>168</v>
+        <v>159</v>
       </c>
       <c r="E7" s="37">
         <v>0.8</v>
       </c>
       <c r="F7" s="2" t="s">
-        <v>169</v>
+        <v>160</v>
       </c>
       <c r="G7" s="2" t="s">
-        <v>216</v>
+        <v>207</v>
       </c>
       <c r="H7" s="2">
         <v>25</v>
       </c>
       <c r="I7" s="6" t="s">
-        <v>170</v>
+        <v>161</v>
       </c>
       <c r="J7" s="2">
         <v>250</v>
       </c>
       <c r="K7" s="2" t="s">
-        <v>171</v>
+        <v>162</v>
       </c>
       <c r="L7" s="2" t="s">
-        <v>172</v>
+        <v>163</v>
       </c>
       <c r="M7" s="2" t="s">
-        <v>77</v>
+        <v>72</v>
       </c>
       <c r="N7" s="2" t="s">
-        <v>339</v>
+        <v>330</v>
       </c>
       <c r="O7" s="2" t="s">
-        <v>340</v>
+        <v>331</v>
       </c>
       <c r="P7" s="2" t="s">
-        <v>341</v>
+        <v>332</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>107</v>
+        <v>98</v>
       </c>
       <c r="R7" s="2">
         <v>9</v>
       </c>
       <c r="S7" s="2" t="s">
-        <v>342</v>
+        <v>333</v>
       </c>
       <c r="T7" s="2" t="s">
-        <v>343</v>
+        <v>334</v>
       </c>
       <c r="U7" s="2" t="s">
-        <v>344</v>
+        <v>335</v>
       </c>
       <c r="V7" s="7" t="s">
-        <v>107</v>
+        <v>98</v>
       </c>
       <c r="W7" s="2">
         <v>9</v>
@@ -8335,75 +8345,75 @@
         <v>5.2500000000000003E-3</v>
       </c>
       <c r="Z7" s="4" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
     </row>
     <row r="8" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A8" s="2" t="s">
-        <v>103</v>
+        <v>94</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="C8" s="2">
         <v>15</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>104</v>
+        <v>95</v>
       </c>
       <c r="E8" s="5">
         <v>1</v>
       </c>
       <c r="F8" s="2" t="s">
-        <v>444</v>
+        <v>433</v>
       </c>
       <c r="G8" s="2" t="s">
-        <v>216</v>
+        <v>207</v>
       </c>
       <c r="H8" s="2">
         <v>25</v>
       </c>
       <c r="I8" s="6" t="s">
-        <v>445</v>
+        <v>434</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>107</v>
+        <v>98</v>
       </c>
       <c r="K8" s="2" t="s">
-        <v>107</v>
+        <v>98</v>
       </c>
       <c r="L8" s="2" t="s">
-        <v>108</v>
+        <v>99</v>
       </c>
       <c r="M8" s="2" t="s">
-        <v>77</v>
+        <v>72</v>
       </c>
       <c r="N8" s="2" t="s">
-        <v>446</v>
+        <v>435</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>107</v>
+        <v>98</v>
       </c>
       <c r="P8" s="2" t="s">
-        <v>447</v>
+        <v>436</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>107</v>
+        <v>98</v>
       </c>
       <c r="R8" s="2">
         <v>15</v>
       </c>
       <c r="S8" s="2" t="s">
-        <v>448</v>
+        <v>437</v>
       </c>
       <c r="T8" s="7" t="s">
-        <v>107</v>
+        <v>98</v>
       </c>
       <c r="U8" s="2" t="s">
-        <v>449</v>
+        <v>438</v>
       </c>
       <c r="V8" s="7" t="s">
-        <v>107</v>
+        <v>98</v>
       </c>
       <c r="W8" s="2">
         <v>15</v>
@@ -8415,75 +8425,75 @@
         <v>7.03125E-2</v>
       </c>
       <c r="Z8" s="4" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
     </row>
     <row r="9" spans="1:26" ht="30" x14ac:dyDescent="0.25">
       <c r="A9" s="2" t="s">
-        <v>89</v>
+        <v>470</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="C9" s="2">
         <v>28</v>
       </c>
       <c r="D9" s="9" t="s">
-        <v>90</v>
+        <v>82</v>
       </c>
       <c r="E9" s="5">
         <v>1</v>
       </c>
       <c r="F9" s="2" t="s">
-        <v>91</v>
+        <v>83</v>
       </c>
       <c r="G9" s="2" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
       <c r="H9" s="2">
         <v>5</v>
       </c>
       <c r="I9" s="8" t="s">
-        <v>92</v>
+        <v>84</v>
       </c>
       <c r="J9" s="2">
         <v>200</v>
       </c>
       <c r="K9" s="2" t="s">
-        <v>107</v>
+        <v>98</v>
       </c>
       <c r="L9" s="2" t="s">
-        <v>93</v>
+        <v>85</v>
       </c>
       <c r="M9" s="2" t="s">
-        <v>77</v>
+        <v>72</v>
       </c>
       <c r="N9" s="2" t="s">
-        <v>241</v>
+        <v>232</v>
       </c>
       <c r="O9" s="2" t="s">
-        <v>242</v>
+        <v>233</v>
       </c>
       <c r="P9" s="2" t="s">
-        <v>357</v>
+        <v>348</v>
       </c>
       <c r="Q9" s="7" t="s">
-        <v>107</v>
+        <v>98</v>
       </c>
       <c r="R9" s="2">
         <v>28</v>
       </c>
       <c r="S9" s="2" t="s">
-        <v>243</v>
+        <v>234</v>
       </c>
       <c r="T9" s="2" t="s">
-        <v>244</v>
+        <v>235</v>
       </c>
       <c r="U9" s="2" t="s">
-        <v>358</v>
+        <v>349</v>
       </c>
       <c r="V9" s="7" t="s">
-        <v>107</v>
+        <v>98</v>
       </c>
       <c r="W9" s="2">
         <v>28</v>
@@ -8495,75 +8505,75 @@
         <v>7.1999999999999994E-4</v>
       </c>
       <c r="Z9" s="4" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
     </row>
     <row r="10" spans="1:26" ht="30" x14ac:dyDescent="0.25">
       <c r="A10" s="2" t="s">
-        <v>98</v>
+        <v>471</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="C10" s="2">
         <v>28</v>
       </c>
       <c r="D10" s="9" t="s">
-        <v>99</v>
+        <v>90</v>
       </c>
       <c r="E10" s="37">
         <v>1</v>
       </c>
       <c r="F10" s="2" t="s">
-        <v>91</v>
+        <v>83</v>
       </c>
       <c r="G10" s="2" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
       <c r="H10" s="2">
         <v>25</v>
       </c>
       <c r="I10" s="8" t="s">
-        <v>100</v>
+        <v>91</v>
       </c>
       <c r="J10" s="2">
         <v>200</v>
       </c>
       <c r="K10" s="2" t="s">
-        <v>107</v>
+        <v>98</v>
       </c>
       <c r="L10" s="2" t="s">
-        <v>93</v>
+        <v>85</v>
       </c>
       <c r="M10" s="2" t="s">
-        <v>77</v>
+        <v>72</v>
       </c>
       <c r="N10" s="2" t="s">
-        <v>245</v>
+        <v>236</v>
       </c>
       <c r="O10" s="2" t="s">
-        <v>246</v>
+        <v>237</v>
       </c>
       <c r="P10" s="2" t="s">
-        <v>242</v>
+        <v>233</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>107</v>
+        <v>98</v>
       </c>
       <c r="R10" s="2">
         <v>28</v>
       </c>
       <c r="S10" s="2" t="s">
-        <v>243</v>
+        <v>234</v>
       </c>
       <c r="T10" s="2" t="s">
-        <v>244</v>
+        <v>235</v>
       </c>
       <c r="U10" s="2" t="s">
-        <v>358</v>
+        <v>349</v>
       </c>
       <c r="V10" s="7" t="s">
-        <v>107</v>
+        <v>98</v>
       </c>
       <c r="W10" s="2">
         <v>28</v>
@@ -8575,15 +8585,15 @@
         <v>1.6500000000000001E-2</v>
       </c>
       <c r="Z10" s="4" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
     </row>
     <row r="11" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A11" s="2" t="s">
-        <v>247</v>
+        <v>238</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="C11" s="2">
         <v>14</v>
@@ -8610,40 +8620,40 @@
         <v>250</v>
       </c>
       <c r="K11" s="2" t="s">
-        <v>107</v>
+        <v>98</v>
       </c>
       <c r="L11" s="2" t="s">
         <v>25</v>
       </c>
       <c r="M11" s="2" t="s">
-        <v>77</v>
+        <v>72</v>
       </c>
       <c r="N11" s="2" t="s">
-        <v>450</v>
+        <v>439</v>
       </c>
       <c r="O11" s="2" t="s">
-        <v>451</v>
+        <v>440</v>
       </c>
       <c r="P11" s="2" t="s">
-        <v>452</v>
+        <v>441</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>107</v>
+        <v>98</v>
       </c>
       <c r="R11" s="2">
         <v>14</v>
       </c>
       <c r="S11" s="2" t="s">
-        <v>453</v>
+        <v>442</v>
       </c>
       <c r="T11" s="2" t="s">
-        <v>454</v>
+        <v>443</v>
       </c>
       <c r="U11" s="2" t="s">
-        <v>455</v>
+        <v>444</v>
       </c>
       <c r="V11" s="7" t="s">
-        <v>107</v>
+        <v>98</v>
       </c>
       <c r="W11" s="2">
         <v>14</v>
@@ -8655,15 +8665,15 @@
         <v>2.0249999999999997E-2</v>
       </c>
       <c r="Z11" s="17" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
     </row>
     <row r="12" spans="1:26" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="2" t="s">
-        <v>390</v>
+        <v>467</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="C12" s="2">
         <v>42</v>
@@ -8684,7 +8694,7 @@
         <v>500</v>
       </c>
       <c r="I12" s="9" t="s">
-        <v>407</v>
+        <v>396</v>
       </c>
       <c r="J12" s="2">
         <v>500</v>
@@ -8699,31 +8709,31 @@
         <v>37</v>
       </c>
       <c r="N12" s="2" t="s">
-        <v>261</v>
+        <v>252</v>
       </c>
       <c r="O12" s="2" t="s">
-        <v>262</v>
+        <v>253</v>
       </c>
       <c r="P12" s="2" t="s">
-        <v>456</v>
+        <v>445</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>107</v>
+        <v>98</v>
       </c>
       <c r="R12" s="2">
         <v>42</v>
       </c>
       <c r="S12" s="2" t="s">
-        <v>261</v>
+        <v>252</v>
       </c>
       <c r="T12" s="2" t="s">
-        <v>264</v>
+        <v>255</v>
       </c>
       <c r="U12" s="2" t="s">
-        <v>265</v>
+        <v>256</v>
       </c>
       <c r="V12" s="7" t="s">
-        <v>107</v>
+        <v>98</v>
       </c>
       <c r="W12" s="2">
         <v>42</v>
@@ -8735,15 +8745,15 @@
         <v>2.2499999999999999E-2</v>
       </c>
       <c r="Z12" s="4" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
     </row>
     <row r="13" spans="1:26" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="2" t="s">
-        <v>391</v>
+        <v>466</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="C13" s="2">
         <v>42</v>
@@ -8764,7 +8774,7 @@
         <v>25</v>
       </c>
       <c r="I13" s="9" t="s">
-        <v>407</v>
+        <v>396</v>
       </c>
       <c r="J13" s="2">
         <v>500</v>
@@ -8779,31 +8789,31 @@
         <v>37</v>
       </c>
       <c r="N13" s="2" t="s">
-        <v>261</v>
+        <v>252</v>
       </c>
       <c r="O13" s="2" t="s">
-        <v>263</v>
+        <v>254</v>
       </c>
       <c r="P13" s="2" t="s">
-        <v>457</v>
+        <v>446</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>107</v>
+        <v>98</v>
       </c>
       <c r="R13" s="2">
         <v>42</v>
       </c>
       <c r="S13" s="2" t="s">
-        <v>261</v>
+        <v>252</v>
       </c>
       <c r="T13" s="2" t="s">
-        <v>264</v>
+        <v>255</v>
       </c>
       <c r="U13" s="2" t="s">
-        <v>265</v>
+        <v>256</v>
       </c>
       <c r="V13" s="7" t="s">
-        <v>107</v>
+        <v>98</v>
       </c>
       <c r="W13" s="2">
         <v>42</v>
@@ -8815,75 +8825,75 @@
         <v>2.2499999999999999E-2</v>
       </c>
       <c r="Z13" s="4" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
     </row>
     <row r="14" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A14" s="2" t="s">
-        <v>432</v>
+        <v>421</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="C14" s="2">
         <v>21</v>
       </c>
       <c r="D14" s="2" t="s">
-        <v>287</v>
+        <v>278</v>
       </c>
       <c r="E14" s="14">
         <v>0.61899999999999999</v>
       </c>
       <c r="F14" s="2" t="s">
-        <v>288</v>
+        <v>279</v>
       </c>
       <c r="G14" s="2" t="s">
-        <v>433</v>
+        <v>422</v>
       </c>
       <c r="H14" s="2">
         <v>25</v>
       </c>
       <c r="I14" s="2" t="s">
-        <v>289</v>
+        <v>280</v>
       </c>
       <c r="J14" s="2">
         <v>500</v>
       </c>
       <c r="K14" s="2" t="s">
-        <v>107</v>
+        <v>98</v>
       </c>
       <c r="L14" s="2" t="s">
-        <v>290</v>
+        <v>281</v>
       </c>
       <c r="M14" s="9" t="s">
-        <v>441</v>
+        <v>430</v>
       </c>
       <c r="N14" s="2" t="s">
-        <v>297</v>
+        <v>288</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>107</v>
+        <v>98</v>
       </c>
       <c r="P14" s="2" t="s">
-        <v>298</v>
+        <v>289</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>107</v>
+        <v>98</v>
       </c>
       <c r="R14" s="2">
         <v>21</v>
       </c>
       <c r="S14" s="2" t="s">
-        <v>297</v>
+        <v>288</v>
       </c>
       <c r="T14" s="7" t="s">
-        <v>107</v>
+        <v>98</v>
       </c>
       <c r="U14" s="2" t="s">
-        <v>299</v>
+        <v>290</v>
       </c>
       <c r="V14" s="7" t="s">
-        <v>107</v>
+        <v>98</v>
       </c>
       <c r="W14" s="2">
         <v>21</v>
@@ -8895,15 +8905,15 @@
         <v>8.9999999999999993E-3</v>
       </c>
       <c r="Z14" s="17" t="s">
-        <v>476</v>
+        <v>465</v>
       </c>
     </row>
     <row r="15" spans="1:26" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="7" t="s">
-        <v>413</v>
+        <v>475</v>
       </c>
       <c r="B15" s="7" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="C15" s="2">
         <v>23</v>
@@ -8915,75 +8925,75 @@
         <v>0.43469999999999998</v>
       </c>
       <c r="F15" s="2" t="s">
-        <v>267</v>
+        <v>258</v>
       </c>
       <c r="G15" s="2" t="s">
-        <v>268</v>
+        <v>259</v>
       </c>
       <c r="H15" s="2">
         <v>1</v>
       </c>
       <c r="I15" s="2" t="s">
-        <v>266</v>
+        <v>257</v>
       </c>
       <c r="J15" s="2">
         <v>4000</v>
       </c>
       <c r="K15" s="2" t="s">
-        <v>107</v>
+        <v>98</v>
       </c>
       <c r="L15" s="2" t="s">
         <v>42</v>
       </c>
       <c r="M15" s="2" t="s">
-        <v>107</v>
+        <v>98</v>
       </c>
       <c r="N15" s="2" t="s">
-        <v>281</v>
+        <v>272</v>
       </c>
       <c r="O15" s="7" t="s">
-        <v>107</v>
+        <v>98</v>
       </c>
       <c r="P15" s="2" t="s">
-        <v>283</v>
+        <v>274</v>
       </c>
       <c r="Q15" s="7" t="s">
-        <v>107</v>
+        <v>98</v>
       </c>
       <c r="R15" s="7">
         <v>23</v>
       </c>
       <c r="S15" s="7" t="s">
-        <v>107</v>
+        <v>98</v>
       </c>
       <c r="T15" s="7" t="s">
-        <v>107</v>
+        <v>98</v>
       </c>
       <c r="U15" s="7" t="s">
-        <v>107</v>
+        <v>98</v>
       </c>
       <c r="V15" s="7" t="s">
-        <v>107</v>
+        <v>98</v>
       </c>
       <c r="W15" s="7" t="s">
-        <v>107</v>
+        <v>98</v>
       </c>
       <c r="X15" s="4" t="s">
-        <v>107</v>
+        <v>98</v>
       </c>
       <c r="Y15" s="4" t="s">
-        <v>107</v>
+        <v>98</v>
       </c>
       <c r="Z15" s="4" t="s">
-        <v>107</v>
+        <v>98</v>
       </c>
     </row>
     <row r="16" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A16" s="7" t="s">
-        <v>414</v>
+        <v>476</v>
       </c>
       <c r="B16" s="7" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="C16" s="2">
         <v>23</v>
@@ -8995,75 +9005,75 @@
         <v>0.43469999999999998</v>
       </c>
       <c r="F16" s="2" t="s">
-        <v>267</v>
+        <v>258</v>
       </c>
       <c r="G16" s="2" t="s">
-        <v>236</v>
+        <v>227</v>
       </c>
       <c r="H16" s="2">
         <v>1</v>
       </c>
       <c r="I16" s="2" t="s">
-        <v>266</v>
+        <v>257</v>
       </c>
       <c r="J16" s="2">
         <v>4000</v>
       </c>
       <c r="K16" s="2" t="s">
-        <v>107</v>
+        <v>98</v>
       </c>
       <c r="L16" s="2" t="s">
         <v>42</v>
       </c>
       <c r="M16" s="2" t="s">
-        <v>107</v>
+        <v>98</v>
       </c>
       <c r="N16" s="2" t="s">
-        <v>282</v>
+        <v>273</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>107</v>
+        <v>98</v>
       </c>
       <c r="P16" s="2" t="s">
-        <v>284</v>
+        <v>275</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>107</v>
+        <v>98</v>
       </c>
       <c r="R16" s="7">
         <v>23</v>
       </c>
       <c r="S16" s="7" t="s">
-        <v>107</v>
+        <v>98</v>
       </c>
       <c r="T16" s="7" t="s">
-        <v>107</v>
+        <v>98</v>
       </c>
       <c r="U16" s="7" t="s">
-        <v>107</v>
+        <v>98</v>
       </c>
       <c r="V16" s="7" t="s">
-        <v>107</v>
+        <v>98</v>
       </c>
       <c r="W16" s="7" t="s">
-        <v>107</v>
+        <v>98</v>
       </c>
       <c r="X16" s="4" t="s">
-        <v>107</v>
+        <v>98</v>
       </c>
       <c r="Y16" s="4" t="s">
-        <v>107</v>
+        <v>98</v>
       </c>
       <c r="Z16" s="4" t="s">
-        <v>107</v>
+        <v>98</v>
       </c>
     </row>
     <row r="17" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A17" s="7" t="s">
-        <v>415</v>
+        <v>477</v>
       </c>
       <c r="B17" s="7" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="C17" s="2">
         <v>23</v>
@@ -9075,75 +9085,75 @@
         <v>0.43469999999999998</v>
       </c>
       <c r="F17" s="2" t="s">
-        <v>267</v>
+        <v>258</v>
       </c>
       <c r="G17" s="2" t="s">
-        <v>268</v>
+        <v>259</v>
       </c>
       <c r="H17" s="2">
         <v>25</v>
       </c>
       <c r="I17" s="2" t="s">
-        <v>266</v>
+        <v>257</v>
       </c>
       <c r="J17" s="2">
         <v>4000</v>
       </c>
       <c r="K17" s="2" t="s">
-        <v>107</v>
+        <v>98</v>
       </c>
       <c r="L17" s="2" t="s">
         <v>42</v>
       </c>
       <c r="M17" s="2" t="s">
-        <v>107</v>
+        <v>98</v>
       </c>
       <c r="N17" s="2" t="s">
-        <v>281</v>
+        <v>272</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>107</v>
+        <v>98</v>
       </c>
       <c r="P17" s="2" t="s">
-        <v>285</v>
+        <v>276</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>107</v>
+        <v>98</v>
       </c>
       <c r="R17" s="7">
         <v>23</v>
       </c>
       <c r="S17" s="7" t="s">
-        <v>107</v>
+        <v>98</v>
       </c>
       <c r="T17" s="7" t="s">
-        <v>107</v>
+        <v>98</v>
       </c>
       <c r="U17" s="7" t="s">
-        <v>107</v>
+        <v>98</v>
       </c>
       <c r="V17" s="7" t="s">
-        <v>107</v>
+        <v>98</v>
       </c>
       <c r="W17" s="7" t="s">
-        <v>107</v>
+        <v>98</v>
       </c>
       <c r="X17" s="4" t="s">
-        <v>107</v>
+        <v>98</v>
       </c>
       <c r="Y17" s="4" t="s">
-        <v>107</v>
+        <v>98</v>
       </c>
       <c r="Z17" s="4" t="s">
-        <v>107</v>
+        <v>98</v>
       </c>
     </row>
     <row r="18" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A18" s="7" t="s">
-        <v>416</v>
+        <v>478</v>
       </c>
       <c r="B18" s="7" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="C18" s="2">
         <v>23</v>
@@ -9155,138 +9165,138 @@
         <v>0.43469999999999998</v>
       </c>
       <c r="F18" s="2" t="s">
-        <v>267</v>
+        <v>258</v>
       </c>
       <c r="G18" s="2" t="s">
-        <v>236</v>
+        <v>227</v>
       </c>
       <c r="H18" s="2">
         <v>25</v>
       </c>
       <c r="I18" s="2" t="s">
-        <v>266</v>
+        <v>257</v>
       </c>
       <c r="J18" s="2">
         <v>4000</v>
       </c>
       <c r="K18" s="2" t="s">
-        <v>107</v>
+        <v>98</v>
       </c>
       <c r="L18" s="2" t="s">
         <v>42</v>
       </c>
       <c r="M18" s="2" t="s">
-        <v>107</v>
+        <v>98</v>
       </c>
       <c r="N18" s="2" t="s">
-        <v>282</v>
+        <v>273</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>107</v>
+        <v>98</v>
       </c>
       <c r="P18" s="2" t="s">
-        <v>286</v>
+        <v>277</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>107</v>
+        <v>98</v>
       </c>
       <c r="R18" s="7">
         <v>23</v>
       </c>
       <c r="S18" s="7" t="s">
-        <v>107</v>
+        <v>98</v>
       </c>
       <c r="T18" s="7" t="s">
-        <v>107</v>
+        <v>98</v>
       </c>
       <c r="U18" s="7" t="s">
-        <v>107</v>
+        <v>98</v>
       </c>
       <c r="V18" s="7" t="s">
-        <v>107</v>
+        <v>98</v>
       </c>
       <c r="W18" s="7" t="s">
-        <v>107</v>
+        <v>98</v>
       </c>
       <c r="X18" s="4" t="s">
-        <v>107</v>
+        <v>98</v>
       </c>
       <c r="Y18" s="4" t="s">
-        <v>107</v>
+        <v>98</v>
       </c>
       <c r="Z18" s="4" t="s">
-        <v>107</v>
+        <v>98</v>
       </c>
     </row>
     <row r="19" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A19" s="7" t="s">
-        <v>223</v>
+        <v>214</v>
       </c>
       <c r="B19" s="7" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="C19" s="7">
         <v>12</v>
       </c>
       <c r="D19" s="7" t="s">
-        <v>224</v>
+        <v>215</v>
       </c>
       <c r="E19" s="38">
         <v>0.5</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>225</v>
+        <v>216</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="H19" s="7">
         <v>25</v>
       </c>
       <c r="I19" s="34" t="s">
-        <v>226</v>
+        <v>217</v>
       </c>
       <c r="J19" s="7">
         <v>1000</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>227</v>
+        <v>218</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>228</v>
+        <v>219</v>
       </c>
       <c r="M19" s="7" t="s">
-        <v>107</v>
+        <v>98</v>
       </c>
       <c r="N19" s="7" t="s">
-        <v>107</v>
+        <v>98</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>107</v>
+        <v>98</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>229</v>
+        <v>220</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>107</v>
+        <v>98</v>
       </c>
       <c r="R19" s="7">
         <v>12</v>
       </c>
       <c r="S19" s="7" t="s">
-        <v>107</v>
+        <v>98</v>
       </c>
       <c r="T19" s="7" t="s">
-        <v>107</v>
+        <v>98</v>
       </c>
       <c r="U19" s="7" t="s">
-        <v>107</v>
+        <v>98</v>
       </c>
       <c r="V19" s="7" t="s">
-        <v>107</v>
+        <v>98</v>
       </c>
       <c r="W19" s="7" t="s">
-        <v>107</v>
+        <v>98</v>
       </c>
       <c r="X19" s="4">
         <v>5.0911688245431426E-4</v>
@@ -9295,75 +9305,75 @@
         <v>4.3200000000000002E-2</v>
       </c>
       <c r="Z19" s="4" t="s">
-        <v>230</v>
+        <v>221</v>
       </c>
     </row>
     <row r="20" spans="1:26" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A20" s="7" t="s">
-        <v>203</v>
+        <v>479</v>
       </c>
       <c r="B20" s="7" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="C20" s="7">
         <v>26</v>
       </c>
       <c r="D20" s="7" t="s">
-        <v>104</v>
+        <v>95</v>
       </c>
       <c r="E20" s="38">
         <v>0.38200000000000001</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>425</v>
+        <v>414</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>216</v>
+        <v>207</v>
       </c>
       <c r="H20" s="7">
         <v>25</v>
       </c>
       <c r="I20" s="34" t="s">
-        <v>204</v>
+        <v>195</v>
       </c>
       <c r="J20" s="7">
         <v>200</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>107</v>
+        <v>98</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>93</v>
+        <v>85</v>
       </c>
       <c r="M20" s="7" t="s">
         <v>37</v>
       </c>
       <c r="N20" s="7" t="s">
-        <v>107</v>
+        <v>98</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>107</v>
+        <v>98</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>231</v>
+        <v>222</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>107</v>
+        <v>98</v>
       </c>
       <c r="R20" s="7">
         <v>13</v>
       </c>
       <c r="S20" s="7" t="s">
-        <v>107</v>
+        <v>98</v>
       </c>
       <c r="T20" s="7" t="s">
-        <v>107</v>
+        <v>98</v>
       </c>
       <c r="U20" s="7" t="s">
-        <v>232</v>
+        <v>223</v>
       </c>
       <c r="V20" s="7" t="s">
-        <v>107</v>
+        <v>98</v>
       </c>
       <c r="W20" s="7">
         <v>13</v>
@@ -9375,101 +9385,101 @@
         <v>1.0500000000000001E-2</v>
       </c>
       <c r="Z20" s="4" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
     </row>
     <row r="21" spans="1:26" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A21" s="7" t="s">
-        <v>233</v>
+        <v>224</v>
       </c>
       <c r="B21" s="7" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="C21" s="7">
         <v>46</v>
       </c>
       <c r="D21" s="31" t="s">
-        <v>205</v>
+        <v>196</v>
       </c>
       <c r="E21" s="33">
         <v>0.3</v>
       </c>
       <c r="F21" s="7" t="s">
-        <v>426</v>
+        <v>415</v>
       </c>
       <c r="G21" s="7" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="H21" s="7">
         <v>25</v>
       </c>
       <c r="I21" s="34" t="s">
-        <v>234</v>
+        <v>225</v>
       </c>
       <c r="J21" s="7">
         <v>250</v>
       </c>
       <c r="K21" s="7" t="s">
-        <v>107</v>
+        <v>98</v>
       </c>
       <c r="L21" s="7" t="s">
-        <v>427</v>
+        <v>416</v>
       </c>
       <c r="M21" s="7" t="s">
-        <v>77</v>
+        <v>72</v>
       </c>
       <c r="N21" s="7" t="s">
-        <v>107</v>
+        <v>98</v>
       </c>
       <c r="O21" s="7" t="s">
-        <v>107</v>
+        <v>98</v>
       </c>
       <c r="P21" s="7" t="s">
-        <v>442</v>
+        <v>431</v>
       </c>
       <c r="Q21" s="7" t="s">
-        <v>107</v>
+        <v>98</v>
       </c>
       <c r="R21" s="7">
         <v>46</v>
       </c>
       <c r="S21" s="7" t="s">
-        <v>107</v>
+        <v>98</v>
       </c>
       <c r="T21" s="7" t="s">
-        <v>107</v>
+        <v>98</v>
       </c>
       <c r="U21" s="7" t="s">
-        <v>443</v>
+        <v>432</v>
       </c>
       <c r="V21" s="7" t="s">
-        <v>107</v>
+        <v>98</v>
       </c>
       <c r="W21" s="7">
         <v>46</v>
       </c>
       <c r="X21" s="4" t="s">
-        <v>107</v>
+        <v>98</v>
       </c>
       <c r="Y21" s="4" t="s">
-        <v>107</v>
+        <v>98</v>
       </c>
       <c r="Z21" s="4" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
     </row>
     <row r="22" spans="1:26" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A22" s="7" t="s">
-        <v>235</v>
+        <v>226</v>
       </c>
       <c r="B22" s="7" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="C22" s="7">
         <v>15</v>
       </c>
       <c r="D22" s="7" t="s">
-        <v>104</v>
+        <v>95</v>
       </c>
       <c r="E22" s="33">
         <v>1</v>
@@ -9478,52 +9488,52 @@
         <v>23</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>236</v>
+        <v>227</v>
       </c>
       <c r="H22" s="7">
         <v>20</v>
       </c>
       <c r="I22" s="34" t="s">
-        <v>237</v>
+        <v>228</v>
       </c>
       <c r="J22" s="7">
         <v>1000</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>238</v>
+        <v>229</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>359</v>
+        <v>350</v>
       </c>
       <c r="M22" s="7" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="N22" s="7" t="s">
-        <v>107</v>
+        <v>98</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>107</v>
+        <v>98</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>239</v>
+        <v>230</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>107</v>
+        <v>98</v>
       </c>
       <c r="R22" s="7">
         <v>15</v>
       </c>
       <c r="S22" s="7" t="s">
-        <v>107</v>
+        <v>98</v>
       </c>
       <c r="T22" s="7" t="s">
-        <v>107</v>
+        <v>98</v>
       </c>
       <c r="U22" s="7" t="s">
-        <v>240</v>
+        <v>231</v>
       </c>
       <c r="V22" s="7" t="s">
-        <v>107</v>
+        <v>98</v>
       </c>
       <c r="W22" s="7">
         <v>15</v>
@@ -9535,78 +9545,78 @@
         <v>1.0800000000000001E-2</v>
       </c>
       <c r="Z22" s="4" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
     </row>
     <row r="23" spans="1:26" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A23" s="7" t="s">
+        <v>480</v>
+      </c>
+      <c r="B23" s="7" t="s">
         <v>44</v>
-      </c>
-      <c r="B23" s="7" t="s">
-        <v>45</v>
       </c>
       <c r="C23" s="2">
         <v>51</v>
       </c>
       <c r="D23" s="2" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="E23" s="14">
         <v>0.46</v>
       </c>
       <c r="F23" s="2" t="s">
-        <v>318</v>
+        <v>309</v>
       </c>
       <c r="G23" s="2" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="H23" s="2">
         <v>30</v>
       </c>
       <c r="I23" s="6" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="J23" s="2">
         <v>200</v>
       </c>
       <c r="K23" s="2" t="s">
-        <v>107</v>
+        <v>98</v>
       </c>
       <c r="L23" s="2" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="M23" s="7" t="s">
-        <v>107</v>
+        <v>98</v>
       </c>
       <c r="N23" s="2" t="s">
-        <v>214</v>
+        <v>205</v>
       </c>
       <c r="O23" s="2" t="s">
-        <v>215</v>
+        <v>206</v>
       </c>
       <c r="P23" s="2" t="s">
-        <v>320</v>
+        <v>311</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>107</v>
+        <v>98</v>
       </c>
       <c r="R23" s="7">
         <v>48</v>
       </c>
       <c r="S23" s="7" t="s">
-        <v>107</v>
+        <v>98</v>
       </c>
       <c r="T23" s="7" t="s">
-        <v>107</v>
+        <v>98</v>
       </c>
       <c r="U23" s="7" t="s">
-        <v>107</v>
+        <v>98</v>
       </c>
       <c r="V23" s="7" t="s">
-        <v>107</v>
+        <v>98</v>
       </c>
       <c r="W23" s="7" t="s">
-        <v>107</v>
+        <v>98</v>
       </c>
       <c r="X23" s="4">
         <v>2.3237900077244502E-4</v>
@@ -9615,21 +9625,21 @@
         <v>1.6200000000000003E-2</v>
       </c>
       <c r="Z23" s="4" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
     </row>
     <row r="24" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A24" s="31" t="s">
-        <v>71</v>
+        <v>481</v>
       </c>
       <c r="B24" s="7" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="C24" s="2">
         <v>30</v>
       </c>
       <c r="D24" s="2" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="E24" s="37">
         <v>0.5</v>
@@ -9638,13 +9648,13 @@
         <v>44</v>
       </c>
       <c r="G24" s="2" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
       <c r="H24" s="2">
         <v>25</v>
       </c>
       <c r="I24" s="8" t="s">
-        <v>325</v>
+        <v>316</v>
       </c>
       <c r="J24" s="2">
         <v>250</v>
@@ -9653,40 +9663,40 @@
         <v>35</v>
       </c>
       <c r="L24" s="2" t="s">
-        <v>72</v>
+        <v>67</v>
       </c>
       <c r="M24" s="7" t="s">
-        <v>107</v>
+        <v>98</v>
       </c>
       <c r="N24" s="2" t="s">
-        <v>221</v>
+        <v>212</v>
       </c>
       <c r="O24" s="2" t="s">
-        <v>107</v>
+        <v>98</v>
       </c>
       <c r="P24" s="2" t="s">
-        <v>222</v>
+        <v>213</v>
       </c>
       <c r="Q24" s="7" t="s">
-        <v>107</v>
+        <v>98</v>
       </c>
       <c r="R24" s="7">
         <v>30</v>
       </c>
       <c r="S24" s="7" t="s">
-        <v>107</v>
+        <v>98</v>
       </c>
       <c r="T24" s="7" t="s">
-        <v>107</v>
+        <v>98</v>
       </c>
       <c r="U24" s="7" t="s">
-        <v>107</v>
+        <v>98</v>
       </c>
       <c r="V24" s="7" t="s">
-        <v>107</v>
+        <v>98</v>
       </c>
       <c r="W24" s="7" t="s">
-        <v>107</v>
+        <v>98</v>
       </c>
       <c r="X24" s="4">
         <v>5.5901699437494697E-5</v>
@@ -9695,7 +9705,7 @@
         <v>1.125E-2</v>
       </c>
       <c r="Z24" s="4" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
     </row>
     <row r="25" spans="1:26" s="4" customFormat="1" ht="31.5" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -9710,7 +9720,7 @@
   <dimension ref="A1:AD17"/>
   <sheetViews>
     <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="A13" sqref="A13"/>
+      <selection activeCell="A9" sqref="A9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -9787,13 +9797,13 @@
         <v>12</v>
       </c>
       <c r="O1" s="3" t="s">
-        <v>459</v>
+        <v>448</v>
       </c>
       <c r="P1" s="3" t="s">
         <v>13</v>
       </c>
       <c r="Q1" s="12" t="s">
-        <v>460</v>
+        <v>449</v>
       </c>
       <c r="R1" s="3" t="s">
         <v>14</v>
@@ -9802,13 +9812,13 @@
         <v>15</v>
       </c>
       <c r="T1" s="3" t="s">
-        <v>458</v>
+        <v>447</v>
       </c>
       <c r="U1" s="3" t="s">
         <v>16</v>
       </c>
       <c r="V1" s="27" t="s">
-        <v>461</v>
+        <v>450</v>
       </c>
       <c r="W1" s="3" t="s">
         <v>17</v>
@@ -9823,30 +9833,30 @@
         <v>20</v>
       </c>
       <c r="AA1" s="12" t="s">
-        <v>465</v>
+        <v>454</v>
       </c>
       <c r="AB1" s="12" t="s">
-        <v>466</v>
+        <v>455</v>
       </c>
       <c r="AC1" s="12" t="s">
-        <v>464</v>
+        <v>453</v>
       </c>
       <c r="AD1" s="12" t="s">
-        <v>467</v>
+        <v>456</v>
       </c>
     </row>
     <row r="2" spans="1:30" s="1" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="9" t="s">
-        <v>58</v>
+        <v>468</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="C2" s="2">
         <v>30</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="E2" s="5">
         <v>0.5</v>
@@ -9861,7 +9871,7 @@
         <v>25</v>
       </c>
       <c r="I2" s="8" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="J2" s="2">
         <v>250</v>
@@ -9870,37 +9880,37 @@
         <v>35</v>
       </c>
       <c r="L2" s="2" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="M2" s="2" t="s">
         <v>37</v>
       </c>
       <c r="N2" s="2" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="O2" s="7" t="s">
-        <v>107</v>
+        <v>98</v>
       </c>
       <c r="P2" s="2" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="Q2" s="2" t="s">
-        <v>107</v>
+        <v>98</v>
       </c>
       <c r="R2" s="2">
         <v>30</v>
       </c>
       <c r="S2" s="2" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="T2" s="7" t="s">
-        <v>107</v>
+        <v>98</v>
       </c>
       <c r="U2" s="2" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="V2" s="7" t="s">
-        <v>107</v>
+        <v>98</v>
       </c>
       <c r="W2" s="2">
         <v>30</v>
@@ -9912,33 +9922,33 @@
         <v>1.3125000000000001E-3</v>
       </c>
       <c r="Z2" s="4" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="AA2" s="4" t="s">
-        <v>107</v>
+        <v>98</v>
       </c>
       <c r="AB2" s="4" t="s">
-        <v>107</v>
+        <v>98</v>
       </c>
       <c r="AC2" s="4" t="s">
-        <v>107</v>
+        <v>98</v>
       </c>
       <c r="AD2" s="4" t="s">
-        <v>107</v>
+        <v>98</v>
       </c>
     </row>
     <row r="3" spans="1:30" s="1" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="9" t="s">
-        <v>67</v>
+        <v>469</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="C3" s="2">
         <v>30</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="E3" s="5">
         <v>0.5</v>
@@ -9947,13 +9957,13 @@
         <v>37</v>
       </c>
       <c r="G3" s="2" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
       <c r="H3" s="2">
         <v>25</v>
       </c>
       <c r="I3" s="8" t="s">
-        <v>69</v>
+        <v>65</v>
       </c>
       <c r="J3" s="2">
         <v>250</v>
@@ -9962,37 +9972,37 @@
         <v>35</v>
       </c>
       <c r="L3" s="2" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="M3" s="2" t="s">
         <v>37</v>
       </c>
       <c r="N3" s="2" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="O3" s="7" t="s">
-        <v>107</v>
+        <v>98</v>
       </c>
       <c r="P3" s="2" t="s">
-        <v>70</v>
+        <v>66</v>
       </c>
       <c r="Q3" s="2" t="s">
-        <v>107</v>
+        <v>98</v>
       </c>
       <c r="R3" s="2">
         <v>30</v>
       </c>
       <c r="S3" s="2" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="T3" s="7" t="s">
-        <v>107</v>
+        <v>98</v>
       </c>
       <c r="U3" s="2" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="V3" s="7" t="s">
-        <v>107</v>
+        <v>98</v>
       </c>
       <c r="W3" s="2">
         <v>30</v>
@@ -10004,33 +10014,33 @@
         <v>1.3125000000000001E-3</v>
       </c>
       <c r="Z3" s="4" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="AA3" s="4" t="s">
-        <v>107</v>
+        <v>98</v>
       </c>
       <c r="AB3" s="4" t="s">
-        <v>107</v>
+        <v>98</v>
       </c>
       <c r="AC3" s="4" t="s">
-        <v>107</v>
+        <v>98</v>
       </c>
       <c r="AD3" s="4" t="s">
-        <v>107</v>
+        <v>98</v>
       </c>
     </row>
     <row r="4" spans="1:30" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A4" s="2" t="s">
-        <v>75</v>
+        <v>70</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="C4" s="2">
         <v>60</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>76</v>
+        <v>71</v>
       </c>
       <c r="E4" s="14">
         <v>0.48299999999999998</v>
@@ -10045,46 +10055,46 @@
         <v>25</v>
       </c>
       <c r="I4" s="8" t="s">
-        <v>379</v>
+        <v>370</v>
       </c>
       <c r="J4" s="2">
         <v>250</v>
       </c>
       <c r="K4" s="2" t="s">
-        <v>107</v>
+        <v>98</v>
       </c>
       <c r="L4" s="2" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="M4" s="2" t="s">
-        <v>77</v>
+        <v>72</v>
       </c>
       <c r="N4" s="2" t="s">
-        <v>380</v>
+        <v>371</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>107</v>
+        <v>98</v>
       </c>
       <c r="P4" s="2" t="s">
-        <v>78</v>
+        <v>73</v>
       </c>
       <c r="Q4" s="2" t="s">
-        <v>107</v>
+        <v>98</v>
       </c>
       <c r="R4" s="2">
         <v>60</v>
       </c>
       <c r="S4" s="2" t="s">
-        <v>381</v>
+        <v>372</v>
       </c>
       <c r="T4" s="7" t="s">
-        <v>107</v>
+        <v>98</v>
       </c>
       <c r="U4" s="2" t="s">
-        <v>79</v>
+        <v>74</v>
       </c>
       <c r="V4" s="7" t="s">
-        <v>107</v>
+        <v>98</v>
       </c>
       <c r="W4" s="2">
         <v>60</v>
@@ -10096,39 +10106,39 @@
         <v>4.6874999999999998E-3</v>
       </c>
       <c r="Z4" s="4" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="AA4" s="4" t="s">
-        <v>107</v>
+        <v>98</v>
       </c>
       <c r="AB4" s="4" t="s">
-        <v>107</v>
+        <v>98</v>
       </c>
       <c r="AC4" s="4" t="s">
-        <v>107</v>
+        <v>98</v>
       </c>
       <c r="AD4" s="4" t="s">
-        <v>107</v>
+        <v>98</v>
       </c>
     </row>
     <row r="5" spans="1:30" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A5" s="2" t="s">
-        <v>80</v>
+        <v>473</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="C5" s="2">
         <v>42</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>76</v>
+        <v>71</v>
       </c>
       <c r="E5" s="14">
         <v>0.42799999999999999</v>
       </c>
       <c r="F5" s="2" t="s">
-        <v>81</v>
+        <v>75</v>
       </c>
       <c r="G5" s="2" t="s">
         <v>34</v>
@@ -10137,46 +10147,46 @@
         <v>25</v>
       </c>
       <c r="I5" s="8" t="s">
-        <v>382</v>
+        <v>373</v>
       </c>
       <c r="J5" s="2" t="s">
-        <v>310</v>
+        <v>301</v>
       </c>
       <c r="K5" s="2" t="s">
-        <v>107</v>
+        <v>98</v>
       </c>
       <c r="L5" s="2" t="s">
-        <v>82</v>
+        <v>76</v>
       </c>
       <c r="M5" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="N5" s="2" t="s">
         <v>77</v>
       </c>
-      <c r="N5" s="2" t="s">
-        <v>83</v>
-      </c>
       <c r="O5" s="2" t="s">
-        <v>311</v>
+        <v>302</v>
       </c>
       <c r="P5" s="2" t="s">
-        <v>312</v>
+        <v>303</v>
       </c>
       <c r="Q5" s="2" t="s">
-        <v>107</v>
+        <v>98</v>
       </c>
       <c r="R5" s="2">
         <v>42</v>
       </c>
       <c r="S5" s="2" t="s">
-        <v>84</v>
+        <v>78</v>
       </c>
       <c r="T5" s="2" t="s">
-        <v>85</v>
+        <v>79</v>
       </c>
       <c r="U5" s="2" t="s">
-        <v>313</v>
+        <v>304</v>
       </c>
       <c r="V5" s="7" t="s">
-        <v>107</v>
+        <v>98</v>
       </c>
       <c r="W5" s="2">
         <v>42</v>
@@ -10188,39 +10198,39 @@
         <v>1.41E-3</v>
       </c>
       <c r="Z5" s="4" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="AA5" s="4" t="s">
-        <v>107</v>
+        <v>98</v>
       </c>
       <c r="AB5" s="4" t="s">
-        <v>107</v>
+        <v>98</v>
       </c>
       <c r="AC5" s="4" t="s">
-        <v>107</v>
+        <v>98</v>
       </c>
       <c r="AD5" s="4" t="s">
-        <v>107</v>
+        <v>98</v>
       </c>
     </row>
     <row r="6" spans="1:30" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A6" s="2" t="s">
-        <v>86</v>
+        <v>474</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="C6" s="2">
         <v>42</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>76</v>
+        <v>71</v>
       </c>
       <c r="E6" s="14">
         <v>0.42799999999999999</v>
       </c>
       <c r="F6" s="2" t="s">
-        <v>81</v>
+        <v>75</v>
       </c>
       <c r="G6" s="2" t="s">
         <v>23</v>
@@ -10229,46 +10239,46 @@
         <v>25</v>
       </c>
       <c r="I6" s="8" t="s">
-        <v>383</v>
+        <v>374</v>
       </c>
       <c r="J6" s="2" t="s">
-        <v>310</v>
+        <v>301</v>
       </c>
       <c r="K6" s="2" t="s">
-        <v>107</v>
+        <v>98</v>
       </c>
       <c r="L6" s="2" t="s">
-        <v>82</v>
+        <v>76</v>
       </c>
       <c r="M6" s="2" t="s">
-        <v>77</v>
+        <v>72</v>
       </c>
       <c r="N6" s="2" t="s">
-        <v>87</v>
+        <v>80</v>
       </c>
       <c r="O6" s="2" t="s">
-        <v>88</v>
+        <v>81</v>
       </c>
       <c r="P6" s="2" t="s">
-        <v>314</v>
+        <v>305</v>
       </c>
       <c r="Q6" s="2" t="s">
-        <v>107</v>
+        <v>98</v>
       </c>
       <c r="R6" s="2">
         <v>42</v>
       </c>
       <c r="S6" s="2" t="s">
-        <v>84</v>
+        <v>78</v>
       </c>
       <c r="T6" s="2" t="s">
-        <v>85</v>
+        <v>79</v>
       </c>
       <c r="U6" s="2" t="s">
-        <v>313</v>
+        <v>304</v>
       </c>
       <c r="V6" s="7" t="s">
-        <v>107</v>
+        <v>98</v>
       </c>
       <c r="W6" s="2">
         <v>42</v>
@@ -10280,87 +10290,87 @@
         <v>3.2700000000000003E-3</v>
       </c>
       <c r="Z6" s="4" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="AA6" s="4" t="s">
-        <v>107</v>
+        <v>98</v>
       </c>
       <c r="AB6" s="4" t="s">
-        <v>107</v>
+        <v>98</v>
       </c>
       <c r="AC6" s="4" t="s">
-        <v>107</v>
+        <v>98</v>
       </c>
       <c r="AD6" s="4" t="s">
-        <v>107</v>
+        <v>98</v>
       </c>
     </row>
     <row r="7" spans="1:30" s="1" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="2" t="s">
-        <v>89</v>
+        <v>470</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="C7" s="2">
         <v>28</v>
       </c>
       <c r="D7" s="9" t="s">
-        <v>90</v>
+        <v>82</v>
       </c>
       <c r="E7" s="5">
         <v>1</v>
       </c>
       <c r="F7" s="2" t="s">
-        <v>91</v>
+        <v>83</v>
       </c>
       <c r="G7" s="2" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
       <c r="H7" s="2">
         <v>5</v>
       </c>
       <c r="I7" s="8" t="s">
-        <v>92</v>
+        <v>84</v>
       </c>
       <c r="J7" s="2">
         <v>200</v>
       </c>
       <c r="K7" s="2" t="s">
-        <v>107</v>
+        <v>98</v>
       </c>
       <c r="L7" s="2" t="s">
-        <v>93</v>
+        <v>85</v>
       </c>
       <c r="M7" s="2" t="s">
-        <v>77</v>
+        <v>72</v>
       </c>
       <c r="N7" s="2" t="s">
-        <v>94</v>
+        <v>86</v>
       </c>
       <c r="O7" s="2" t="s">
-        <v>95</v>
+        <v>87</v>
       </c>
       <c r="P7" s="2" t="s">
-        <v>345</v>
+        <v>336</v>
       </c>
       <c r="Q7" s="2" t="s">
-        <v>107</v>
+        <v>98</v>
       </c>
       <c r="R7" s="2">
         <v>28</v>
       </c>
       <c r="S7" s="2" t="s">
-        <v>96</v>
+        <v>88</v>
       </c>
       <c r="T7" s="2" t="s">
-        <v>97</v>
+        <v>89</v>
       </c>
       <c r="U7" s="2" t="s">
-        <v>347</v>
+        <v>338</v>
       </c>
       <c r="V7" s="7" t="s">
-        <v>107</v>
+        <v>98</v>
       </c>
       <c r="W7" s="2">
         <v>28</v>
@@ -10372,87 +10382,87 @@
         <v>7.1999999999999994E-4</v>
       </c>
       <c r="Z7" s="4" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="AA7" s="4" t="s">
-        <v>107</v>
+        <v>98</v>
       </c>
       <c r="AB7" s="4" t="s">
-        <v>107</v>
+        <v>98</v>
       </c>
       <c r="AC7" s="4" t="s">
-        <v>107</v>
+        <v>98</v>
       </c>
       <c r="AD7" s="4" t="s">
-        <v>107</v>
+        <v>98</v>
       </c>
     </row>
     <row r="8" spans="1:30" s="1" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="2" t="s">
-        <v>98</v>
+        <v>471</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="C8" s="2">
         <v>28</v>
       </c>
       <c r="D8" s="9" t="s">
-        <v>99</v>
+        <v>90</v>
       </c>
       <c r="E8" s="5">
         <v>1</v>
       </c>
       <c r="F8" s="2" t="s">
-        <v>91</v>
+        <v>83</v>
       </c>
       <c r="G8" s="2" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
       <c r="H8" s="2">
         <v>25</v>
       </c>
       <c r="I8" s="8" t="s">
-        <v>100</v>
+        <v>91</v>
       </c>
       <c r="J8" s="2">
         <v>200</v>
       </c>
       <c r="K8" s="2" t="s">
-        <v>107</v>
+        <v>98</v>
       </c>
       <c r="L8" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="M8" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="N8" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="O8" s="2" t="s">
         <v>93</v>
       </c>
-      <c r="M8" s="2" t="s">
-        <v>77</v>
-      </c>
-      <c r="N8" s="2" t="s">
-        <v>101</v>
-      </c>
-      <c r="O8" s="2" t="s">
-        <v>102</v>
-      </c>
       <c r="P8" s="2" t="s">
-        <v>346</v>
+        <v>337</v>
       </c>
       <c r="Q8" s="2" t="s">
-        <v>107</v>
+        <v>98</v>
       </c>
       <c r="R8" s="2">
         <v>28</v>
       </c>
       <c r="S8" s="2" t="s">
-        <v>96</v>
+        <v>88</v>
       </c>
       <c r="T8" s="2" t="s">
-        <v>97</v>
+        <v>89</v>
       </c>
       <c r="U8" s="2" t="s">
-        <v>347</v>
+        <v>338</v>
       </c>
       <c r="V8" s="7" t="s">
-        <v>107</v>
+        <v>98</v>
       </c>
       <c r="W8" s="2">
         <v>28</v>
@@ -10464,39 +10474,39 @@
         <v>1.6500000000000001E-2</v>
       </c>
       <c r="Z8" s="4" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="AA8" s="4" t="s">
-        <v>107</v>
+        <v>98</v>
       </c>
       <c r="AB8" s="4" t="s">
-        <v>107</v>
+        <v>98</v>
       </c>
       <c r="AC8" s="4" t="s">
-        <v>107</v>
+        <v>98</v>
       </c>
       <c r="AD8" s="4" t="s">
-        <v>107</v>
+        <v>98</v>
       </c>
     </row>
     <row r="9" spans="1:30" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A9" s="2" t="s">
-        <v>103</v>
+        <v>94</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="C9" s="2">
         <v>15</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>104</v>
+        <v>95</v>
       </c>
       <c r="E9" s="5">
         <v>1</v>
       </c>
       <c r="F9" s="2" t="s">
-        <v>105</v>
+        <v>96</v>
       </c>
       <c r="G9" s="2" t="s">
         <v>34</v>
@@ -10505,46 +10515,46 @@
         <v>25</v>
       </c>
       <c r="I9" s="2" t="s">
-        <v>106</v>
+        <v>97</v>
       </c>
       <c r="J9" s="2" t="s">
-        <v>107</v>
+        <v>98</v>
       </c>
       <c r="K9" s="2" t="s">
-        <v>107</v>
+        <v>98</v>
       </c>
       <c r="L9" s="2" t="s">
-        <v>108</v>
+        <v>99</v>
       </c>
       <c r="M9" s="2" t="s">
-        <v>77</v>
+        <v>72</v>
       </c>
       <c r="N9" s="2" t="s">
-        <v>109</v>
+        <v>100</v>
       </c>
       <c r="O9" s="7" t="s">
-        <v>107</v>
+        <v>98</v>
       </c>
       <c r="P9" s="2" t="s">
-        <v>110</v>
+        <v>101</v>
       </c>
       <c r="Q9" s="2" t="s">
-        <v>107</v>
+        <v>98</v>
       </c>
       <c r="R9" s="2">
         <v>15</v>
       </c>
       <c r="S9" s="2" t="s">
-        <v>111</v>
+        <v>102</v>
       </c>
       <c r="T9" s="7" t="s">
-        <v>107</v>
+        <v>98</v>
       </c>
       <c r="U9" s="2" t="s">
-        <v>112</v>
+        <v>103</v>
       </c>
       <c r="V9" s="7" t="s">
-        <v>107</v>
+        <v>98</v>
       </c>
       <c r="W9" s="2">
         <v>15</v>
@@ -10556,87 +10566,87 @@
         <v>7.03125E-2</v>
       </c>
       <c r="Z9" s="4" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="AA9" s="4" t="s">
-        <v>107</v>
+        <v>98</v>
       </c>
       <c r="AB9" s="4" t="s">
-        <v>107</v>
+        <v>98</v>
       </c>
       <c r="AC9" s="4" t="s">
-        <v>107</v>
+        <v>98</v>
       </c>
       <c r="AD9" s="4" t="s">
-        <v>107</v>
+        <v>98</v>
       </c>
     </row>
     <row r="10" spans="1:30" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A10" s="25" t="s">
-        <v>113</v>
+        <v>104</v>
       </c>
       <c r="B10" s="25" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="C10" s="25">
         <v>44</v>
       </c>
       <c r="D10" s="25" t="s">
-        <v>114</v>
+        <v>105</v>
       </c>
       <c r="E10" s="26">
         <v>0.5</v>
       </c>
       <c r="F10" s="25" t="s">
-        <v>115</v>
+        <v>106</v>
       </c>
       <c r="G10" s="25" t="s">
-        <v>116</v>
+        <v>107</v>
       </c>
       <c r="H10" s="25">
         <v>25</v>
       </c>
       <c r="I10" s="25" t="s">
-        <v>117</v>
+        <v>108</v>
       </c>
       <c r="J10" s="25">
         <v>100</v>
       </c>
       <c r="K10" s="25" t="s">
-        <v>118</v>
+        <v>109</v>
       </c>
       <c r="L10" s="25" t="s">
-        <v>119</v>
+        <v>110</v>
       </c>
       <c r="M10" s="25" t="s">
-        <v>116</v>
+        <v>107</v>
       </c>
       <c r="N10" s="7" t="s">
-        <v>107</v>
+        <v>98</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>107</v>
+        <v>98</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>107</v>
+        <v>98</v>
       </c>
       <c r="Q10" s="42" t="s">
-        <v>462</v>
+        <v>451</v>
       </c>
       <c r="R10" s="25">
         <v>44</v>
       </c>
       <c r="S10" s="7" t="s">
-        <v>107</v>
+        <v>98</v>
       </c>
       <c r="T10" s="7" t="s">
-        <v>107</v>
+        <v>98</v>
       </c>
       <c r="U10" s="7" t="s">
-        <v>107</v>
+        <v>98</v>
       </c>
       <c r="V10" s="42" t="s">
-        <v>463</v>
+        <v>452</v>
       </c>
       <c r="W10" s="25">
         <v>44</v>
@@ -10648,16 +10658,16 @@
         <v>1.5E-3</v>
       </c>
       <c r="Z10" s="4" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="AA10" s="42" t="s">
-        <v>469</v>
+        <v>458</v>
       </c>
       <c r="AB10" s="4">
         <v>0.62</v>
       </c>
       <c r="AC10" s="42" t="s">
-        <v>468</v>
+        <v>457</v>
       </c>
       <c r="AD10" s="4">
         <v>0.72</v>
@@ -10665,22 +10675,22 @@
     </row>
     <row r="11" spans="1:30" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A11" s="2" t="s">
-        <v>388</v>
+        <v>379</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="C11" s="2">
         <v>19</v>
       </c>
       <c r="D11" s="2" t="s">
-        <v>120</v>
+        <v>111</v>
       </c>
       <c r="E11" s="14">
         <v>0.315</v>
       </c>
       <c r="F11" s="2" t="s">
-        <v>121</v>
+        <v>112</v>
       </c>
       <c r="G11" s="2" t="s">
         <v>34</v>
@@ -10689,46 +10699,46 @@
         <v>10</v>
       </c>
       <c r="I11" s="2" t="s">
-        <v>107</v>
+        <v>98</v>
       </c>
       <c r="J11" s="2">
         <v>300</v>
       </c>
       <c r="K11" s="2" t="s">
-        <v>107</v>
+        <v>98</v>
       </c>
       <c r="L11" s="2" t="s">
-        <v>122</v>
+        <v>113</v>
       </c>
       <c r="M11" s="7" t="s">
-        <v>107</v>
+        <v>98</v>
       </c>
       <c r="N11" s="2" t="s">
-        <v>123</v>
+        <v>114</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>107</v>
+        <v>98</v>
       </c>
       <c r="P11" s="2" t="s">
-        <v>124</v>
+        <v>115</v>
       </c>
       <c r="Q11" s="2" t="s">
-        <v>107</v>
+        <v>98</v>
       </c>
       <c r="R11" s="2">
         <v>10</v>
       </c>
       <c r="S11" s="2" t="s">
-        <v>125</v>
+        <v>116</v>
       </c>
       <c r="T11" s="7" t="s">
-        <v>107</v>
+        <v>98</v>
       </c>
       <c r="U11" s="2" t="s">
-        <v>126</v>
+        <v>117</v>
       </c>
       <c r="V11" s="7" t="s">
-        <v>107</v>
+        <v>98</v>
       </c>
       <c r="W11" s="2">
         <v>9</v>
@@ -10740,27 +10750,27 @@
         <v>5.3999999999999994E-3</v>
       </c>
       <c r="Z11" s="4" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="AA11" s="4" t="s">
-        <v>107</v>
+        <v>98</v>
       </c>
       <c r="AB11" s="4" t="s">
-        <v>107</v>
+        <v>98</v>
       </c>
       <c r="AC11" s="4" t="s">
-        <v>107</v>
+        <v>98</v>
       </c>
       <c r="AD11" s="4" t="s">
-        <v>107</v>
+        <v>98</v>
       </c>
     </row>
     <row r="12" spans="1:30" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A12" s="2" t="s">
-        <v>389</v>
+        <v>380</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="C12" s="2">
         <v>14</v>
@@ -10787,40 +10797,40 @@
         <v>250</v>
       </c>
       <c r="K12" s="2" t="s">
-        <v>107</v>
+        <v>98</v>
       </c>
       <c r="L12" s="2" t="s">
         <v>25</v>
       </c>
       <c r="M12" s="2" t="s">
-        <v>77</v>
+        <v>72</v>
       </c>
       <c r="N12" s="2" t="s">
-        <v>127</v>
+        <v>118</v>
       </c>
       <c r="O12" s="2" t="s">
-        <v>128</v>
+        <v>119</v>
       </c>
       <c r="P12" s="2" t="s">
-        <v>129</v>
+        <v>120</v>
       </c>
       <c r="Q12" s="2" t="s">
-        <v>107</v>
+        <v>98</v>
       </c>
       <c r="R12" s="2">
         <v>14</v>
       </c>
       <c r="S12" s="2" t="s">
-        <v>130</v>
+        <v>121</v>
       </c>
       <c r="T12" s="2" t="s">
-        <v>131</v>
+        <v>122</v>
       </c>
       <c r="U12" s="2" t="s">
-        <v>132</v>
+        <v>123</v>
       </c>
       <c r="V12" s="7" t="s">
-        <v>107</v>
+        <v>98</v>
       </c>
       <c r="W12" s="2">
         <v>14</v>
@@ -10832,27 +10842,27 @@
         <v>2.0249999999999997E-2</v>
       </c>
       <c r="Z12" s="17" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="AA12" s="4" t="s">
-        <v>107</v>
+        <v>98</v>
       </c>
       <c r="AB12" s="4" t="s">
-        <v>107</v>
+        <v>98</v>
       </c>
       <c r="AC12" s="4" t="s">
-        <v>107</v>
+        <v>98</v>
       </c>
       <c r="AD12" s="4" t="s">
-        <v>107</v>
+        <v>98</v>
       </c>
     </row>
     <row r="13" spans="1:30" s="1" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="2" t="s">
-        <v>390</v>
+        <v>467</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="C13" s="2">
         <v>42</v>
@@ -10873,7 +10883,7 @@
         <v>500</v>
       </c>
       <c r="I13" s="9" t="s">
-        <v>384</v>
+        <v>375</v>
       </c>
       <c r="J13" s="2">
         <v>500</v>
@@ -10894,10 +10904,10 @@
         <v>39</v>
       </c>
       <c r="P13" s="2" t="s">
-        <v>385</v>
+        <v>376</v>
       </c>
       <c r="Q13" s="2" t="s">
-        <v>107</v>
+        <v>98</v>
       </c>
       <c r="R13" s="2">
         <v>42</v>
@@ -10912,7 +10922,7 @@
         <v>41</v>
       </c>
       <c r="V13" s="7" t="s">
-        <v>107</v>
+        <v>98</v>
       </c>
       <c r="W13" s="2">
         <v>42</v>
@@ -10924,27 +10934,27 @@
         <v>2.2499999999999999E-2</v>
       </c>
       <c r="Z13" s="4" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="AA13" s="4" t="s">
-        <v>107</v>
+        <v>98</v>
       </c>
       <c r="AB13" s="4" t="s">
-        <v>107</v>
+        <v>98</v>
       </c>
       <c r="AC13" s="4" t="s">
-        <v>107</v>
+        <v>98</v>
       </c>
       <c r="AD13" s="4" t="s">
-        <v>107</v>
+        <v>98</v>
       </c>
     </row>
     <row r="14" spans="1:30" s="1" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="2" t="s">
-        <v>391</v>
+        <v>466</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="C14" s="2">
         <v>42</v>
@@ -10965,7 +10975,7 @@
         <v>25</v>
       </c>
       <c r="I14" s="9" t="s">
-        <v>384</v>
+        <v>375</v>
       </c>
       <c r="J14" s="2">
         <v>500</v>
@@ -10983,13 +10993,13 @@
         <v>38</v>
       </c>
       <c r="O14" s="2" t="s">
-        <v>386</v>
+        <v>377</v>
       </c>
       <c r="P14" s="2" t="s">
-        <v>387</v>
+        <v>378</v>
       </c>
       <c r="Q14" s="2" t="s">
-        <v>107</v>
+        <v>98</v>
       </c>
       <c r="R14" s="2">
         <v>42</v>
@@ -11004,7 +11014,7 @@
         <v>41</v>
       </c>
       <c r="V14" s="7" t="s">
-        <v>107</v>
+        <v>98</v>
       </c>
       <c r="W14" s="2">
         <v>42</v>
@@ -11016,90 +11026,90 @@
         <v>2.2499999999999999E-2</v>
       </c>
       <c r="Z14" s="4" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="AA14" s="4" t="s">
-        <v>107</v>
+        <v>98</v>
       </c>
       <c r="AB14" s="4" t="s">
-        <v>107</v>
+        <v>98</v>
       </c>
       <c r="AC14" s="4" t="s">
-        <v>107</v>
+        <v>98</v>
       </c>
       <c r="AD14" s="4" t="s">
-        <v>107</v>
+        <v>98</v>
       </c>
     </row>
     <row r="15" spans="1:30" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A15" s="2" t="s">
+        <v>360</v>
+      </c>
+      <c r="B15" s="7" t="s">
         <v>44</v>
-      </c>
-      <c r="B15" s="7" t="s">
-        <v>45</v>
       </c>
       <c r="C15" s="2">
         <v>48</v>
       </c>
       <c r="D15" s="2" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="E15" s="14">
         <v>0.45800000000000002</v>
       </c>
       <c r="F15" s="2" t="s">
-        <v>318</v>
+        <v>309</v>
       </c>
       <c r="G15" s="2" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="H15" s="2">
         <v>30</v>
       </c>
       <c r="I15" s="6" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="J15" s="2">
         <v>200</v>
       </c>
       <c r="K15" s="2" t="s">
-        <v>107</v>
+        <v>98</v>
       </c>
       <c r="L15" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="M15" s="7" t="s">
+        <v>98</v>
+      </c>
+      <c r="N15" s="2" t="s">
         <v>49</v>
       </c>
-      <c r="M15" s="7" t="s">
-        <v>107</v>
-      </c>
-      <c r="N15" s="2" t="s">
+      <c r="O15" s="2" t="s">
         <v>50</v>
       </c>
-      <c r="O15" s="2" t="s">
-        <v>51</v>
-      </c>
       <c r="P15" s="2" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="Q15" s="2" t="s">
-        <v>107</v>
+        <v>98</v>
       </c>
       <c r="R15" s="2">
         <v>48</v>
       </c>
       <c r="S15" s="7" t="s">
-        <v>107</v>
+        <v>98</v>
       </c>
       <c r="T15" s="7" t="s">
-        <v>107</v>
+        <v>98</v>
       </c>
       <c r="U15" s="7" t="s">
-        <v>107</v>
+        <v>98</v>
       </c>
       <c r="V15" s="7" t="s">
-        <v>107</v>
+        <v>98</v>
       </c>
       <c r="W15" s="7" t="s">
-        <v>107</v>
+        <v>98</v>
       </c>
       <c r="X15" s="4">
         <v>2.3237900077244502E-4</v>
@@ -11108,90 +11118,90 @@
         <v>1.6200000000000003E-2</v>
       </c>
       <c r="Z15" s="4" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="AA15" s="4" t="s">
-        <v>107</v>
+        <v>98</v>
       </c>
       <c r="AB15" s="4" t="s">
-        <v>107</v>
+        <v>98</v>
       </c>
       <c r="AC15" s="4" t="s">
-        <v>107</v>
+        <v>98</v>
       </c>
       <c r="AD15" s="4" t="s">
-        <v>107</v>
+        <v>98</v>
       </c>
     </row>
     <row r="16" spans="1:30" s="1" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="2" t="s">
-        <v>53</v>
+        <v>472</v>
       </c>
       <c r="B16" s="7" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="C16" s="2">
         <v>26</v>
       </c>
       <c r="D16" s="2" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="E16" s="14">
         <v>0.34599999999999997</v>
       </c>
       <c r="F16" s="2" t="s">
-        <v>319</v>
+        <v>310</v>
       </c>
       <c r="G16" s="2" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="H16" s="2">
         <v>30</v>
       </c>
       <c r="I16" s="6" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="J16" s="2">
         <v>200</v>
       </c>
       <c r="K16" s="2" t="s">
-        <v>107</v>
+        <v>98</v>
       </c>
       <c r="L16" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="M16" s="7" t="s">
+        <v>98</v>
+      </c>
+      <c r="N16" s="7" t="s">
+        <v>53</v>
+      </c>
+      <c r="O16" s="7" t="s">
+        <v>98</v>
+      </c>
+      <c r="P16" s="7" t="s">
         <v>54</v>
       </c>
-      <c r="M16" s="7" t="s">
-        <v>107</v>
-      </c>
-      <c r="N16" s="7" t="s">
-        <v>55</v>
-      </c>
-      <c r="O16" s="7" t="s">
-        <v>107</v>
-      </c>
-      <c r="P16" s="7" t="s">
-        <v>56</v>
-      </c>
       <c r="Q16" s="2" t="s">
-        <v>107</v>
+        <v>98</v>
       </c>
       <c r="R16" s="2">
         <v>26</v>
       </c>
       <c r="S16" s="7" t="s">
-        <v>107</v>
+        <v>98</v>
       </c>
       <c r="T16" s="7" t="s">
-        <v>107</v>
+        <v>98</v>
       </c>
       <c r="U16" s="7" t="s">
-        <v>107</v>
+        <v>98</v>
       </c>
       <c r="V16" s="7" t="s">
-        <v>107</v>
+        <v>98</v>
       </c>
       <c r="W16" s="7" t="s">
-        <v>107</v>
+        <v>98</v>
       </c>
       <c r="X16" s="4">
         <v>2.3237900077244502E-4</v>
@@ -11200,33 +11210,33 @@
         <v>1.6200000000000003E-2</v>
       </c>
       <c r="Z16" s="4" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="AA16" s="4" t="s">
-        <v>107</v>
+        <v>98</v>
       </c>
       <c r="AB16" s="4" t="s">
-        <v>107</v>
+        <v>98</v>
       </c>
       <c r="AC16" s="4" t="s">
-        <v>107</v>
+        <v>98</v>
       </c>
       <c r="AD16" s="4" t="s">
-        <v>107</v>
+        <v>98</v>
       </c>
     </row>
     <row r="17" spans="1:30" s="1" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="9" t="s">
-        <v>71</v>
+        <v>469</v>
       </c>
       <c r="B17" s="7" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="C17" s="2">
         <v>30</v>
       </c>
       <c r="D17" s="2" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="E17" s="5">
         <v>0.5</v>
@@ -11235,13 +11245,13 @@
         <v>44</v>
       </c>
       <c r="G17" s="2" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
       <c r="H17" s="2">
         <v>25</v>
       </c>
       <c r="I17" s="8" t="s">
-        <v>325</v>
+        <v>316</v>
       </c>
       <c r="J17" s="2">
         <v>250</v>
@@ -11250,40 +11260,40 @@
         <v>35</v>
       </c>
       <c r="L17" s="2" t="s">
-        <v>72</v>
+        <v>67</v>
       </c>
       <c r="M17" s="7" t="s">
-        <v>107</v>
+        <v>98</v>
       </c>
       <c r="N17" s="2" t="s">
-        <v>73</v>
+        <v>68</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>107</v>
+        <v>98</v>
       </c>
       <c r="P17" s="2" t="s">
-        <v>74</v>
+        <v>69</v>
       </c>
       <c r="Q17" s="2" t="s">
-        <v>107</v>
+        <v>98</v>
       </c>
       <c r="R17" s="2">
         <v>30</v>
       </c>
       <c r="S17" s="7" t="s">
-        <v>107</v>
+        <v>98</v>
       </c>
       <c r="T17" s="7" t="s">
-        <v>107</v>
+        <v>98</v>
       </c>
       <c r="U17" s="7" t="s">
-        <v>107</v>
+        <v>98</v>
       </c>
       <c r="V17" s="7" t="s">
-        <v>107</v>
+        <v>98</v>
       </c>
       <c r="W17" s="7" t="s">
-        <v>107</v>
+        <v>98</v>
       </c>
       <c r="X17" s="4">
         <v>5.5901699437494697E-5</v>
@@ -11292,19 +11302,19 @@
         <v>1.125E-2</v>
       </c>
       <c r="Z17" s="4" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="AA17" s="4" t="s">
-        <v>107</v>
+        <v>98</v>
       </c>
       <c r="AB17" s="4" t="s">
-        <v>107</v>
+        <v>98</v>
       </c>
       <c r="AC17" s="4" t="s">
-        <v>107</v>
+        <v>98</v>
       </c>
       <c r="AD17" s="4" t="s">
-        <v>107</v>
+        <v>98</v>
       </c>
     </row>
   </sheetData>
@@ -11319,7 +11329,7 @@
   <dimension ref="A1:Z11"/>
   <sheetViews>
     <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="A9" sqref="A9:Z11"/>
+      <selection activeCell="B7" sqref="B7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -11393,13 +11403,13 @@
         <v>12</v>
       </c>
       <c r="O1" s="27" t="s">
-        <v>459</v>
+        <v>448</v>
       </c>
       <c r="P1" s="27" t="s">
         <v>13</v>
       </c>
       <c r="Q1" s="12" t="s">
-        <v>460</v>
+        <v>449</v>
       </c>
       <c r="R1" s="27" t="s">
         <v>14</v>
@@ -11408,13 +11418,13 @@
         <v>15</v>
       </c>
       <c r="T1" s="27" t="s">
-        <v>458</v>
+        <v>447</v>
       </c>
       <c r="U1" s="27" t="s">
         <v>16</v>
       </c>
       <c r="V1" s="27" t="s">
-        <v>461</v>
+        <v>450</v>
       </c>
       <c r="W1" s="27" t="s">
         <v>17</v>
@@ -11431,16 +11441,16 @@
     </row>
     <row r="2" spans="1:26" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A2" s="28" t="s">
-        <v>58</v>
+        <v>468</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="C2" s="2">
         <v>30</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="E2" s="5">
         <v>0.5</v>
@@ -11455,7 +11465,7 @@
         <v>25</v>
       </c>
       <c r="I2" s="8" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="J2" s="2">
         <v>250</v>
@@ -11464,37 +11474,37 @@
         <v>35</v>
       </c>
       <c r="L2" s="2" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="M2" s="2" t="s">
         <v>37</v>
       </c>
       <c r="N2" s="2" t="s">
-        <v>135</v>
+        <v>126</v>
       </c>
       <c r="O2" s="7" t="s">
-        <v>107</v>
+        <v>98</v>
       </c>
       <c r="P2" s="2" t="s">
-        <v>136</v>
+        <v>127</v>
       </c>
       <c r="Q2" s="7" t="s">
-        <v>107</v>
+        <v>98</v>
       </c>
       <c r="R2" s="2">
         <v>30</v>
       </c>
       <c r="S2" s="2" t="s">
-        <v>135</v>
+        <v>126</v>
       </c>
       <c r="T2" s="7" t="s">
-        <v>107</v>
+        <v>98</v>
       </c>
       <c r="U2" s="2" t="s">
-        <v>137</v>
+        <v>128</v>
       </c>
       <c r="V2" s="7" t="s">
-        <v>107</v>
+        <v>98</v>
       </c>
       <c r="W2" s="2">
         <v>30</v>
@@ -11506,21 +11516,21 @@
         <v>1.3125000000000001E-3</v>
       </c>
       <c r="Z2" s="4" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
     </row>
     <row r="3" spans="1:26" ht="13.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A3" s="28" t="s">
-        <v>67</v>
+        <v>469</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="C3" s="2">
         <v>30</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="E3" s="5">
         <v>0.5</v>
@@ -11529,13 +11539,13 @@
         <v>37</v>
       </c>
       <c r="G3" s="2" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
       <c r="H3" s="2">
         <v>25</v>
       </c>
       <c r="I3" s="8" t="s">
-        <v>69</v>
+        <v>65</v>
       </c>
       <c r="J3" s="2">
         <v>250</v>
@@ -11544,37 +11554,37 @@
         <v>35</v>
       </c>
       <c r="L3" s="2" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="M3" s="2" t="s">
         <v>37</v>
       </c>
       <c r="N3" s="2" t="s">
-        <v>135</v>
+        <v>126</v>
       </c>
       <c r="O3" s="7" t="s">
-        <v>107</v>
+        <v>98</v>
       </c>
       <c r="P3" s="2" t="s">
-        <v>138</v>
+        <v>129</v>
       </c>
       <c r="Q3" s="7" t="s">
-        <v>107</v>
+        <v>98</v>
       </c>
       <c r="R3" s="2">
         <v>30</v>
       </c>
       <c r="S3" s="2" t="s">
-        <v>135</v>
+        <v>126</v>
       </c>
       <c r="T3" s="7" t="s">
-        <v>107</v>
+        <v>98</v>
       </c>
       <c r="U3" s="2" t="s">
-        <v>137</v>
+        <v>128</v>
       </c>
       <c r="V3" s="7" t="s">
-        <v>107</v>
+        <v>98</v>
       </c>
       <c r="W3" s="2">
         <v>30</v>
@@ -11586,75 +11596,75 @@
         <v>1.3125000000000001E-3</v>
       </c>
       <c r="Z3" s="4" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
     </row>
     <row r="4" spans="1:26" ht="30" x14ac:dyDescent="0.25">
       <c r="A4" s="2" t="s">
-        <v>89</v>
+        <v>470</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="C4" s="2">
         <v>28</v>
       </c>
       <c r="D4" s="9" t="s">
-        <v>90</v>
+        <v>82</v>
       </c>
       <c r="E4" s="5">
         <v>1</v>
       </c>
       <c r="F4" s="2" t="s">
-        <v>91</v>
+        <v>83</v>
       </c>
       <c r="G4" s="2" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
       <c r="H4" s="2">
         <v>5</v>
       </c>
       <c r="I4" s="8" t="s">
-        <v>92</v>
+        <v>84</v>
       </c>
       <c r="J4" s="2">
         <v>200</v>
       </c>
       <c r="K4" s="2" t="s">
-        <v>107</v>
+        <v>98</v>
       </c>
       <c r="L4" s="2" t="s">
-        <v>93</v>
+        <v>85</v>
       </c>
       <c r="M4" s="2" t="s">
-        <v>77</v>
+        <v>72</v>
       </c>
       <c r="N4" s="2" t="s">
-        <v>141</v>
+        <v>132</v>
       </c>
       <c r="O4" s="2" t="s">
-        <v>142</v>
+        <v>133</v>
       </c>
       <c r="P4" s="2" t="s">
-        <v>348</v>
+        <v>339</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>107</v>
+        <v>98</v>
       </c>
       <c r="R4" s="2">
         <v>28</v>
       </c>
       <c r="S4" s="2" t="s">
-        <v>143</v>
+        <v>134</v>
       </c>
       <c r="T4" s="2" t="s">
-        <v>144</v>
+        <v>135</v>
       </c>
       <c r="U4" s="2" t="s">
-        <v>350</v>
+        <v>341</v>
       </c>
       <c r="V4" s="7" t="s">
-        <v>107</v>
+        <v>98</v>
       </c>
       <c r="W4" s="2">
         <v>28</v>
@@ -11666,75 +11676,75 @@
         <v>7.1999999999999994E-4</v>
       </c>
       <c r="Z4" s="4" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
     </row>
     <row r="5" spans="1:26" ht="30" x14ac:dyDescent="0.25">
       <c r="A5" s="2" t="s">
-        <v>98</v>
+        <v>471</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="C5" s="2">
         <v>28</v>
       </c>
       <c r="D5" s="9" t="s">
-        <v>99</v>
+        <v>90</v>
       </c>
       <c r="E5" s="5">
         <v>1</v>
       </c>
       <c r="F5" s="2" t="s">
-        <v>91</v>
+        <v>83</v>
       </c>
       <c r="G5" s="2" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
       <c r="H5" s="2">
         <v>25</v>
       </c>
       <c r="I5" s="8" t="s">
-        <v>100</v>
+        <v>91</v>
       </c>
       <c r="J5" s="2">
         <v>200</v>
       </c>
       <c r="K5" s="2" t="s">
-        <v>107</v>
+        <v>98</v>
       </c>
       <c r="L5" s="2" t="s">
-        <v>93</v>
+        <v>85</v>
       </c>
       <c r="M5" s="2" t="s">
-        <v>77</v>
+        <v>72</v>
       </c>
       <c r="N5" s="2" t="s">
-        <v>145</v>
+        <v>136</v>
       </c>
       <c r="O5" s="2" t="s">
-        <v>146</v>
+        <v>137</v>
       </c>
       <c r="P5" s="2" t="s">
-        <v>349</v>
+        <v>340</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>107</v>
+        <v>98</v>
       </c>
       <c r="R5" s="2">
         <v>28</v>
       </c>
       <c r="S5" s="2" t="s">
-        <v>143</v>
+        <v>134</v>
       </c>
       <c r="T5" s="2" t="s">
-        <v>144</v>
+        <v>135</v>
       </c>
       <c r="U5" s="2" t="s">
-        <v>350</v>
+        <v>341</v>
       </c>
       <c r="V5" s="7" t="s">
-        <v>107</v>
+        <v>98</v>
       </c>
       <c r="W5" s="2">
         <v>28</v>
@@ -11746,15 +11756,15 @@
         <v>1.6500000000000001E-2</v>
       </c>
       <c r="Z5" s="4" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
     </row>
     <row r="6" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A6" s="2" t="s">
-        <v>389</v>
+        <v>380</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="C6" s="2">
         <v>14</v>
@@ -11781,40 +11791,40 @@
         <v>250</v>
       </c>
       <c r="K6" s="2" t="s">
-        <v>107</v>
+        <v>98</v>
       </c>
       <c r="L6" s="2" t="s">
         <v>25</v>
       </c>
       <c r="M6" s="2" t="s">
-        <v>77</v>
+        <v>72</v>
       </c>
       <c r="N6" s="2" t="s">
-        <v>147</v>
+        <v>138</v>
       </c>
       <c r="O6" s="2" t="s">
-        <v>148</v>
+        <v>139</v>
       </c>
       <c r="P6" s="2" t="s">
-        <v>149</v>
+        <v>140</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>107</v>
+        <v>98</v>
       </c>
       <c r="R6" s="2">
         <v>14</v>
       </c>
       <c r="S6" s="2" t="s">
-        <v>150</v>
+        <v>141</v>
       </c>
       <c r="T6" s="2" t="s">
-        <v>151</v>
+        <v>142</v>
       </c>
       <c r="U6" s="2" t="s">
-        <v>152</v>
+        <v>143</v>
       </c>
       <c r="V6" s="7" t="s">
-        <v>107</v>
+        <v>98</v>
       </c>
       <c r="W6" s="2">
         <v>14</v>
@@ -11826,15 +11836,15 @@
         <v>2.0249999999999997E-2</v>
       </c>
       <c r="Z6" s="17" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
     </row>
     <row r="7" spans="1:26" ht="45" x14ac:dyDescent="0.25">
       <c r="A7" s="2" t="s">
-        <v>390</v>
+        <v>467</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="C7" s="2">
         <v>42</v>
@@ -11855,7 +11865,7 @@
         <v>500</v>
       </c>
       <c r="I7" s="9" t="s">
-        <v>384</v>
+        <v>375</v>
       </c>
       <c r="J7" s="2">
         <v>500</v>
@@ -11870,31 +11880,31 @@
         <v>37</v>
       </c>
       <c r="N7" s="2" t="s">
-        <v>153</v>
+        <v>144</v>
       </c>
       <c r="O7" s="2" t="s">
-        <v>154</v>
+        <v>145</v>
       </c>
       <c r="P7" s="2" t="s">
-        <v>392</v>
+        <v>381</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>107</v>
+        <v>98</v>
       </c>
       <c r="R7" s="2">
         <v>42</v>
       </c>
       <c r="S7" s="2" t="s">
-        <v>153</v>
+        <v>144</v>
       </c>
       <c r="T7" s="2" t="s">
-        <v>155</v>
+        <v>146</v>
       </c>
       <c r="U7" s="2" t="s">
-        <v>156</v>
+        <v>147</v>
       </c>
       <c r="V7" s="7" t="s">
-        <v>107</v>
+        <v>98</v>
       </c>
       <c r="W7" s="2">
         <v>42</v>
@@ -11906,15 +11916,15 @@
         <v>2.2499999999999999E-2</v>
       </c>
       <c r="Z7" s="4" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
     </row>
     <row r="8" spans="1:26" ht="45" x14ac:dyDescent="0.25">
       <c r="A8" s="2" t="s">
-        <v>391</v>
+        <v>466</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="C8" s="2">
         <v>42</v>
@@ -11935,7 +11945,7 @@
         <v>25</v>
       </c>
       <c r="I8" s="9" t="s">
-        <v>384</v>
+        <v>375</v>
       </c>
       <c r="J8" s="2">
         <v>500</v>
@@ -11950,31 +11960,31 @@
         <v>37</v>
       </c>
       <c r="N8" s="2" t="s">
-        <v>153</v>
+        <v>144</v>
       </c>
       <c r="O8" s="2" t="s">
-        <v>393</v>
+        <v>382</v>
       </c>
       <c r="P8" s="2" t="s">
-        <v>394</v>
+        <v>383</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>107</v>
+        <v>98</v>
       </c>
       <c r="R8" s="2">
         <v>42</v>
       </c>
       <c r="S8" s="2" t="s">
-        <v>153</v>
+        <v>144</v>
       </c>
       <c r="T8" s="2" t="s">
-        <v>155</v>
+        <v>146</v>
       </c>
       <c r="U8" s="2" t="s">
-        <v>156</v>
+        <v>147</v>
       </c>
       <c r="V8" s="7" t="s">
-        <v>107</v>
+        <v>98</v>
       </c>
       <c r="W8" s="2">
         <v>42</v>
@@ -11986,78 +11996,78 @@
         <v>2.2499999999999999E-2</v>
       </c>
       <c r="Z8" s="4" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
     </row>
     <row r="9" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A9" s="7" t="s">
+        <v>360</v>
+      </c>
+      <c r="B9" s="7" t="s">
         <v>44</v>
-      </c>
-      <c r="B9" s="7" t="s">
-        <v>45</v>
       </c>
       <c r="C9" s="2">
         <v>48</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="E9" s="14">
         <v>0.45800000000000002</v>
       </c>
       <c r="F9" s="2" t="s">
-        <v>318</v>
+        <v>309</v>
       </c>
       <c r="G9" s="2" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="H9" s="2">
         <v>30</v>
       </c>
       <c r="I9" s="6" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="J9" s="2">
         <v>200</v>
       </c>
       <c r="K9" s="2" t="s">
-        <v>107</v>
+        <v>98</v>
       </c>
       <c r="L9" s="2" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="M9" s="7" t="s">
-        <v>107</v>
+        <v>98</v>
       </c>
       <c r="N9" s="2" t="s">
-        <v>133</v>
+        <v>124</v>
       </c>
       <c r="O9" s="2" t="s">
-        <v>134</v>
+        <v>125</v>
       </c>
       <c r="P9" s="2" t="s">
-        <v>134</v>
+        <v>125</v>
       </c>
       <c r="Q9" s="7" t="s">
-        <v>107</v>
+        <v>98</v>
       </c>
       <c r="R9" s="2">
         <v>48</v>
       </c>
       <c r="S9" s="7" t="s">
-        <v>107</v>
+        <v>98</v>
       </c>
       <c r="T9" s="7" t="s">
-        <v>107</v>
+        <v>98</v>
       </c>
       <c r="U9" s="7" t="s">
-        <v>107</v>
+        <v>98</v>
       </c>
       <c r="V9" s="7" t="s">
-        <v>107</v>
+        <v>98</v>
       </c>
       <c r="W9" s="7" t="s">
-        <v>107</v>
+        <v>98</v>
       </c>
       <c r="X9" s="4">
         <v>2.3237900077244502E-4</v>
@@ -12066,78 +12076,78 @@
         <v>1.6200000000000003E-2</v>
       </c>
       <c r="Z9" s="4" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
     </row>
     <row r="10" spans="1:26" s="4" customFormat="1" ht="26.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A10" s="7" t="s">
-        <v>53</v>
+        <v>472</v>
       </c>
       <c r="B10" s="7" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="C10" s="2">
         <v>26</v>
       </c>
       <c r="D10" s="2" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="E10" s="14">
         <v>0.34599999999999997</v>
       </c>
       <c r="F10" s="2" t="s">
-        <v>319</v>
+        <v>310</v>
       </c>
       <c r="G10" s="2" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="H10" s="2">
         <v>30</v>
       </c>
       <c r="I10" s="6" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="J10" s="2">
         <v>200</v>
       </c>
       <c r="K10" s="2" t="s">
-        <v>107</v>
+        <v>98</v>
       </c>
       <c r="L10" s="2" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="M10" s="7" t="s">
-        <v>107</v>
+        <v>98</v>
       </c>
       <c r="N10" s="2" t="s">
-        <v>321</v>
+        <v>312</v>
       </c>
       <c r="O10" s="2" t="s">
-        <v>322</v>
+        <v>313</v>
       </c>
       <c r="P10" s="2" t="s">
-        <v>323</v>
+        <v>314</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>107</v>
+        <v>98</v>
       </c>
       <c r="R10" s="2">
         <v>26</v>
       </c>
       <c r="S10" s="7" t="s">
-        <v>107</v>
+        <v>98</v>
       </c>
       <c r="T10" s="7" t="s">
-        <v>107</v>
+        <v>98</v>
       </c>
       <c r="U10" s="7" t="s">
-        <v>107</v>
+        <v>98</v>
       </c>
       <c r="V10" s="7" t="s">
-        <v>107</v>
+        <v>98</v>
       </c>
       <c r="W10" s="7" t="s">
-        <v>107</v>
+        <v>98</v>
       </c>
       <c r="X10" s="4">
         <v>2.3237900077244499E-4</v>
@@ -12146,21 +12156,21 @@
         <v>1.6200000000000003E-2</v>
       </c>
       <c r="Z10" s="4" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
     </row>
     <row r="11" spans="1:26" s="4" customFormat="1" ht="17.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A11" s="40" t="s">
-        <v>71</v>
+        <v>469</v>
       </c>
       <c r="B11" s="7" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="C11" s="2">
         <v>30</v>
       </c>
       <c r="D11" s="2" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="E11" s="5">
         <v>0.5</v>
@@ -12169,13 +12179,13 @@
         <v>44</v>
       </c>
       <c r="G11" s="2" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
       <c r="H11" s="2">
         <v>25</v>
       </c>
       <c r="I11" s="8" t="s">
-        <v>325</v>
+        <v>316</v>
       </c>
       <c r="J11" s="2">
         <v>250</v>
@@ -12184,40 +12194,40 @@
         <v>35</v>
       </c>
       <c r="L11" s="2" t="s">
-        <v>72</v>
+        <v>67</v>
       </c>
       <c r="M11" s="7" t="s">
-        <v>107</v>
+        <v>98</v>
       </c>
       <c r="N11" s="2" t="s">
-        <v>139</v>
+        <v>130</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>107</v>
+        <v>98</v>
       </c>
       <c r="P11" s="2" t="s">
-        <v>140</v>
+        <v>131</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>107</v>
+        <v>98</v>
       </c>
       <c r="R11" s="2">
         <v>30</v>
       </c>
       <c r="S11" s="7" t="s">
-        <v>107</v>
+        <v>98</v>
       </c>
       <c r="T11" s="7" t="s">
-        <v>107</v>
+        <v>98</v>
       </c>
       <c r="U11" s="7" t="s">
-        <v>107</v>
+        <v>98</v>
       </c>
       <c r="V11" s="7" t="s">
-        <v>107</v>
+        <v>98</v>
       </c>
       <c r="W11" s="7" t="s">
-        <v>107</v>
+        <v>98</v>
       </c>
       <c r="X11" s="4">
         <v>5.5901699437494697E-5</v>
@@ -12226,7 +12236,7 @@
         <v>1.125E-2</v>
       </c>
       <c r="Z11" s="4" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
     </row>
   </sheetData>
@@ -12240,7 +12250,7 @@
   <dimension ref="A1:Z6"/>
   <sheetViews>
     <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="A8" sqref="A8"/>
+      <selection activeCell="D11" sqref="D11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -12317,13 +12327,13 @@
         <v>12</v>
       </c>
       <c r="O1" s="12" t="s">
-        <v>459</v>
+        <v>448</v>
       </c>
       <c r="P1" s="12" t="s">
         <v>13</v>
       </c>
       <c r="Q1" s="12" t="s">
-        <v>460</v>
+        <v>449</v>
       </c>
       <c r="R1" s="12" t="s">
         <v>14</v>
@@ -12332,13 +12342,13 @@
         <v>15</v>
       </c>
       <c r="T1" s="12" t="s">
-        <v>458</v>
+        <v>447</v>
       </c>
       <c r="U1" s="12" t="s">
         <v>16</v>
       </c>
       <c r="V1" s="27" t="s">
-        <v>461</v>
+        <v>450</v>
       </c>
       <c r="W1" s="12" t="s">
         <v>17</v>
@@ -12355,10 +12365,10 @@
     </row>
     <row r="2" spans="1:26" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
-        <v>389</v>
+        <v>380</v>
       </c>
       <c r="B2" s="9" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="C2" s="9">
         <v>14</v>
@@ -12385,13 +12395,13 @@
         <v>250</v>
       </c>
       <c r="K2" s="9" t="s">
-        <v>107</v>
+        <v>98</v>
       </c>
       <c r="L2" s="9" t="s">
         <v>25</v>
       </c>
       <c r="M2" s="9" t="s">
-        <v>77</v>
+        <v>72</v>
       </c>
       <c r="N2" s="9" t="s">
         <v>27</v>
@@ -12403,7 +12413,7 @@
         <v>29</v>
       </c>
       <c r="Q2" s="31" t="s">
-        <v>107</v>
+        <v>98</v>
       </c>
       <c r="R2" s="9">
         <v>14</v>
@@ -12418,7 +12428,7 @@
         <v>32</v>
       </c>
       <c r="V2" s="31" t="s">
-        <v>107</v>
+        <v>98</v>
       </c>
       <c r="W2" s="9">
         <v>14</v>
@@ -12430,15 +12440,15 @@
         <v>2.0249999999999997E-2</v>
       </c>
       <c r="Z2" s="17" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
     </row>
     <row r="3" spans="1:26" ht="45" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
-        <v>390</v>
+        <v>467</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="C3" s="2">
         <v>42</v>
@@ -12459,7 +12469,7 @@
         <v>500</v>
       </c>
       <c r="I3" s="9" t="s">
-        <v>407</v>
+        <v>396</v>
       </c>
       <c r="J3" s="2">
         <v>500</v>
@@ -12474,31 +12484,31 @@
         <v>37</v>
       </c>
       <c r="N3" s="2" t="s">
-        <v>248</v>
+        <v>239</v>
       </c>
       <c r="O3" s="2" t="s">
-        <v>249</v>
+        <v>240</v>
       </c>
       <c r="P3" s="2" t="s">
-        <v>408</v>
+        <v>397</v>
       </c>
       <c r="Q3" s="7" t="s">
-        <v>107</v>
+        <v>98</v>
       </c>
       <c r="R3" s="2">
         <v>42</v>
       </c>
       <c r="S3" s="2" t="s">
-        <v>248</v>
+        <v>239</v>
       </c>
       <c r="T3" s="2" t="s">
-        <v>250</v>
+        <v>241</v>
       </c>
       <c r="U3" s="2" t="s">
-        <v>251</v>
+        <v>242</v>
       </c>
       <c r="V3" s="7" t="s">
-        <v>107</v>
+        <v>98</v>
       </c>
       <c r="W3" s="2">
         <v>42</v>
@@ -12510,15 +12520,15 @@
         <v>2.2499999999999999E-2</v>
       </c>
       <c r="Z3" s="4" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
     </row>
     <row r="4" spans="1:26" ht="45" x14ac:dyDescent="0.25">
       <c r="A4" s="2" t="s">
-        <v>391</v>
+        <v>466</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="C4" s="2">
         <v>42</v>
@@ -12539,7 +12549,7 @@
         <v>25</v>
       </c>
       <c r="I4" s="9" t="s">
-        <v>407</v>
+        <v>396</v>
       </c>
       <c r="J4" s="2">
         <v>500</v>
@@ -12554,31 +12564,31 @@
         <v>37</v>
       </c>
       <c r="N4" s="2" t="s">
-        <v>248</v>
+        <v>239</v>
       </c>
       <c r="O4" s="2" t="s">
-        <v>409</v>
+        <v>398</v>
       </c>
       <c r="P4" s="2" t="s">
-        <v>410</v>
+        <v>399</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>107</v>
+        <v>98</v>
       </c>
       <c r="R4" s="2">
         <v>42</v>
       </c>
       <c r="S4" s="2" t="s">
-        <v>248</v>
+        <v>239</v>
       </c>
       <c r="T4" s="2" t="s">
-        <v>250</v>
+        <v>241</v>
       </c>
       <c r="U4" s="2" t="s">
-        <v>251</v>
+        <v>242</v>
       </c>
       <c r="V4" s="7" t="s">
-        <v>107</v>
+        <v>98</v>
       </c>
       <c r="W4" s="2">
         <v>42</v>
@@ -12590,78 +12600,78 @@
         <v>2.2499999999999999E-2</v>
       </c>
       <c r="Z4" s="4" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
     </row>
     <row r="5" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A5" s="2" t="s">
+        <v>360</v>
+      </c>
+      <c r="B5" s="2" t="s">
         <v>44</v>
-      </c>
-      <c r="B5" s="2" t="s">
-        <v>45</v>
       </c>
       <c r="C5" s="2">
         <v>48</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="E5" s="14">
         <v>0.45800000000000002</v>
       </c>
       <c r="F5" s="2" t="s">
-        <v>318</v>
+        <v>309</v>
       </c>
       <c r="G5" s="2" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="H5" s="2">
         <v>30</v>
       </c>
       <c r="I5" s="6" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="J5" s="2">
         <v>200</v>
       </c>
       <c r="K5" s="2" t="s">
-        <v>107</v>
+        <v>98</v>
       </c>
       <c r="L5" s="2" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="M5" s="7" t="s">
-        <v>107</v>
+        <v>98</v>
       </c>
       <c r="N5" s="2" t="s">
-        <v>411</v>
+        <v>400</v>
       </c>
       <c r="O5" s="2" t="s">
-        <v>412</v>
+        <v>401</v>
       </c>
       <c r="P5" s="2" t="s">
-        <v>412</v>
+        <v>401</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>107</v>
+        <v>98</v>
       </c>
       <c r="R5" s="2">
         <v>48</v>
       </c>
       <c r="S5" s="7" t="s">
-        <v>107</v>
+        <v>98</v>
       </c>
       <c r="T5" s="7" t="s">
-        <v>107</v>
+        <v>98</v>
       </c>
       <c r="U5" s="7" t="s">
-        <v>107</v>
+        <v>98</v>
       </c>
       <c r="V5" s="7" t="s">
-        <v>107</v>
+        <v>98</v>
       </c>
       <c r="W5" s="7" t="s">
-        <v>107</v>
+        <v>98</v>
       </c>
       <c r="X5" s="17">
         <v>2.3237900077244502E-4</v>
@@ -12670,7 +12680,7 @@
         <v>1.6200000000000003E-2</v>
       </c>
       <c r="Z5" s="17" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
     </row>
     <row r="6" spans="1:26" x14ac:dyDescent="0.25">
@@ -12705,8 +12715,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{718676A1-F033-4171-B0C1-6902E36836B2}">
   <dimension ref="A1:Z6"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B5" sqref="B5"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A6" sqref="A6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -12781,13 +12791,13 @@
         <v>12</v>
       </c>
       <c r="O1" s="10" t="s">
-        <v>459</v>
+        <v>448</v>
       </c>
       <c r="P1" s="10" t="s">
         <v>13</v>
       </c>
       <c r="Q1" s="12" t="s">
-        <v>460</v>
+        <v>449</v>
       </c>
       <c r="R1" s="10" t="s">
         <v>14</v>
@@ -12796,13 +12806,13 @@
         <v>15</v>
       </c>
       <c r="T1" s="10" t="s">
-        <v>458</v>
+        <v>447</v>
       </c>
       <c r="U1" s="10" t="s">
         <v>16</v>
       </c>
       <c r="V1" s="27" t="s">
-        <v>461</v>
+        <v>450</v>
       </c>
       <c r="W1" s="10" t="s">
         <v>17</v>
@@ -12819,70 +12829,70 @@
     </row>
     <row r="2" spans="1:26" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A2" s="18" t="s">
-        <v>206</v>
+        <v>197</v>
       </c>
       <c r="B2" s="19" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="C2" s="19">
         <v>13</v>
       </c>
       <c r="D2" s="19" t="s">
-        <v>207</v>
+        <v>198</v>
       </c>
       <c r="E2" s="20">
         <v>1</v>
       </c>
       <c r="F2" s="19" t="s">
-        <v>360</v>
+        <v>351</v>
       </c>
       <c r="G2" s="19" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="H2" s="19">
         <v>30</v>
       </c>
       <c r="I2" s="19" t="s">
-        <v>208</v>
+        <v>199</v>
       </c>
       <c r="J2" s="19">
         <v>200</v>
       </c>
       <c r="K2" s="19" t="s">
-        <v>107</v>
+        <v>98</v>
       </c>
       <c r="L2" s="19" t="s">
-        <v>160</v>
+        <v>151</v>
       </c>
       <c r="M2" s="19" t="s">
-        <v>77</v>
+        <v>72</v>
       </c>
       <c r="N2" s="19" t="s">
-        <v>370</v>
+        <v>361</v>
       </c>
       <c r="O2" s="22" t="s">
-        <v>107</v>
+        <v>98</v>
       </c>
       <c r="P2" s="19" t="s">
-        <v>361</v>
+        <v>352</v>
       </c>
       <c r="Q2" s="22" t="s">
-        <v>107</v>
+        <v>98</v>
       </c>
       <c r="R2" s="19">
         <v>4</v>
       </c>
       <c r="S2" s="19" t="s">
-        <v>362</v>
+        <v>353</v>
       </c>
       <c r="T2" s="22" t="s">
-        <v>107</v>
+        <v>98</v>
       </c>
       <c r="U2" s="19" t="s">
-        <v>363</v>
+        <v>354</v>
       </c>
       <c r="V2" s="22" t="s">
-        <v>107</v>
+        <v>98</v>
       </c>
       <c r="W2" s="19">
         <v>4</v>
@@ -12894,75 +12904,75 @@
         <v>0.24299999999999999</v>
       </c>
       <c r="Z2" s="17" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
     </row>
     <row r="3" spans="1:26" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A3" s="18" t="s">
-        <v>209</v>
+        <v>200</v>
       </c>
       <c r="B3" s="19" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="C3" s="19">
         <v>13</v>
       </c>
       <c r="D3" s="19" t="s">
-        <v>207</v>
+        <v>198</v>
       </c>
       <c r="E3" s="20">
         <v>1</v>
       </c>
       <c r="F3" s="19" t="s">
-        <v>360</v>
+        <v>351</v>
       </c>
       <c r="G3" s="19" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="H3" s="19">
         <v>30</v>
       </c>
       <c r="I3" s="19" t="s">
-        <v>208</v>
+        <v>199</v>
       </c>
       <c r="J3" s="19">
         <v>200</v>
       </c>
       <c r="K3" s="19" t="s">
-        <v>107</v>
+        <v>98</v>
       </c>
       <c r="L3" s="19" t="s">
-        <v>160</v>
+        <v>151</v>
       </c>
       <c r="M3" s="19" t="s">
-        <v>77</v>
+        <v>72</v>
       </c>
       <c r="N3" s="19" t="s">
-        <v>370</v>
+        <v>361</v>
       </c>
       <c r="O3" s="22" t="s">
-        <v>107</v>
+        <v>98</v>
       </c>
       <c r="P3" s="19" t="s">
-        <v>361</v>
+        <v>352</v>
       </c>
       <c r="Q3" s="22" t="s">
-        <v>107</v>
+        <v>98</v>
       </c>
       <c r="R3" s="19">
         <v>4</v>
       </c>
       <c r="S3" s="19" t="s">
-        <v>364</v>
+        <v>355</v>
       </c>
       <c r="T3" s="22" t="s">
-        <v>107</v>
+        <v>98</v>
       </c>
       <c r="U3" s="19" t="s">
-        <v>365</v>
+        <v>356</v>
       </c>
       <c r="V3" s="22" t="s">
-        <v>107</v>
+        <v>98</v>
       </c>
       <c r="W3" s="19">
         <v>4</v>
@@ -12974,75 +12984,75 @@
         <v>0.24299999999999999</v>
       </c>
       <c r="Z3" s="17" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
     </row>
     <row r="4" spans="1:26" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A4" s="2" t="s">
-        <v>366</v>
+        <v>357</v>
       </c>
       <c r="B4" s="19" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="C4" s="19">
         <v>14</v>
       </c>
       <c r="D4" s="19" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="E4" s="20">
         <v>0.64</v>
       </c>
       <c r="F4" s="19" t="s">
-        <v>371</v>
+        <v>362</v>
       </c>
       <c r="G4" s="19" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="H4" s="19">
         <v>30</v>
       </c>
       <c r="I4" s="21" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="J4" s="19">
         <v>200</v>
       </c>
       <c r="K4" s="19" t="s">
-        <v>107</v>
+        <v>98</v>
       </c>
       <c r="L4" s="19" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="M4" s="19" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="N4" s="22" t="s">
-        <v>107</v>
+        <v>98</v>
       </c>
       <c r="O4" s="22" t="s">
-        <v>107</v>
+        <v>98</v>
       </c>
       <c r="P4" s="22" t="s">
-        <v>107</v>
+        <v>98</v>
       </c>
       <c r="Q4" s="20" t="s">
-        <v>367</v>
+        <v>358</v>
       </c>
       <c r="R4" s="19">
         <v>14</v>
       </c>
       <c r="S4" s="22" t="s">
-        <v>107</v>
+        <v>98</v>
       </c>
       <c r="T4" s="22" t="s">
-        <v>107</v>
+        <v>98</v>
       </c>
       <c r="U4" s="22" t="s">
-        <v>107</v>
+        <v>98</v>
       </c>
       <c r="V4" s="19" t="s">
-        <v>368</v>
+        <v>359</v>
       </c>
       <c r="W4" s="19">
         <v>14</v>
@@ -13054,27 +13064,27 @@
         <v>1.6200000000000003E-2</v>
       </c>
       <c r="Z4" s="17" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
     </row>
     <row r="5" spans="1:26" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A5" s="18" t="s">
-        <v>167</v>
+        <v>158</v>
       </c>
       <c r="B5" s="19" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="C5" s="23">
         <v>10</v>
       </c>
       <c r="D5" s="23" t="s">
-        <v>168</v>
+        <v>159</v>
       </c>
       <c r="E5" s="24">
         <v>0.8</v>
       </c>
       <c r="F5" s="23" t="s">
-        <v>169</v>
+        <v>160</v>
       </c>
       <c r="G5" s="19" t="s">
         <v>34</v>
@@ -13083,46 +13093,46 @@
         <v>25</v>
       </c>
       <c r="I5" s="21" t="s">
-        <v>170</v>
+        <v>161</v>
       </c>
       <c r="J5" s="19">
         <v>250</v>
       </c>
       <c r="K5" s="19" t="s">
-        <v>171</v>
+        <v>162</v>
       </c>
       <c r="L5" s="19" t="s">
-        <v>172</v>
+        <v>163</v>
       </c>
       <c r="M5" s="19" t="s">
-        <v>77</v>
+        <v>72</v>
       </c>
       <c r="N5" s="23" t="s">
-        <v>375</v>
+        <v>366</v>
       </c>
       <c r="O5" s="22" t="s">
-        <v>107</v>
+        <v>98</v>
       </c>
       <c r="P5" s="23" t="s">
-        <v>376</v>
+        <v>367</v>
       </c>
       <c r="Q5" s="22" t="s">
-        <v>107</v>
+        <v>98</v>
       </c>
       <c r="R5" s="23">
         <v>10</v>
       </c>
       <c r="S5" s="23" t="s">
-        <v>377</v>
+        <v>368</v>
       </c>
       <c r="T5" s="41" t="s">
-        <v>107</v>
+        <v>98</v>
       </c>
       <c r="U5" s="23" t="s">
-        <v>378</v>
+        <v>369</v>
       </c>
       <c r="V5" s="22" t="s">
-        <v>107</v>
+        <v>98</v>
       </c>
       <c r="W5" s="23">
         <v>10</v>
@@ -13134,78 +13144,78 @@
         <v>5.2500000000000003E-3</v>
       </c>
       <c r="Z5" s="17" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
     </row>
     <row r="6" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A6" s="2" t="s">
-        <v>369</v>
+        <v>360</v>
       </c>
       <c r="B6" s="19" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="C6" s="19">
         <v>51</v>
       </c>
       <c r="D6" s="19" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="E6" s="20">
         <v>0.46</v>
       </c>
       <c r="F6" s="19" t="s">
-        <v>372</v>
+        <v>363</v>
       </c>
       <c r="G6" s="19" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="H6" s="19">
         <v>30</v>
       </c>
       <c r="I6" s="21" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="J6" s="19">
         <v>200</v>
       </c>
       <c r="K6" s="19" t="s">
-        <v>107</v>
+        <v>98</v>
       </c>
       <c r="L6" s="19" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="M6" s="22" t="s">
-        <v>107</v>
+        <v>98</v>
       </c>
       <c r="N6" s="19" t="s">
-        <v>373</v>
+        <v>364</v>
       </c>
       <c r="O6" s="22" t="s">
-        <v>107</v>
+        <v>98</v>
       </c>
       <c r="P6" s="19" t="s">
-        <v>374</v>
+        <v>365</v>
       </c>
       <c r="Q6" s="22" t="s">
-        <v>107</v>
+        <v>98</v>
       </c>
       <c r="R6" s="19">
         <v>48</v>
       </c>
       <c r="S6" s="22" t="s">
-        <v>107</v>
+        <v>98</v>
       </c>
       <c r="T6" s="22" t="s">
-        <v>107</v>
+        <v>98</v>
       </c>
       <c r="U6" s="22" t="s">
-        <v>107</v>
+        <v>98</v>
       </c>
       <c r="V6" s="22" t="s">
-        <v>107</v>
+        <v>98</v>
       </c>
       <c r="W6" s="22" t="s">
-        <v>107</v>
+        <v>98</v>
       </c>
       <c r="X6" s="17">
         <v>2.3237900077244502E-4</v>
@@ -13214,7 +13224,7 @@
         <v>1.6200000000000003E-2</v>
       </c>
       <c r="Z6" s="17" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
     </row>
   </sheetData>

--- a/all/Data/HRV_Params.xlsx
+++ b/all/Data/HRV_Params.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25726"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25831"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://utacir-my.sharepoint.com/personal/sepehr_sima_ut_ac_ir/Documents/Desktop/Projects/VNS HRV/tVNSHRV-metaAnalysis/all/Data/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Client\OneDrive - ut.ac.ir\Desktop\Projects\VNS HRV\tVNSHRV-metaAnalysis\all\Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="1" documentId="13_ncr:1_{8FD07FB7-B8A9-4611-9BD0-F9D60D97F4D6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{3505F964-7856-4E44-BA94-160D3493F360}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{02883962-742F-4A6C-85AD-FED1CA94F4EF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="LF" sheetId="5" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2020" uniqueCount="483">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2020" uniqueCount="491">
   <si>
     <t>design</t>
   </si>
@@ -1915,22 +1915,264 @@
     <t>22.6 ± 3.60</t>
   </si>
   <si>
-    <r>
-      <t xml:space="preserve">2 </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t>± 1.43</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">1.53 </t>
+    <t>200-300</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">50.49 </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>±25.08</t>
+    </r>
+  </si>
+  <si>
+    <t>55.63 ± 23.20</t>
+  </si>
+  <si>
+    <t>56.35 ± 26.88</t>
+  </si>
+  <si>
+    <t>52.61 ± 24.28</t>
+  </si>
+  <si>
+    <t>1208.18 ± 1015.39</t>
+  </si>
+  <si>
+    <t>1431.78 ± 1383.19</t>
+  </si>
+  <si>
+    <t>1167.18 ± 1077.03</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">65.28 </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>± 5.88</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">64.12 </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>± 10.53</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">1.96 </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>± 2.21</t>
+    </r>
+  </si>
+  <si>
+    <t>36 ± 15.29</t>
+  </si>
+  <si>
+    <t>47 ± 25.49</t>
+  </si>
+  <si>
+    <t>44 ± 20.39</t>
+  </si>
+  <si>
+    <t>35.16 ± 13.28</t>
+  </si>
+  <si>
+    <t>starting from an intensity of 0.1mA and increasing 0.1mA at a time until the level of sensory threshold (mean intesity of 1 mA</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1 session continuously for 14 min &amp; outcomes recorded before and over 120 min after taVNS and sham stimulation </t>
+  </si>
+  <si>
+    <t>1000 ± 748.50</t>
+  </si>
+  <si>
+    <t>778.22 ± 665.33</t>
+  </si>
+  <si>
+    <t>1831.67 ± 2328.67</t>
+  </si>
+  <si>
+    <t>1152.4 ± 1039.58</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">1013.86 </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>± 1455.42</t>
+    </r>
+  </si>
+  <si>
+    <t>1512.86 ± 2037.59</t>
+  </si>
+  <si>
+    <t>415.40 ± 513.64</t>
+  </si>
+  <si>
+    <t>374.13± 441.73</t>
+  </si>
+  <si>
+    <t>432.52 ± 565.00</t>
+  </si>
+  <si>
+    <t>394.86 ± 195.18</t>
+  </si>
+  <si>
+    <t>422.25 ± 297.91</t>
+  </si>
+  <si>
+    <t>600.31 ± 862.91</t>
+  </si>
+  <si>
+    <t>3.76 ± 3.58</t>
+  </si>
+  <si>
+    <t>4.82 ± 5.65</t>
+  </si>
+  <si>
+    <t>2.90 ± 2.36</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">2.18 </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>± 1.84</t>
+    </r>
+  </si>
+  <si>
+    <t>3.42 ± 3.17</t>
+  </si>
+  <si>
+    <t>49.0 ± 27.6</t>
+  </si>
+  <si>
+    <t>47.8 ± 24.5</t>
+  </si>
+  <si>
+    <t>48.5 ± 25.6</t>
+  </si>
+  <si>
+    <t>71.0 ± 25.3</t>
+  </si>
+  <si>
+    <t>72.0 ± 28.4</t>
+  </si>
+  <si>
+    <t>73.7 ± 28.3</t>
+  </si>
+  <si>
+    <t>2818 ± 2979</t>
+  </si>
+  <si>
+    <t>2655 ± 2732</t>
+  </si>
+  <si>
+    <t>2340 ± 2299</t>
+  </si>
+  <si>
+    <t>1891 ± 2421</t>
+  </si>
+  <si>
+    <t>1616 ± 1809</t>
+  </si>
+  <si>
+    <t>1488 ± 1517</t>
+  </si>
+  <si>
+    <t>2.0 ± 1.3</t>
+  </si>
+  <si>
+    <t>1.9 ± 1.0</t>
+  </si>
+  <si>
+    <t>15 min continously / 1 session</t>
+  </si>
+  <si>
+    <t>23 ± 1</t>
+  </si>
+  <si>
+    <t>Bretherton et al. (2019) #1</t>
+  </si>
+  <si>
+    <t>3.28 ± 0.59</t>
+  </si>
+  <si>
+    <t>0.81 ± 0.68</t>
+  </si>
+  <si>
+    <t>Bretherton et al. (2019) #2</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">69.14 </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>± 1.82</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">65.28 </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>± 0.85</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">7.22 </t>
     </r>
     <r>
       <rPr>
@@ -1943,17 +2185,17 @@
     </r>
     <r>
       <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> 1.43</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">2.4 </t>
+        <sz val="9.9"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> 4.15</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">8.83 </t>
     </r>
     <r>
       <rPr>
@@ -1966,12 +2208,1202 @@
     </r>
     <r>
       <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> 2.39</t>
+        <sz val="9.9"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> 4.64</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">16.7 </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>±</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> 2.1</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">15.9 </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>±</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> 6.5</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">starting from an intensity of 0.1mA and increasing until the level of sensory threshold (mean intesity in active= 2.5 </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>± 0.93/ sham= 2.76 ± 1.01</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>)</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">60.75 </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">± </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>24.33</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">61.01 </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">± </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>25.65</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">starting from an intensity of 0.1mA and increasing until the level of sensory threshold (mean intesity in active= 0.94 </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>± 0.57/ sham= 2.19 ± 0.71</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>)</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">starting from an intensity of 0.1mA and increasing until the level of sensory threshold (mean intesity in active= 2.18 </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>± 0.69/ sham= 2.19 ± 0.71</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>)</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>The stimulation intensity was approximately 150% of the current value at the perception threshold.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> To measure the perception threshold, the current intensity was gradually increased from 0, in steps of 0.1 mA and participants reported when they felt the electrical stimulation for the first time (sensory threshold)</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">66.08 </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>± 30.95</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">62.73 </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>± 32.50</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">62.10 </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>± 31.47</t>
+    </r>
+  </si>
+  <si>
+    <t>Dalgleish et al. (2021)</t>
+  </si>
+  <si>
+    <t>Geng et al. (2022)</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">74.15 </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>± 37.88</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">63.53 </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>± 28.91</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">69.84 </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>± 31.90</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">325 </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>± 275.34</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">529 </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>± 555.79</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">544 </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>± 591.48</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">661.1 </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>± 380.8</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">799.0 </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>± 287.2</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">742.4 </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>± 315.4</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">621.3 </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>± 330.2</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">557.2 </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>± 396.8</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">677.7 </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>± 310.9</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">1566.58 </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>± 1489.91</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">1332.91 </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>± 1978.41</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">1510.05 </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>± 1758.59</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>The stimulation intensity was approximately 150% of the current value at the perception threshold.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> To measure the perception threshold, the current intensity was gradually increased from 0, in steps of 0.1 mA and participants reported when they felt the electrical stimulation for the first time (sensory threshold)</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">40.89 </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>± 22.22</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">38.52 </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>± 19.66</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">38.78 </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>± 22.22</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">9 </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">± </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>13.8</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">10 </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">± </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>13.8</t>
+    </r>
+  </si>
+  <si>
+    <t>Tang et al. (2020) Ex.1</t>
+  </si>
+  <si>
+    <t>Tang et al. (2020) Ex.2</t>
+  </si>
+  <si>
+    <t>Tang et al. (2020) Ex.3</t>
+  </si>
+  <si>
+    <t>Tang et al. (2020) Ex.4</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">972.67 </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">± </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>1214.7</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">351 </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>± 471.11</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>388 ±</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> 588.89</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">488 </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>± 478.04</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">443 </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">± </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>545.59</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">676 </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">± </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>744.45</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">starting from an intensity of 0.1mA and increasing until the level of sensory threshold (mean intesity in active= 0.94 </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>± 0.57/ sham= 2.19 ± 0.71</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>)</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">starting from an intensity of 0.1mA and increasing until the level of sensory threshold (mean intesity in active= 2.18 </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>± 0.69/ sham= 2.19 ± 0.71</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>)</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">27 </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>± 4</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">21.2 </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>± 3.1</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">37 </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">± 3 </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">min continuously </t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">1.16 </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>± 0.48</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">1.19 </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>± 0.50</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">1472.44 </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>± 1173.67</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">1314.96 </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>± 1020.58</t>
+    </r>
+  </si>
+  <si>
+    <t>Zhu et al. (2022)</t>
+  </si>
+  <si>
+    <t>BL-concha</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">906.39 </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">± </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>779.83</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">821.49 </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">± </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>1035.69</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">615.52 </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">± </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>631.03</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">664.63 </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">± </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>601.84</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">284 </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">± </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>353.33</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">391 </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">± </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>519.61</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">460 </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">± </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>422.62</t>
+    </r>
+  </si>
+  <si>
+    <t>other</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">0.95 </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>± 0.63</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">0.94 </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>± 0.49</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">24 </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>± 3.0</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve"> at sensory level [mean in active=2.5 </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>± 0.9 /mean in sham=3.2 ± 1.5 ]</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">3.2 </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>± 0.4</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">2.7 </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>± 0.2</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">2.9 </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>± 0.4</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">3.1 </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">± 0.4 </t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">2.1 </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>± 1.1</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">1.8 </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>± 1.0</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">1.9 </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>± 0.8</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">2.0 </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>± 0.9</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">2.1 </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>± 1.0</t>
     </r>
   </si>
   <si>
@@ -1985,1689 +3417,6 @@
         <rFont val="Calibri"/>
         <family val="2"/>
       </rPr>
-      <t>± 1.9</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">2.65 </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t>± 2.39</t>
-    </r>
-  </si>
-  <si>
-    <t>2.87 ± 1.9</t>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">1.72 </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t>± 0.95</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">1.65 </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t>±</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> 0.95</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">2.1 </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t>± 1.43</t>
-    </r>
-  </si>
-  <si>
-    <t>200-300</t>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">50.49 </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t>±25.08</t>
-    </r>
-  </si>
-  <si>
-    <t>55.63 ± 23.20</t>
-  </si>
-  <si>
-    <t>56.35 ± 26.88</t>
-  </si>
-  <si>
-    <t>52.61 ± 24.28</t>
-  </si>
-  <si>
-    <t>1208.18 ± 1015.39</t>
-  </si>
-  <si>
-    <t>1431.78 ± 1383.19</t>
-  </si>
-  <si>
-    <t>1167.18 ± 1077.03</t>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">65.28 </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t>± 5.88</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">64.12 </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t>± 10.53</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">1.96 </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t>± 2.21</t>
-    </r>
-  </si>
-  <si>
-    <t>36 ± 15.29</t>
-  </si>
-  <si>
-    <t>47 ± 25.49</t>
-  </si>
-  <si>
-    <t>44 ± 20.39</t>
-  </si>
-  <si>
-    <t>35.16 ± 13.28</t>
-  </si>
-  <si>
-    <t>starting from an intensity of 0.1mA and increasing 0.1mA at a time until the level of sensory threshold (mean intesity of 1 mA</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1 session continuously for 14 min &amp; outcomes recorded before and over 120 min after taVNS and sham stimulation </t>
-  </si>
-  <si>
-    <t>1000 ± 748.50</t>
-  </si>
-  <si>
-    <t>778.22 ± 665.33</t>
-  </si>
-  <si>
-    <t>1831.67 ± 2328.67</t>
-  </si>
-  <si>
-    <t>1152.4 ± 1039.58</t>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">1013.86 </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t>± 1455.42</t>
-    </r>
-  </si>
-  <si>
-    <t>1512.86 ± 2037.59</t>
-  </si>
-  <si>
-    <t>415.40 ± 513.64</t>
-  </si>
-  <si>
-    <t>374.13± 441.73</t>
-  </si>
-  <si>
-    <t>432.52 ± 565.00</t>
-  </si>
-  <si>
-    <t>394.86 ± 195.18</t>
-  </si>
-  <si>
-    <t>422.25 ± 297.91</t>
-  </si>
-  <si>
-    <t>600.31 ± 862.91</t>
-  </si>
-  <si>
-    <t>3.76 ± 3.58</t>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">3.11 </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t>± 277</t>
-    </r>
-  </si>
-  <si>
-    <t>4.82 ± 5.65</t>
-  </si>
-  <si>
-    <t>2.90 ± 2.36</t>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">2.18 </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t>± 1.84</t>
-    </r>
-  </si>
-  <si>
-    <t>3.42 ± 3.17</t>
-  </si>
-  <si>
-    <t>49.0 ± 27.6</t>
-  </si>
-  <si>
-    <t>47.8 ± 24.5</t>
-  </si>
-  <si>
-    <t>48.5 ± 25.6</t>
-  </si>
-  <si>
-    <t>71.0 ± 25.3</t>
-  </si>
-  <si>
-    <t>72.0 ± 28.4</t>
-  </si>
-  <si>
-    <t>73.7 ± 28.3</t>
-  </si>
-  <si>
-    <t>2818 ± 2979</t>
-  </si>
-  <si>
-    <t>2655 ± 2732</t>
-  </si>
-  <si>
-    <t>2340 ± 2299</t>
-  </si>
-  <si>
-    <t>1891 ± 2421</t>
-  </si>
-  <si>
-    <t>1616 ± 1809</t>
-  </si>
-  <si>
-    <t>1488 ± 1517</t>
-  </si>
-  <si>
-    <t>2.0 ± 1.3</t>
-  </si>
-  <si>
-    <t>1.9 ± 1.0</t>
-  </si>
-  <si>
-    <t>15 min continously / 1 session</t>
-  </si>
-  <si>
-    <t>23 ± 1</t>
-  </si>
-  <si>
-    <t>15.1 ± 2</t>
-  </si>
-  <si>
-    <t>13.6 ± 2</t>
-  </si>
-  <si>
-    <t>13.9 ± 2</t>
-  </si>
-  <si>
-    <t>13.1 ± 2</t>
-  </si>
-  <si>
-    <t>13.7 ± 2</t>
-  </si>
-  <si>
-    <t>Bretherton et al. (2019) #1</t>
-  </si>
-  <si>
-    <t>3.28 ± 0.59</t>
-  </si>
-  <si>
-    <t>0.81 ± 0.68</t>
-  </si>
-  <si>
-    <t>Bretherton et al. (2019) #2</t>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">12.7 </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t>±</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9.9"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> 2</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">69.14 </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t>± 1.82</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">65.28 </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t>± 0.85</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">7.22 </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t>±</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9.9"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> 4.15</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">8.83 </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t>±</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9.9"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> 4.64</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">16.7 </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t>±</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> 2.1</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">15.8 </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t>±</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9.9"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>6.2</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">15.9 </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t>±</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> 6.5</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">15.2 </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t>±</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> 4.5</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">starting from an intensity of 0.1mA and increasing until the level of sensory threshold (mean intesity in active= 2.5 </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t>± 0.93/ sham= 2.76 ± 1.01</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>)</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">60.75 </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">± </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>24.33</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">61.01 </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">± </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>25.65</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">starting from an intensity of 0.1mA and increasing until the level of sensory threshold (mean intesity in active= 0.94 </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t>± 0.57/ sham= 2.19 ± 0.71</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>)</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">starting from an intensity of 0.1mA and increasing until the level of sensory threshold (mean intesity in active= 2.18 </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t>± 0.69/ sham= 2.19 ± 0.71</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>)</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>The stimulation intensity was approximately 150% of the current value at the perception threshold.</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> To measure the perception threshold, the current intensity was gradually increased from 0, in steps of 0.1 mA and participants reported when they felt the electrical stimulation for the first time (sensory threshold)</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">66.08 </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t>± 30.95</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">62.73 </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t>± 32.50</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">62.10 </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t>± 31.47</t>
-    </r>
-  </si>
-  <si>
-    <t>Dalgleish et al. (2021)</t>
-  </si>
-  <si>
-    <t>Geng et al. (2022)</t>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">74.15 </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t>± 37.88</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">63.53 </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t>± 28.91</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">69.84 </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t>± 31.90</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">325 </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t>± 275.34</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">529 </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t>± 555.79</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">544 </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t>± 591.48</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">661.1 </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t>± 380.8</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">799.0 </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t>± 287.2</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">742.4 </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t>± 315.4</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">621.3 </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t>± 330.2</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">557.2 </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t>± 396.8</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">677.7 </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t>± 310.9</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">1566.58 </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t>± 1489.91</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">1332.91 </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t>± 1978.41</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">1510.05 </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t>± 1758.59</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>The stimulation intensity was approximately 150% of the current value at the perception threshold.</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> To measure the perception threshold, the current intensity was gradually increased from 0, in steps of 0.1 mA and participants reported when they felt the electrical stimulation for the first time (sensory threshold)</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">40.89 </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t>± 22.22</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">38.52 </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t>± 19.66</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">38.78 </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t>± 22.22</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">9 </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">± </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>13.8</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">10 </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">± </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>13.8</t>
-    </r>
-  </si>
-  <si>
-    <t>Tang et al. (2020) Ex.1</t>
-  </si>
-  <si>
-    <t>Tang et al. (2020) Ex.2</t>
-  </si>
-  <si>
-    <t>Tang et al. (2020) Ex.3</t>
-  </si>
-  <si>
-    <t>Tang et al. (2020) Ex.4</t>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">972.67 </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">± </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>1214.7</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">351 </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>± 471.11</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>388 ±</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> 588.89</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">488 </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>± 478.04</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">443 </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">± </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>545.59</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">676 </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">± </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>744.45</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">starting from an intensity of 0.1mA and increasing until the level of sensory threshold (mean intesity in active= 0.94 </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t>± 0.57/ sham= 2.19 ± 0.71</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>)</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">starting from an intensity of 0.1mA and increasing until the level of sensory threshold (mean intesity in active= 2.18 </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t>± 0.69/ sham= 2.19 ± 0.71</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>)</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">27 </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t>± 4</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">21.2 </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t>± 3.1</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">37 </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">± 3 </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">min continuously </t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">1.16 </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t>± 0.48</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">1.19 </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t>± 0.50</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">1472.44 </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t>± 1173.67</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">1314.96 </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t>± 1020.58</t>
-    </r>
-  </si>
-  <si>
-    <t>Zhu et al. (2022)</t>
-  </si>
-  <si>
-    <t>BL-concha</t>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">906.39 </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">± </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>779.83</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">821.49 </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">± </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>1035.69</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">615.52 </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">± </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>631.03</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">664.63 </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">± </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>601.84</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">284 </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">± </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>353.33</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">391 </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">± </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>519.61</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">460 </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">± </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>422.62</t>
-    </r>
-  </si>
-  <si>
-    <t>other</t>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">0.95 </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t>± 0.63</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">0.94 </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t>± 0.49</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">24 </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t>± 3.0</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve"> at sensory level [mean in active=2.5 </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t>± 0.9 /mean in sham=3.2 ± 1.5 ]</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">3.2 </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t>± 0.4</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">2.7 </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t>± 0.2</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">2.9 </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t>± 0.4</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">3.1 </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">± 0.4 </t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">2.1 </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t>± 1.1</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">1.8 </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t>± 1.0</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">1.9 </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t>± 0.8</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">2.0 </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t>± 0.9</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">2.1 </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t>± 1.0</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">2.3 </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
       <t>± 1.2</t>
     </r>
   </si>
@@ -3872,6 +3621,84 @@
   </si>
   <si>
     <t>Decouck et al. (2016) #3</t>
+  </si>
+  <si>
+    <t>64.72 ± 27.32</t>
+  </si>
+  <si>
+    <t>64.04 ± 27.46</t>
+  </si>
+  <si>
+    <t>2 ± 1.08</t>
+  </si>
+  <si>
+    <t>1.53 ± 1.08</t>
+  </si>
+  <si>
+    <t>2.4 ± 1.80</t>
+  </si>
+  <si>
+    <t>2.3 ± 1.44</t>
+  </si>
+  <si>
+    <t>2.65 ± 1.80</t>
+  </si>
+  <si>
+    <t>2.87 ± 1.44</t>
+  </si>
+  <si>
+    <t>1.72 ± 0.72</t>
+  </si>
+  <si>
+    <t>1.65 ± 0.72</t>
+  </si>
+  <si>
+    <t>2.1 ± 1.08</t>
+  </si>
+  <si>
+    <t>3.11 ± 27.6</t>
+  </si>
+  <si>
+    <t>tragus off</t>
+  </si>
+  <si>
+    <t>earlobe on</t>
+  </si>
+  <si>
+    <t>12.7 ± 3.60</t>
+  </si>
+  <si>
+    <t>15.1 ± 3.60</t>
+  </si>
+  <si>
+    <t>13.1 ± 3.60</t>
+  </si>
+  <si>
+    <t>15.8 ± 6.2</t>
+  </si>
+  <si>
+    <t>14.9 ± 4.7</t>
+  </si>
+  <si>
+    <t>13.7 ± 3.60</t>
+  </si>
+  <si>
+    <t>13.4 ± 3.60</t>
+  </si>
+  <si>
+    <t>13.6 ± 3.60</t>
+  </si>
+  <si>
+    <t>13.9 ± 3.60</t>
+  </si>
+  <si>
+    <t>13.8 ± 3.60</t>
+  </si>
+  <si>
+    <t>15.2 ± 4.5</t>
+  </si>
+  <si>
+    <t>17.8 ± 8.1</t>
   </si>
 </sst>
 </file>
@@ -3881,7 +3708,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="0.0%"/>
   </numFmts>
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -3899,12 +3726,6 @@
       <sz val="9.9"/>
       <color theme="1"/>
       <name val="Calibri"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Arial"/>
       <family val="2"/>
     </font>
   </fonts>
@@ -3979,7 +3800,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="43">
+  <cellXfs count="42">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
@@ -4098,9 +3919,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" quotePrefix="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -4421,7 +4239,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="A1:Z19"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A14" sqref="A14"/>
     </sheetView>
   </sheetViews>
@@ -4498,13 +4316,13 @@
         <v>12</v>
       </c>
       <c r="O1" s="27" t="s">
-        <v>448</v>
+        <v>430</v>
       </c>
       <c r="P1" s="27" t="s">
         <v>13</v>
       </c>
       <c r="Q1" s="12" t="s">
-        <v>449</v>
+        <v>431</v>
       </c>
       <c r="R1" s="27" t="s">
         <v>14</v>
@@ -4513,13 +4331,13 @@
         <v>15</v>
       </c>
       <c r="T1" s="27" t="s">
-        <v>447</v>
+        <v>429</v>
       </c>
       <c r="U1" s="27" t="s">
         <v>16</v>
       </c>
       <c r="V1" s="27" t="s">
-        <v>450</v>
+        <v>432</v>
       </c>
       <c r="W1" s="27" t="s">
         <v>17</v>
@@ -4551,7 +4369,7 @@
         <v>0.5</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>315</v>
+        <v>306</v>
       </c>
       <c r="G2" s="2" t="s">
         <v>46</v>
@@ -4575,10 +4393,10 @@
         <v>46</v>
       </c>
       <c r="N2" s="2" t="s">
-        <v>423</v>
+        <v>405</v>
       </c>
       <c r="O2" s="2" t="s">
-        <v>424</v>
+        <v>406</v>
       </c>
       <c r="P2" s="7" t="s">
         <v>98</v>
@@ -4590,10 +4408,10 @@
         <v>34</v>
       </c>
       <c r="S2" s="2" t="s">
-        <v>425</v>
+        <v>407</v>
       </c>
       <c r="T2" s="2" t="s">
-        <v>426</v>
+        <v>408</v>
       </c>
       <c r="U2" s="7" t="s">
         <v>98</v>
@@ -4616,7 +4434,7 @@
     </row>
     <row r="3" spans="1:26" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
-        <v>360</v>
+        <v>345</v>
       </c>
       <c r="B3" s="22" t="s">
         <v>44</v>
@@ -4631,7 +4449,7 @@
         <v>0.46</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>309</v>
+        <v>300</v>
       </c>
       <c r="G3" s="2" t="s">
         <v>46</v>
@@ -4655,13 +4473,13 @@
         <v>98</v>
       </c>
       <c r="N3" s="2" t="s">
-        <v>427</v>
+        <v>409</v>
       </c>
       <c r="O3" s="2" t="s">
-        <v>428</v>
+        <v>410</v>
       </c>
       <c r="P3" s="2" t="s">
-        <v>429</v>
+        <v>411</v>
       </c>
       <c r="Q3" s="7" t="s">
         <v>98</v>
@@ -4696,7 +4514,7 @@
     </row>
     <row r="4" spans="1:26" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A4" s="2" t="s">
-        <v>472</v>
+        <v>454</v>
       </c>
       <c r="B4" s="22" t="s">
         <v>44</v>
@@ -4711,7 +4529,7 @@
         <v>0.31</v>
       </c>
       <c r="F4" s="2" t="s">
-        <v>310</v>
+        <v>301</v>
       </c>
       <c r="G4" s="2" t="s">
         <v>46</v>
@@ -4735,13 +4553,13 @@
         <v>98</v>
       </c>
       <c r="N4" s="2" t="s">
-        <v>384</v>
+        <v>366</v>
       </c>
       <c r="O4" s="2" t="s">
-        <v>385</v>
+        <v>367</v>
       </c>
       <c r="P4" s="2" t="s">
-        <v>386</v>
+        <v>368</v>
       </c>
       <c r="Q4" s="7" t="s">
         <v>98</v>
@@ -4776,7 +4594,7 @@
     </row>
     <row r="5" spans="1:26" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A5" s="9" t="s">
-        <v>468</v>
+        <v>450</v>
       </c>
       <c r="B5" s="2" t="s">
         <v>56</v>
@@ -4856,7 +4674,7 @@
     </row>
     <row r="6" spans="1:26" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A6" s="9" t="s">
-        <v>469</v>
+        <v>451</v>
       </c>
       <c r="B6" s="2" t="s">
         <v>56</v>
@@ -4936,7 +4754,7 @@
     </row>
     <row r="7" spans="1:26" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A7" s="9" t="s">
-        <v>482</v>
+        <v>464</v>
       </c>
       <c r="B7" s="22" t="s">
         <v>44</v>
@@ -4960,7 +4778,7 @@
         <v>25</v>
       </c>
       <c r="I7" s="8" t="s">
-        <v>316</v>
+        <v>307</v>
       </c>
       <c r="J7" s="2">
         <v>250</v>
@@ -5049,19 +4867,19 @@
         <v>162</v>
       </c>
       <c r="L8" s="2" t="s">
-        <v>317</v>
+        <v>308</v>
       </c>
       <c r="M8" s="2" t="s">
         <v>72</v>
       </c>
       <c r="N8" s="2" t="s">
-        <v>318</v>
+        <v>309</v>
       </c>
       <c r="O8" s="2" t="s">
-        <v>319</v>
+        <v>310</v>
       </c>
       <c r="P8" s="2" t="s">
-        <v>320</v>
+        <v>311</v>
       </c>
       <c r="Q8" s="7" t="s">
         <v>98</v>
@@ -5070,13 +4888,13 @@
         <v>9</v>
       </c>
       <c r="S8" s="2" t="s">
-        <v>321</v>
+        <v>312</v>
       </c>
       <c r="T8" s="2" t="s">
-        <v>322</v>
+        <v>313</v>
       </c>
       <c r="U8" s="2" t="s">
-        <v>323</v>
+        <v>314</v>
       </c>
       <c r="V8" s="7" t="s">
         <v>98</v>
@@ -5096,7 +4914,7 @@
     </row>
     <row r="9" spans="1:26" s="1" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="2" t="s">
-        <v>470</v>
+        <v>452</v>
       </c>
       <c r="B9" s="2" t="s">
         <v>56</v>
@@ -5141,7 +4959,7 @@
         <v>165</v>
       </c>
       <c r="P9" s="2" t="s">
-        <v>342</v>
+        <v>332</v>
       </c>
       <c r="Q9" s="7" t="s">
         <v>98</v>
@@ -5156,7 +4974,7 @@
         <v>167</v>
       </c>
       <c r="U9" s="2" t="s">
-        <v>344</v>
+        <v>334</v>
       </c>
       <c r="V9" s="7" t="s">
         <v>98</v>
@@ -5176,7 +4994,7 @@
     </row>
     <row r="10" spans="1:26" s="1" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="2" t="s">
-        <v>471</v>
+        <v>453</v>
       </c>
       <c r="B10" s="2" t="s">
         <v>56</v>
@@ -5221,7 +5039,7 @@
         <v>169</v>
       </c>
       <c r="P10" s="2" t="s">
-        <v>343</v>
+        <v>333</v>
       </c>
       <c r="Q10" s="7" t="s">
         <v>98</v>
@@ -5236,7 +5054,7 @@
         <v>167</v>
       </c>
       <c r="U10" s="2" t="s">
-        <v>344</v>
+        <v>334</v>
       </c>
       <c r="V10" s="7" t="s">
         <v>98</v>
@@ -5256,7 +5074,7 @@
     </row>
     <row r="11" spans="1:26" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A11" s="2" t="s">
-        <v>380</v>
+        <v>362</v>
       </c>
       <c r="B11" s="2" t="s">
         <v>56</v>
@@ -5295,13 +5113,13 @@
         <v>72</v>
       </c>
       <c r="N11" s="2" t="s">
-        <v>387</v>
+        <v>369</v>
       </c>
       <c r="O11" s="2" t="s">
-        <v>388</v>
+        <v>370</v>
       </c>
       <c r="P11" s="2" t="s">
-        <v>389</v>
+        <v>371</v>
       </c>
       <c r="Q11" s="7" t="s">
         <v>98</v>
@@ -5310,13 +5128,13 @@
         <v>14</v>
       </c>
       <c r="S11" s="2" t="s">
-        <v>390</v>
+        <v>372</v>
       </c>
       <c r="T11" s="2" t="s">
-        <v>391</v>
+        <v>373</v>
       </c>
       <c r="U11" s="2" t="s">
-        <v>392</v>
+        <v>374</v>
       </c>
       <c r="V11" s="7" t="s">
         <v>98</v>
@@ -5336,7 +5154,7 @@
     </row>
     <row r="12" spans="1:26" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="2" t="s">
-        <v>467</v>
+        <v>449</v>
       </c>
       <c r="B12" s="2" t="s">
         <v>56</v>
@@ -5360,7 +5178,7 @@
         <v>500</v>
       </c>
       <c r="I12" s="9" t="s">
-        <v>396</v>
+        <v>378</v>
       </c>
       <c r="J12" s="2">
         <v>500</v>
@@ -5381,7 +5199,7 @@
         <v>244</v>
       </c>
       <c r="P12" s="2" t="s">
-        <v>393</v>
+        <v>375</v>
       </c>
       <c r="Q12" s="7" t="s">
         <v>98</v>
@@ -5416,7 +5234,7 @@
     </row>
     <row r="13" spans="1:26" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="2" t="s">
-        <v>466</v>
+        <v>448</v>
       </c>
       <c r="B13" s="2" t="s">
         <v>56</v>
@@ -5440,7 +5258,7 @@
         <v>25</v>
       </c>
       <c r="I13" s="9" t="s">
-        <v>396</v>
+        <v>378</v>
       </c>
       <c r="J13" s="2">
         <v>500</v>
@@ -5458,10 +5276,10 @@
         <v>243</v>
       </c>
       <c r="O13" s="2" t="s">
-        <v>394</v>
+        <v>376</v>
       </c>
       <c r="P13" s="2" t="s">
-        <v>395</v>
+        <v>377</v>
       </c>
       <c r="Q13" s="7" t="s">
         <v>98</v>
@@ -5496,7 +5314,7 @@
     </row>
     <row r="14" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A14" s="2" t="s">
-        <v>421</v>
+        <v>403</v>
       </c>
       <c r="B14" s="2" t="s">
         <v>56</v>
@@ -5514,7 +5332,7 @@
         <v>279</v>
       </c>
       <c r="G14" s="2" t="s">
-        <v>422</v>
+        <v>404</v>
       </c>
       <c r="H14" s="2">
         <v>25</v>
@@ -5532,7 +5350,7 @@
         <v>281</v>
       </c>
       <c r="M14" s="9" t="s">
-        <v>430</v>
+        <v>412</v>
       </c>
       <c r="N14" s="2" t="s">
         <v>282</v>
@@ -5571,12 +5389,12 @@
         <v>8.9999999999999993E-3</v>
       </c>
       <c r="Z14" s="17" t="s">
-        <v>465</v>
+        <v>447</v>
       </c>
     </row>
     <row r="15" spans="1:26" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="7" t="s">
-        <v>402</v>
+        <v>384</v>
       </c>
       <c r="B15" s="7" t="s">
         <v>44</v>
@@ -5656,7 +5474,7 @@
     </row>
     <row r="16" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A16" s="7" t="s">
-        <v>403</v>
+        <v>385</v>
       </c>
       <c r="B16" s="7" t="s">
         <v>44</v>
@@ -5736,7 +5554,7 @@
     </row>
     <row r="17" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A17" s="7" t="s">
-        <v>404</v>
+        <v>386</v>
       </c>
       <c r="B17" s="7" t="s">
         <v>44</v>
@@ -5816,7 +5634,7 @@
     </row>
     <row r="18" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A18" s="7" t="s">
-        <v>405</v>
+        <v>387</v>
       </c>
       <c r="B18" s="7" t="s">
         <v>44</v>
@@ -5980,13 +5798,13 @@
         <v>12</v>
       </c>
       <c r="O1" s="32" t="s">
-        <v>448</v>
+        <v>430</v>
       </c>
       <c r="P1" s="32" t="s">
         <v>13</v>
       </c>
       <c r="Q1" s="12" t="s">
-        <v>449</v>
+        <v>431</v>
       </c>
       <c r="R1" s="32" t="s">
         <v>14</v>
@@ -5995,13 +5813,13 @@
         <v>15</v>
       </c>
       <c r="T1" s="32" t="s">
-        <v>447</v>
+        <v>429</v>
       </c>
       <c r="U1" s="32" t="s">
         <v>16</v>
       </c>
       <c r="V1" s="27" t="s">
-        <v>450</v>
+        <v>432</v>
       </c>
       <c r="W1" s="32" t="s">
         <v>17</v>
@@ -6033,7 +5851,7 @@
         <v>0.5</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>315</v>
+        <v>306</v>
       </c>
       <c r="G2" s="2" t="s">
         <v>46</v>
@@ -6057,7 +5875,7 @@
         <v>46</v>
       </c>
       <c r="N2" s="2" t="s">
-        <v>406</v>
+        <v>388</v>
       </c>
       <c r="O2" s="2" t="s">
         <v>170</v>
@@ -6098,7 +5916,7 @@
     </row>
     <row r="3" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
-        <v>360</v>
+        <v>345</v>
       </c>
       <c r="B3" s="7" t="s">
         <v>44</v>
@@ -6113,7 +5931,7 @@
         <v>0.46</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>309</v>
+        <v>300</v>
       </c>
       <c r="G3" s="2" t="s">
         <v>46</v>
@@ -6137,13 +5955,13 @@
         <v>98</v>
       </c>
       <c r="N3" s="2" t="s">
-        <v>407</v>
+        <v>389</v>
       </c>
       <c r="O3" s="2" t="s">
-        <v>408</v>
+        <v>390</v>
       </c>
       <c r="P3" s="2" t="s">
-        <v>409</v>
+        <v>391</v>
       </c>
       <c r="Q3" s="7" t="s">
         <v>98</v>
@@ -6178,7 +5996,7 @@
     </row>
     <row r="4" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A4" s="2" t="s">
-        <v>472</v>
+        <v>454</v>
       </c>
       <c r="B4" s="7" t="s">
         <v>44</v>
@@ -6193,7 +6011,7 @@
         <v>0.31</v>
       </c>
       <c r="F4" s="2" t="s">
-        <v>310</v>
+        <v>301</v>
       </c>
       <c r="G4" s="2" t="s">
         <v>46</v>
@@ -6217,13 +6035,13 @@
         <v>98</v>
       </c>
       <c r="N4" s="7" t="s">
-        <v>410</v>
+        <v>392</v>
       </c>
       <c r="O4" s="7" t="s">
         <v>98</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>411</v>
+        <v>393</v>
       </c>
       <c r="Q4" s="7" t="s">
         <v>98</v>
@@ -6258,7 +6076,7 @@
     </row>
     <row r="5" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A5" s="9" t="s">
-        <v>468</v>
+        <v>450</v>
       </c>
       <c r="B5" s="2" t="s">
         <v>56</v>
@@ -6338,7 +6156,7 @@
     </row>
     <row r="6" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A6" s="2" t="s">
-        <v>469</v>
+        <v>451</v>
       </c>
       <c r="B6" s="2" t="s">
         <v>56</v>
@@ -6418,7 +6236,7 @@
     </row>
     <row r="7" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A7" s="2" t="s">
-        <v>482</v>
+        <v>464</v>
       </c>
       <c r="B7" s="7" t="s">
         <v>44</v>
@@ -6442,7 +6260,7 @@
         <v>25</v>
       </c>
       <c r="I7" s="8" t="s">
-        <v>316</v>
+        <v>307</v>
       </c>
       <c r="J7" s="2">
         <v>250</v>
@@ -6537,13 +6355,13 @@
         <v>72</v>
       </c>
       <c r="N8" s="2" t="s">
-        <v>324</v>
+        <v>315</v>
       </c>
       <c r="O8" s="2" t="s">
-        <v>325</v>
+        <v>316</v>
       </c>
       <c r="P8" s="2" t="s">
-        <v>326</v>
+        <v>317</v>
       </c>
       <c r="Q8" s="7" t="s">
         <v>98</v>
@@ -6552,13 +6370,13 @@
         <v>9</v>
       </c>
       <c r="S8" s="2" t="s">
-        <v>327</v>
+        <v>318</v>
       </c>
       <c r="T8" s="2" t="s">
-        <v>328</v>
+        <v>319</v>
       </c>
       <c r="U8" s="2" t="s">
-        <v>329</v>
+        <v>320</v>
       </c>
       <c r="V8" s="7" t="s">
         <v>98</v>
@@ -6578,7 +6396,7 @@
     </row>
     <row r="9" spans="1:26" ht="30" x14ac:dyDescent="0.25">
       <c r="A9" s="2" t="s">
-        <v>473</v>
+        <v>455</v>
       </c>
       <c r="B9" s="2" t="s">
         <v>56</v>
@@ -6602,7 +6420,7 @@
         <v>25</v>
       </c>
       <c r="I9" s="8" t="s">
-        <v>412</v>
+        <v>394</v>
       </c>
       <c r="J9" s="2">
         <v>250</v>
@@ -6623,7 +6441,7 @@
         <v>178</v>
       </c>
       <c r="P9" s="2" t="s">
-        <v>306</v>
+        <v>297</v>
       </c>
       <c r="Q9" s="7" t="s">
         <v>98</v>
@@ -6638,7 +6456,7 @@
         <v>180</v>
       </c>
       <c r="U9" s="2" t="s">
-        <v>307</v>
+        <v>298</v>
       </c>
       <c r="V9" s="7" t="s">
         <v>98</v>
@@ -6658,7 +6476,7 @@
     </row>
     <row r="10" spans="1:26" ht="30" x14ac:dyDescent="0.25">
       <c r="A10" s="2" t="s">
-        <v>474</v>
+        <v>456</v>
       </c>
       <c r="B10" s="2" t="s">
         <v>56</v>
@@ -6682,7 +6500,7 @@
         <v>25</v>
       </c>
       <c r="I10" s="8" t="s">
-        <v>413</v>
+        <v>395</v>
       </c>
       <c r="J10" s="2">
         <v>250</v>
@@ -6703,7 +6521,7 @@
         <v>181</v>
       </c>
       <c r="P10" s="2" t="s">
-        <v>308</v>
+        <v>299</v>
       </c>
       <c r="Q10" s="7" t="s">
         <v>98</v>
@@ -6718,7 +6536,7 @@
         <v>180</v>
       </c>
       <c r="U10" s="2" t="s">
-        <v>307</v>
+        <v>298</v>
       </c>
       <c r="V10" s="7" t="s">
         <v>98</v>
@@ -6738,7 +6556,7 @@
     </row>
     <row r="11" spans="1:26" ht="30" x14ac:dyDescent="0.25">
       <c r="A11" s="2" t="s">
-        <v>470</v>
+        <v>452</v>
       </c>
       <c r="B11" s="2" t="s">
         <v>56</v>
@@ -6783,7 +6601,7 @@
         <v>182</v>
       </c>
       <c r="P11" s="2" t="s">
-        <v>345</v>
+        <v>335</v>
       </c>
       <c r="Q11" s="7" t="s">
         <v>98</v>
@@ -6798,7 +6616,7 @@
         <v>184</v>
       </c>
       <c r="U11" s="2" t="s">
-        <v>347</v>
+        <v>337</v>
       </c>
       <c r="V11" s="7" t="s">
         <v>98</v>
@@ -6818,7 +6636,7 @@
     </row>
     <row r="12" spans="1:26" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="2" t="s">
-        <v>471</v>
+        <v>453</v>
       </c>
       <c r="B12" s="2" t="s">
         <v>56</v>
@@ -6863,7 +6681,7 @@
         <v>185</v>
       </c>
       <c r="P12" s="2" t="s">
-        <v>346</v>
+        <v>336</v>
       </c>
       <c r="Q12" s="7" t="s">
         <v>98</v>
@@ -6878,7 +6696,7 @@
         <v>184</v>
       </c>
       <c r="U12" s="2" t="s">
-        <v>347</v>
+        <v>337</v>
       </c>
       <c r="V12" s="7" t="s">
         <v>98</v>
@@ -6937,13 +6755,13 @@
         <v>72</v>
       </c>
       <c r="N13" s="2" t="s">
-        <v>464</v>
+        <v>446</v>
       </c>
       <c r="O13" s="2" t="s">
-        <v>462</v>
+        <v>444</v>
       </c>
       <c r="P13" s="2" t="s">
-        <v>463</v>
+        <v>445</v>
       </c>
       <c r="Q13" s="7" t="s">
         <v>98</v>
@@ -6952,13 +6770,13 @@
         <v>14</v>
       </c>
       <c r="S13" s="2" t="s">
-        <v>461</v>
+        <v>443</v>
       </c>
       <c r="T13" s="2" t="s">
-        <v>460</v>
+        <v>442</v>
       </c>
       <c r="U13" s="2" t="s">
-        <v>459</v>
+        <v>441</v>
       </c>
       <c r="V13" s="7" t="s">
         <v>98</v>
@@ -6978,7 +6796,7 @@
     </row>
     <row r="14" spans="1:26" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="2" t="s">
-        <v>467</v>
+        <v>449</v>
       </c>
       <c r="B14" s="2" t="s">
         <v>56</v>
@@ -7002,7 +6820,7 @@
         <v>500</v>
       </c>
       <c r="I14" s="9" t="s">
-        <v>396</v>
+        <v>378</v>
       </c>
       <c r="J14" s="2">
         <v>500</v>
@@ -7023,7 +6841,7 @@
         <v>248</v>
       </c>
       <c r="P14" s="2" t="s">
-        <v>419</v>
+        <v>401</v>
       </c>
       <c r="Q14" s="7" t="s">
         <v>98</v>
@@ -7058,7 +6876,7 @@
     </row>
     <row r="15" spans="1:26" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="2" t="s">
-        <v>466</v>
+        <v>448</v>
       </c>
       <c r="B15" s="2" t="s">
         <v>56</v>
@@ -7082,7 +6900,7 @@
         <v>25</v>
       </c>
       <c r="I15" s="9" t="s">
-        <v>396</v>
+        <v>378</v>
       </c>
       <c r="J15" s="2">
         <v>500</v>
@@ -7103,7 +6921,7 @@
         <v>249</v>
       </c>
       <c r="P15" s="2" t="s">
-        <v>420</v>
+        <v>402</v>
       </c>
       <c r="Q15" s="7" t="s">
         <v>98</v>
@@ -7138,7 +6956,7 @@
     </row>
     <row r="16" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A16" s="2" t="s">
-        <v>421</v>
+        <v>403</v>
       </c>
       <c r="B16" s="2" t="s">
         <v>56</v>
@@ -7156,7 +6974,7 @@
         <v>279</v>
       </c>
       <c r="G16" s="2" t="s">
-        <v>422</v>
+        <v>404</v>
       </c>
       <c r="H16" s="2">
         <v>25</v>
@@ -7174,7 +6992,7 @@
         <v>281</v>
       </c>
       <c r="M16" s="9" t="s">
-        <v>430</v>
+        <v>412</v>
       </c>
       <c r="N16" s="2" t="s">
         <v>285</v>
@@ -7213,12 +7031,12 @@
         <v>8.9999999999999993E-3</v>
       </c>
       <c r="Z16" s="17" t="s">
-        <v>465</v>
+        <v>447</v>
       </c>
     </row>
     <row r="17" spans="1:26" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="7" t="s">
-        <v>402</v>
+        <v>384</v>
       </c>
       <c r="B17" s="7" t="s">
         <v>44</v>
@@ -7298,7 +7116,7 @@
     </row>
     <row r="18" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A18" s="7" t="s">
-        <v>403</v>
+        <v>385</v>
       </c>
       <c r="B18" s="7" t="s">
         <v>44</v>
@@ -7378,7 +7196,7 @@
     </row>
     <row r="19" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A19" s="7" t="s">
-        <v>404</v>
+        <v>386</v>
       </c>
       <c r="B19" s="7" t="s">
         <v>44</v>
@@ -7458,7 +7276,7 @@
     </row>
     <row r="20" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A20" s="7" t="s">
-        <v>405</v>
+        <v>387</v>
       </c>
       <c r="B20" s="7" t="s">
         <v>44</v>
@@ -7553,7 +7371,7 @@
         <v>0.38</v>
       </c>
       <c r="F21" s="7" t="s">
-        <v>414</v>
+        <v>396</v>
       </c>
       <c r="G21" s="7" t="s">
         <v>34</v>
@@ -7633,7 +7451,7 @@
         <v>0.3</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>415</v>
+        <v>397</v>
       </c>
       <c r="G22" s="7" t="s">
         <v>46</v>
@@ -7651,7 +7469,7 @@
         <v>98</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>416</v>
+        <v>398</v>
       </c>
       <c r="M22" s="7" t="s">
         <v>72</v>
@@ -7663,7 +7481,7 @@
         <v>98</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>417</v>
+        <v>399</v>
       </c>
       <c r="Q22" s="7" t="s">
         <v>98</v>
@@ -7678,7 +7496,7 @@
         <v>98</v>
       </c>
       <c r="U22" s="7" t="s">
-        <v>418</v>
+        <v>400</v>
       </c>
       <c r="V22" s="7" t="s">
         <v>98</v>
@@ -7756,8 +7574,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
   <dimension ref="A1:Z25"/>
   <sheetViews>
-    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="A19" sqref="A19"/>
+    <sheetView topLeftCell="J1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="O8" sqref="O8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -7832,13 +7650,13 @@
         <v>12</v>
       </c>
       <c r="O1" s="3" t="s">
-        <v>448</v>
+        <v>430</v>
       </c>
       <c r="P1" s="3" t="s">
         <v>13</v>
       </c>
       <c r="Q1" s="12" t="s">
-        <v>449</v>
+        <v>431</v>
       </c>
       <c r="R1" s="3" t="s">
         <v>14</v>
@@ -7847,13 +7665,13 @@
         <v>15</v>
       </c>
       <c r="T1" s="3" t="s">
-        <v>447</v>
+        <v>429</v>
       </c>
       <c r="U1" s="3" t="s">
         <v>16</v>
       </c>
       <c r="V1" s="27" t="s">
-        <v>450</v>
+        <v>432</v>
       </c>
       <c r="W1" s="3" t="s">
         <v>17</v>
@@ -7909,13 +7727,13 @@
         <v>46</v>
       </c>
       <c r="N2" s="2" t="s">
-        <v>292</v>
+        <v>467</v>
       </c>
       <c r="O2" s="2" t="s">
-        <v>293</v>
+        <v>468</v>
       </c>
       <c r="P2" s="2" t="s">
-        <v>294</v>
+        <v>469</v>
       </c>
       <c r="Q2" s="7" t="s">
         <v>98</v>
@@ -7924,13 +7742,13 @@
         <v>13</v>
       </c>
       <c r="S2" s="2" t="s">
-        <v>295</v>
+        <v>470</v>
       </c>
       <c r="T2" s="2" t="s">
-        <v>296</v>
+        <v>471</v>
       </c>
       <c r="U2" s="2" t="s">
-        <v>297</v>
+        <v>472</v>
       </c>
       <c r="V2" s="7" t="s">
         <v>98</v>
@@ -7989,13 +7807,13 @@
         <v>46</v>
       </c>
       <c r="N3" s="2" t="s">
-        <v>298</v>
+        <v>467</v>
       </c>
       <c r="O3" s="2" t="s">
-        <v>299</v>
+        <v>468</v>
       </c>
       <c r="P3" s="2" t="s">
-        <v>300</v>
+        <v>469</v>
       </c>
       <c r="Q3" s="7" t="s">
         <v>98</v>
@@ -8004,13 +7822,13 @@
         <v>13</v>
       </c>
       <c r="S3" s="2" t="s">
-        <v>295</v>
+        <v>473</v>
       </c>
       <c r="T3" s="2" t="s">
-        <v>296</v>
+        <v>474</v>
       </c>
       <c r="U3" s="2" t="s">
-        <v>297</v>
+        <v>475</v>
       </c>
       <c r="V3" s="7" t="s">
         <v>98</v>
@@ -8045,7 +7863,7 @@
         <v>0.5</v>
       </c>
       <c r="F4" s="2" t="s">
-        <v>315</v>
+        <v>306</v>
       </c>
       <c r="G4" s="2" t="s">
         <v>46</v>
@@ -8110,7 +7928,7 @@
     </row>
     <row r="5" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A5" s="9" t="s">
-        <v>468</v>
+        <v>450</v>
       </c>
       <c r="B5" s="2" t="s">
         <v>56</v>
@@ -8190,7 +8008,7 @@
     </row>
     <row r="6" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A6" s="9" t="s">
-        <v>469</v>
+        <v>451</v>
       </c>
       <c r="B6" s="2" t="s">
         <v>56</v>
@@ -8309,13 +8127,13 @@
         <v>72</v>
       </c>
       <c r="N7" s="2" t="s">
-        <v>330</v>
+        <v>321</v>
       </c>
       <c r="O7" s="2" t="s">
-        <v>331</v>
+        <v>476</v>
       </c>
       <c r="P7" s="2" t="s">
-        <v>332</v>
+        <v>322</v>
       </c>
       <c r="Q7" s="7" t="s">
         <v>98</v>
@@ -8324,13 +8142,13 @@
         <v>9</v>
       </c>
       <c r="S7" s="2" t="s">
-        <v>333</v>
+        <v>323</v>
       </c>
       <c r="T7" s="2" t="s">
-        <v>334</v>
+        <v>324</v>
       </c>
       <c r="U7" s="2" t="s">
-        <v>335</v>
+        <v>325</v>
       </c>
       <c r="V7" s="7" t="s">
         <v>98</v>
@@ -8365,7 +8183,7 @@
         <v>1</v>
       </c>
       <c r="F8" s="2" t="s">
-        <v>433</v>
+        <v>415</v>
       </c>
       <c r="G8" s="2" t="s">
         <v>207</v>
@@ -8374,7 +8192,7 @@
         <v>25</v>
       </c>
       <c r="I8" s="6" t="s">
-        <v>434</v>
+        <v>416</v>
       </c>
       <c r="J8" s="7" t="s">
         <v>98</v>
@@ -8389,13 +8207,13 @@
         <v>72</v>
       </c>
       <c r="N8" s="2" t="s">
-        <v>435</v>
+        <v>417</v>
       </c>
       <c r="O8" s="7" t="s">
         <v>98</v>
       </c>
       <c r="P8" s="2" t="s">
-        <v>436</v>
+        <v>418</v>
       </c>
       <c r="Q8" s="7" t="s">
         <v>98</v>
@@ -8404,13 +8222,13 @@
         <v>15</v>
       </c>
       <c r="S8" s="2" t="s">
-        <v>437</v>
+        <v>419</v>
       </c>
       <c r="T8" s="7" t="s">
         <v>98</v>
       </c>
       <c r="U8" s="2" t="s">
-        <v>438</v>
+        <v>420</v>
       </c>
       <c r="V8" s="7" t="s">
         <v>98</v>
@@ -8430,7 +8248,7 @@
     </row>
     <row r="9" spans="1:26" ht="30" x14ac:dyDescent="0.25">
       <c r="A9" s="2" t="s">
-        <v>470</v>
+        <v>452</v>
       </c>
       <c r="B9" s="2" t="s">
         <v>56</v>
@@ -8475,7 +8293,7 @@
         <v>233</v>
       </c>
       <c r="P9" s="2" t="s">
-        <v>348</v>
+        <v>338</v>
       </c>
       <c r="Q9" s="7" t="s">
         <v>98</v>
@@ -8490,7 +8308,7 @@
         <v>235</v>
       </c>
       <c r="U9" s="2" t="s">
-        <v>349</v>
+        <v>339</v>
       </c>
       <c r="V9" s="7" t="s">
         <v>98</v>
@@ -8510,7 +8328,7 @@
     </row>
     <row r="10" spans="1:26" ht="30" x14ac:dyDescent="0.25">
       <c r="A10" s="2" t="s">
-        <v>471</v>
+        <v>453</v>
       </c>
       <c r="B10" s="2" t="s">
         <v>56</v>
@@ -8570,7 +8388,7 @@
         <v>235</v>
       </c>
       <c r="U10" s="2" t="s">
-        <v>349</v>
+        <v>339</v>
       </c>
       <c r="V10" s="7" t="s">
         <v>98</v>
@@ -8629,13 +8447,13 @@
         <v>72</v>
       </c>
       <c r="N11" s="2" t="s">
-        <v>439</v>
+        <v>421</v>
       </c>
       <c r="O11" s="2" t="s">
-        <v>440</v>
+        <v>422</v>
       </c>
       <c r="P11" s="2" t="s">
-        <v>441</v>
+        <v>423</v>
       </c>
       <c r="Q11" s="7" t="s">
         <v>98</v>
@@ -8644,13 +8462,13 @@
         <v>14</v>
       </c>
       <c r="S11" s="2" t="s">
-        <v>442</v>
+        <v>424</v>
       </c>
       <c r="T11" s="2" t="s">
-        <v>443</v>
+        <v>425</v>
       </c>
       <c r="U11" s="2" t="s">
-        <v>444</v>
+        <v>426</v>
       </c>
       <c r="V11" s="7" t="s">
         <v>98</v>
@@ -8670,7 +8488,7 @@
     </row>
     <row r="12" spans="1:26" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="2" t="s">
-        <v>467</v>
+        <v>449</v>
       </c>
       <c r="B12" s="2" t="s">
         <v>56</v>
@@ -8694,7 +8512,7 @@
         <v>500</v>
       </c>
       <c r="I12" s="9" t="s">
-        <v>396</v>
+        <v>378</v>
       </c>
       <c r="J12" s="2">
         <v>500</v>
@@ -8715,7 +8533,7 @@
         <v>253</v>
       </c>
       <c r="P12" s="2" t="s">
-        <v>445</v>
+        <v>427</v>
       </c>
       <c r="Q12" s="7" t="s">
         <v>98</v>
@@ -8750,7 +8568,7 @@
     </row>
     <row r="13" spans="1:26" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="2" t="s">
-        <v>466</v>
+        <v>448</v>
       </c>
       <c r="B13" s="2" t="s">
         <v>56</v>
@@ -8774,7 +8592,7 @@
         <v>25</v>
       </c>
       <c r="I13" s="9" t="s">
-        <v>396</v>
+        <v>378</v>
       </c>
       <c r="J13" s="2">
         <v>500</v>
@@ -8795,7 +8613,7 @@
         <v>254</v>
       </c>
       <c r="P13" s="2" t="s">
-        <v>446</v>
+        <v>428</v>
       </c>
       <c r="Q13" s="7" t="s">
         <v>98</v>
@@ -8830,7 +8648,7 @@
     </row>
     <row r="14" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A14" s="2" t="s">
-        <v>421</v>
+        <v>403</v>
       </c>
       <c r="B14" s="2" t="s">
         <v>56</v>
@@ -8848,7 +8666,7 @@
         <v>279</v>
       </c>
       <c r="G14" s="2" t="s">
-        <v>422</v>
+        <v>404</v>
       </c>
       <c r="H14" s="2">
         <v>25</v>
@@ -8866,7 +8684,7 @@
         <v>281</v>
       </c>
       <c r="M14" s="9" t="s">
-        <v>430</v>
+        <v>412</v>
       </c>
       <c r="N14" s="2" t="s">
         <v>288</v>
@@ -8905,12 +8723,12 @@
         <v>8.9999999999999993E-3</v>
       </c>
       <c r="Z14" s="17" t="s">
-        <v>465</v>
+        <v>447</v>
       </c>
     </row>
     <row r="15" spans="1:26" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="7" t="s">
-        <v>475</v>
+        <v>457</v>
       </c>
       <c r="B15" s="7" t="s">
         <v>44</v>
@@ -8990,7 +8808,7 @@
     </row>
     <row r="16" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A16" s="7" t="s">
-        <v>476</v>
+        <v>458</v>
       </c>
       <c r="B16" s="7" t="s">
         <v>44</v>
@@ -9070,7 +8888,7 @@
     </row>
     <row r="17" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A17" s="7" t="s">
-        <v>477</v>
+        <v>459</v>
       </c>
       <c r="B17" s="7" t="s">
         <v>44</v>
@@ -9150,7 +8968,7 @@
     </row>
     <row r="18" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A18" s="7" t="s">
-        <v>478</v>
+        <v>460</v>
       </c>
       <c r="B18" s="7" t="s">
         <v>44</v>
@@ -9310,7 +9128,7 @@
     </row>
     <row r="20" spans="1:26" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A20" s="7" t="s">
-        <v>479</v>
+        <v>461</v>
       </c>
       <c r="B20" s="7" t="s">
         <v>56</v>
@@ -9325,7 +9143,7 @@
         <v>0.38200000000000001</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>414</v>
+        <v>396</v>
       </c>
       <c r="G20" s="7" t="s">
         <v>207</v>
@@ -9405,7 +9223,7 @@
         <v>0.3</v>
       </c>
       <c r="F21" s="7" t="s">
-        <v>415</v>
+        <v>397</v>
       </c>
       <c r="G21" s="7" t="s">
         <v>46</v>
@@ -9423,7 +9241,7 @@
         <v>98</v>
       </c>
       <c r="L21" s="7" t="s">
-        <v>416</v>
+        <v>398</v>
       </c>
       <c r="M21" s="7" t="s">
         <v>72</v>
@@ -9435,7 +9253,7 @@
         <v>98</v>
       </c>
       <c r="P21" s="7" t="s">
-        <v>431</v>
+        <v>413</v>
       </c>
       <c r="Q21" s="7" t="s">
         <v>98</v>
@@ -9450,7 +9268,7 @@
         <v>98</v>
       </c>
       <c r="U21" s="7" t="s">
-        <v>432</v>
+        <v>414</v>
       </c>
       <c r="V21" s="7" t="s">
         <v>98</v>
@@ -9503,7 +9321,7 @@
         <v>229</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>350</v>
+        <v>340</v>
       </c>
       <c r="M22" s="7" t="s">
         <v>46</v>
@@ -9550,7 +9368,7 @@
     </row>
     <row r="23" spans="1:26" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A23" s="7" t="s">
-        <v>480</v>
+        <v>462</v>
       </c>
       <c r="B23" s="7" t="s">
         <v>44</v>
@@ -9565,7 +9383,7 @@
         <v>0.46</v>
       </c>
       <c r="F23" s="2" t="s">
-        <v>309</v>
+        <v>300</v>
       </c>
       <c r="G23" s="2" t="s">
         <v>46</v>
@@ -9595,7 +9413,7 @@
         <v>206</v>
       </c>
       <c r="P23" s="2" t="s">
-        <v>311</v>
+        <v>302</v>
       </c>
       <c r="Q23" s="7" t="s">
         <v>98</v>
@@ -9630,7 +9448,7 @@
     </row>
     <row r="24" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A24" s="31" t="s">
-        <v>481</v>
+        <v>463</v>
       </c>
       <c r="B24" s="7" t="s">
         <v>44</v>
@@ -9654,7 +9472,7 @@
         <v>25</v>
       </c>
       <c r="I24" s="8" t="s">
-        <v>316</v>
+        <v>307</v>
       </c>
       <c r="J24" s="2">
         <v>250</v>
@@ -9719,8 +9537,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AD17"/>
   <sheetViews>
-    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="A9" sqref="A9"/>
+    <sheetView topLeftCell="J1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="Q9" activeCellId="1" sqref="T4 Q9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -9797,13 +9615,13 @@
         <v>12</v>
       </c>
       <c r="O1" s="3" t="s">
-        <v>448</v>
+        <v>430</v>
       </c>
       <c r="P1" s="3" t="s">
         <v>13</v>
       </c>
       <c r="Q1" s="12" t="s">
-        <v>449</v>
+        <v>431</v>
       </c>
       <c r="R1" s="3" t="s">
         <v>14</v>
@@ -9812,13 +9630,13 @@
         <v>15</v>
       </c>
       <c r="T1" s="3" t="s">
-        <v>447</v>
+        <v>429</v>
       </c>
       <c r="U1" s="3" t="s">
         <v>16</v>
       </c>
       <c r="V1" s="27" t="s">
-        <v>450</v>
+        <v>432</v>
       </c>
       <c r="W1" s="3" t="s">
         <v>17</v>
@@ -9833,21 +9651,21 @@
         <v>20</v>
       </c>
       <c r="AA1" s="12" t="s">
-        <v>454</v>
+        <v>436</v>
       </c>
       <c r="AB1" s="12" t="s">
-        <v>455</v>
+        <v>437</v>
       </c>
       <c r="AC1" s="12" t="s">
-        <v>453</v>
+        <v>435</v>
       </c>
       <c r="AD1" s="12" t="s">
-        <v>456</v>
+        <v>438</v>
       </c>
     </row>
     <row r="2" spans="1:30" s="1" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="9" t="s">
-        <v>468</v>
+        <v>450</v>
       </c>
       <c r="B2" s="2" t="s">
         <v>56</v>
@@ -9939,7 +9757,7 @@
     </row>
     <row r="3" spans="1:30" s="1" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="9" t="s">
-        <v>469</v>
+        <v>451</v>
       </c>
       <c r="B3" s="2" t="s">
         <v>56</v>
@@ -10055,7 +9873,7 @@
         <v>25</v>
       </c>
       <c r="I4" s="8" t="s">
-        <v>370</v>
+        <v>352</v>
       </c>
       <c r="J4" s="2">
         <v>250</v>
@@ -10070,13 +9888,13 @@
         <v>72</v>
       </c>
       <c r="N4" s="2" t="s">
-        <v>371</v>
-      </c>
-      <c r="O4" s="7" t="s">
-        <v>98</v>
+        <v>353</v>
+      </c>
+      <c r="O4" s="2" t="s">
+        <v>73</v>
       </c>
       <c r="P4" s="2" t="s">
-        <v>73</v>
+        <v>465</v>
       </c>
       <c r="Q4" s="2" t="s">
         <v>98</v>
@@ -10085,13 +9903,13 @@
         <v>60</v>
       </c>
       <c r="S4" s="2" t="s">
-        <v>372</v>
-      </c>
-      <c r="T4" s="7" t="s">
-        <v>98</v>
+        <v>354</v>
+      </c>
+      <c r="T4" s="2" t="s">
+        <v>74</v>
       </c>
       <c r="U4" s="2" t="s">
-        <v>74</v>
+        <v>466</v>
       </c>
       <c r="V4" s="7" t="s">
         <v>98</v>
@@ -10123,7 +9941,7 @@
     </row>
     <row r="5" spans="1:30" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A5" s="2" t="s">
-        <v>473</v>
+        <v>455</v>
       </c>
       <c r="B5" s="2" t="s">
         <v>56</v>
@@ -10147,10 +9965,10 @@
         <v>25</v>
       </c>
       <c r="I5" s="8" t="s">
-        <v>373</v>
+        <v>355</v>
       </c>
       <c r="J5" s="2" t="s">
-        <v>301</v>
+        <v>292</v>
       </c>
       <c r="K5" s="2" t="s">
         <v>98</v>
@@ -10165,10 +9983,10 @@
         <v>77</v>
       </c>
       <c r="O5" s="2" t="s">
-        <v>302</v>
+        <v>293</v>
       </c>
       <c r="P5" s="2" t="s">
-        <v>303</v>
+        <v>294</v>
       </c>
       <c r="Q5" s="2" t="s">
         <v>98</v>
@@ -10183,7 +10001,7 @@
         <v>79</v>
       </c>
       <c r="U5" s="2" t="s">
-        <v>304</v>
+        <v>295</v>
       </c>
       <c r="V5" s="7" t="s">
         <v>98</v>
@@ -10215,7 +10033,7 @@
     </row>
     <row r="6" spans="1:30" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A6" s="2" t="s">
-        <v>474</v>
+        <v>456</v>
       </c>
       <c r="B6" s="2" t="s">
         <v>56</v>
@@ -10239,10 +10057,10 @@
         <v>25</v>
       </c>
       <c r="I6" s="8" t="s">
-        <v>374</v>
+        <v>356</v>
       </c>
       <c r="J6" s="2" t="s">
-        <v>301</v>
+        <v>292</v>
       </c>
       <c r="K6" s="2" t="s">
         <v>98</v>
@@ -10260,7 +10078,7 @@
         <v>81</v>
       </c>
       <c r="P6" s="2" t="s">
-        <v>305</v>
+        <v>296</v>
       </c>
       <c r="Q6" s="2" t="s">
         <v>98</v>
@@ -10275,7 +10093,7 @@
         <v>79</v>
       </c>
       <c r="U6" s="2" t="s">
-        <v>304</v>
+        <v>295</v>
       </c>
       <c r="V6" s="7" t="s">
         <v>98</v>
@@ -10307,7 +10125,7 @@
     </row>
     <row r="7" spans="1:30" s="1" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="2" t="s">
-        <v>470</v>
+        <v>452</v>
       </c>
       <c r="B7" s="2" t="s">
         <v>56</v>
@@ -10352,7 +10170,7 @@
         <v>87</v>
       </c>
       <c r="P7" s="2" t="s">
-        <v>336</v>
+        <v>326</v>
       </c>
       <c r="Q7" s="2" t="s">
         <v>98</v>
@@ -10367,7 +10185,7 @@
         <v>89</v>
       </c>
       <c r="U7" s="2" t="s">
-        <v>338</v>
+        <v>328</v>
       </c>
       <c r="V7" s="7" t="s">
         <v>98</v>
@@ -10399,7 +10217,7 @@
     </row>
     <row r="8" spans="1:30" s="1" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="2" t="s">
-        <v>471</v>
+        <v>453</v>
       </c>
       <c r="B8" s="2" t="s">
         <v>56</v>
@@ -10444,7 +10262,7 @@
         <v>93</v>
       </c>
       <c r="P8" s="2" t="s">
-        <v>337</v>
+        <v>327</v>
       </c>
       <c r="Q8" s="2" t="s">
         <v>98</v>
@@ -10459,7 +10277,7 @@
         <v>89</v>
       </c>
       <c r="U8" s="2" t="s">
-        <v>338</v>
+        <v>328</v>
       </c>
       <c r="V8" s="7" t="s">
         <v>98</v>
@@ -10630,8 +10448,8 @@
       <c r="P10" s="7" t="s">
         <v>98</v>
       </c>
-      <c r="Q10" s="42" t="s">
-        <v>451</v>
+      <c r="Q10" s="41" t="s">
+        <v>433</v>
       </c>
       <c r="R10" s="25">
         <v>44</v>
@@ -10645,8 +10463,8 @@
       <c r="U10" s="7" t="s">
         <v>98</v>
       </c>
-      <c r="V10" s="42" t="s">
-        <v>452</v>
+      <c r="V10" s="41" t="s">
+        <v>434</v>
       </c>
       <c r="W10" s="25">
         <v>44</v>
@@ -10660,14 +10478,14 @@
       <c r="Z10" s="4" t="s">
         <v>51</v>
       </c>
-      <c r="AA10" s="42" t="s">
-        <v>458</v>
+      <c r="AA10" s="41" t="s">
+        <v>440</v>
       </c>
       <c r="AB10" s="4">
         <v>0.62</v>
       </c>
-      <c r="AC10" s="42" t="s">
-        <v>457</v>
+      <c r="AC10" s="41" t="s">
+        <v>439</v>
       </c>
       <c r="AD10" s="4">
         <v>0.72</v>
@@ -10675,7 +10493,7 @@
     </row>
     <row r="11" spans="1:30" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A11" s="2" t="s">
-        <v>379</v>
+        <v>361</v>
       </c>
       <c r="B11" s="2" t="s">
         <v>56</v>
@@ -10767,7 +10585,7 @@
     </row>
     <row r="12" spans="1:30" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A12" s="2" t="s">
-        <v>380</v>
+        <v>362</v>
       </c>
       <c r="B12" s="2" t="s">
         <v>56</v>
@@ -10859,7 +10677,7 @@
     </row>
     <row r="13" spans="1:30" s="1" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="2" t="s">
-        <v>467</v>
+        <v>449</v>
       </c>
       <c r="B13" s="2" t="s">
         <v>56</v>
@@ -10883,7 +10701,7 @@
         <v>500</v>
       </c>
       <c r="I13" s="9" t="s">
-        <v>375</v>
+        <v>357</v>
       </c>
       <c r="J13" s="2">
         <v>500</v>
@@ -10904,7 +10722,7 @@
         <v>39</v>
       </c>
       <c r="P13" s="2" t="s">
-        <v>376</v>
+        <v>358</v>
       </c>
       <c r="Q13" s="2" t="s">
         <v>98</v>
@@ -10951,7 +10769,7 @@
     </row>
     <row r="14" spans="1:30" s="1" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="2" t="s">
-        <v>466</v>
+        <v>448</v>
       </c>
       <c r="B14" s="2" t="s">
         <v>56</v>
@@ -10975,7 +10793,7 @@
         <v>25</v>
       </c>
       <c r="I14" s="9" t="s">
-        <v>375</v>
+        <v>357</v>
       </c>
       <c r="J14" s="2">
         <v>500</v>
@@ -10993,10 +10811,10 @@
         <v>38</v>
       </c>
       <c r="O14" s="2" t="s">
-        <v>377</v>
+        <v>359</v>
       </c>
       <c r="P14" s="2" t="s">
-        <v>378</v>
+        <v>360</v>
       </c>
       <c r="Q14" s="2" t="s">
         <v>98</v>
@@ -11043,7 +10861,7 @@
     </row>
     <row r="15" spans="1:30" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A15" s="2" t="s">
-        <v>360</v>
+        <v>345</v>
       </c>
       <c r="B15" s="7" t="s">
         <v>44</v>
@@ -11058,7 +10876,7 @@
         <v>0.45800000000000002</v>
       </c>
       <c r="F15" s="2" t="s">
-        <v>309</v>
+        <v>300</v>
       </c>
       <c r="G15" s="2" t="s">
         <v>46</v>
@@ -11135,7 +10953,7 @@
     </row>
     <row r="16" spans="1:30" s="1" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="2" t="s">
-        <v>472</v>
+        <v>454</v>
       </c>
       <c r="B16" s="7" t="s">
         <v>44</v>
@@ -11150,7 +10968,7 @@
         <v>0.34599999999999997</v>
       </c>
       <c r="F16" s="2" t="s">
-        <v>310</v>
+        <v>301</v>
       </c>
       <c r="G16" s="2" t="s">
         <v>46</v>
@@ -11227,7 +11045,7 @@
     </row>
     <row r="17" spans="1:30" s="1" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="9" t="s">
-        <v>469</v>
+        <v>451</v>
       </c>
       <c r="B17" s="7" t="s">
         <v>44</v>
@@ -11251,7 +11069,7 @@
         <v>25</v>
       </c>
       <c r="I17" s="8" t="s">
-        <v>316</v>
+        <v>307</v>
       </c>
       <c r="J17" s="2">
         <v>250</v>
@@ -11403,13 +11221,13 @@
         <v>12</v>
       </c>
       <c r="O1" s="27" t="s">
-        <v>448</v>
+        <v>430</v>
       </c>
       <c r="P1" s="27" t="s">
         <v>13</v>
       </c>
       <c r="Q1" s="12" t="s">
-        <v>449</v>
+        <v>431</v>
       </c>
       <c r="R1" s="27" t="s">
         <v>14</v>
@@ -11418,13 +11236,13 @@
         <v>15</v>
       </c>
       <c r="T1" s="27" t="s">
-        <v>447</v>
+        <v>429</v>
       </c>
       <c r="U1" s="27" t="s">
         <v>16</v>
       </c>
       <c r="V1" s="27" t="s">
-        <v>450</v>
+        <v>432</v>
       </c>
       <c r="W1" s="27" t="s">
         <v>17</v>
@@ -11441,7 +11259,7 @@
     </row>
     <row r="2" spans="1:26" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A2" s="28" t="s">
-        <v>468</v>
+        <v>450</v>
       </c>
       <c r="B2" s="2" t="s">
         <v>56</v>
@@ -11521,7 +11339,7 @@
     </row>
     <row r="3" spans="1:26" ht="13.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A3" s="28" t="s">
-        <v>469</v>
+        <v>451</v>
       </c>
       <c r="B3" s="2" t="s">
         <v>56</v>
@@ -11601,7 +11419,7 @@
     </row>
     <row r="4" spans="1:26" ht="30" x14ac:dyDescent="0.25">
       <c r="A4" s="2" t="s">
-        <v>470</v>
+        <v>452</v>
       </c>
       <c r="B4" s="2" t="s">
         <v>56</v>
@@ -11646,7 +11464,7 @@
         <v>133</v>
       </c>
       <c r="P4" s="2" t="s">
-        <v>339</v>
+        <v>329</v>
       </c>
       <c r="Q4" s="7" t="s">
         <v>98</v>
@@ -11661,7 +11479,7 @@
         <v>135</v>
       </c>
       <c r="U4" s="2" t="s">
-        <v>341</v>
+        <v>331</v>
       </c>
       <c r="V4" s="7" t="s">
         <v>98</v>
@@ -11681,7 +11499,7 @@
     </row>
     <row r="5" spans="1:26" ht="30" x14ac:dyDescent="0.25">
       <c r="A5" s="2" t="s">
-        <v>471</v>
+        <v>453</v>
       </c>
       <c r="B5" s="2" t="s">
         <v>56</v>
@@ -11726,7 +11544,7 @@
         <v>137</v>
       </c>
       <c r="P5" s="2" t="s">
-        <v>340</v>
+        <v>330</v>
       </c>
       <c r="Q5" s="7" t="s">
         <v>98</v>
@@ -11741,7 +11559,7 @@
         <v>135</v>
       </c>
       <c r="U5" s="2" t="s">
-        <v>341</v>
+        <v>331</v>
       </c>
       <c r="V5" s="7" t="s">
         <v>98</v>
@@ -11761,7 +11579,7 @@
     </row>
     <row r="6" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A6" s="2" t="s">
-        <v>380</v>
+        <v>362</v>
       </c>
       <c r="B6" s="2" t="s">
         <v>56</v>
@@ -11841,7 +11659,7 @@
     </row>
     <row r="7" spans="1:26" ht="45" x14ac:dyDescent="0.25">
       <c r="A7" s="2" t="s">
-        <v>467</v>
+        <v>449</v>
       </c>
       <c r="B7" s="2" t="s">
         <v>56</v>
@@ -11865,7 +11683,7 @@
         <v>500</v>
       </c>
       <c r="I7" s="9" t="s">
-        <v>375</v>
+        <v>357</v>
       </c>
       <c r="J7" s="2">
         <v>500</v>
@@ -11886,7 +11704,7 @@
         <v>145</v>
       </c>
       <c r="P7" s="2" t="s">
-        <v>381</v>
+        <v>363</v>
       </c>
       <c r="Q7" s="7" t="s">
         <v>98</v>
@@ -11921,7 +11739,7 @@
     </row>
     <row r="8" spans="1:26" ht="45" x14ac:dyDescent="0.25">
       <c r="A8" s="2" t="s">
-        <v>466</v>
+        <v>448</v>
       </c>
       <c r="B8" s="2" t="s">
         <v>56</v>
@@ -11945,7 +11763,7 @@
         <v>25</v>
       </c>
       <c r="I8" s="9" t="s">
-        <v>375</v>
+        <v>357</v>
       </c>
       <c r="J8" s="2">
         <v>500</v>
@@ -11963,10 +11781,10 @@
         <v>144</v>
       </c>
       <c r="O8" s="2" t="s">
-        <v>382</v>
+        <v>364</v>
       </c>
       <c r="P8" s="2" t="s">
-        <v>383</v>
+        <v>365</v>
       </c>
       <c r="Q8" s="7" t="s">
         <v>98</v>
@@ -12001,7 +11819,7 @@
     </row>
     <row r="9" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A9" s="7" t="s">
-        <v>360</v>
+        <v>345</v>
       </c>
       <c r="B9" s="7" t="s">
         <v>44</v>
@@ -12016,7 +11834,7 @@
         <v>0.45800000000000002</v>
       </c>
       <c r="F9" s="2" t="s">
-        <v>309</v>
+        <v>300</v>
       </c>
       <c r="G9" s="2" t="s">
         <v>46</v>
@@ -12081,7 +11899,7 @@
     </row>
     <row r="10" spans="1:26" s="4" customFormat="1" ht="26.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A10" s="7" t="s">
-        <v>472</v>
+        <v>454</v>
       </c>
       <c r="B10" s="7" t="s">
         <v>44</v>
@@ -12096,7 +11914,7 @@
         <v>0.34599999999999997</v>
       </c>
       <c r="F10" s="2" t="s">
-        <v>310</v>
+        <v>301</v>
       </c>
       <c r="G10" s="2" t="s">
         <v>46</v>
@@ -12120,13 +11938,13 @@
         <v>98</v>
       </c>
       <c r="N10" s="2" t="s">
-        <v>312</v>
+        <v>303</v>
       </c>
       <c r="O10" s="2" t="s">
-        <v>313</v>
+        <v>304</v>
       </c>
       <c r="P10" s="2" t="s">
-        <v>314</v>
+        <v>305</v>
       </c>
       <c r="Q10" s="7" t="s">
         <v>98</v>
@@ -12161,7 +11979,7 @@
     </row>
     <row r="11" spans="1:26" s="4" customFormat="1" ht="17.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A11" s="40" t="s">
-        <v>469</v>
+        <v>451</v>
       </c>
       <c r="B11" s="7" t="s">
         <v>44</v>
@@ -12185,7 +12003,7 @@
         <v>25</v>
       </c>
       <c r="I11" s="8" t="s">
-        <v>316</v>
+        <v>307</v>
       </c>
       <c r="J11" s="2">
         <v>250</v>
@@ -12327,13 +12145,13 @@
         <v>12</v>
       </c>
       <c r="O1" s="12" t="s">
-        <v>448</v>
+        <v>430</v>
       </c>
       <c r="P1" s="12" t="s">
         <v>13</v>
       </c>
       <c r="Q1" s="12" t="s">
-        <v>449</v>
+        <v>431</v>
       </c>
       <c r="R1" s="12" t="s">
         <v>14</v>
@@ -12342,13 +12160,13 @@
         <v>15</v>
       </c>
       <c r="T1" s="12" t="s">
-        <v>447</v>
+        <v>429</v>
       </c>
       <c r="U1" s="12" t="s">
         <v>16</v>
       </c>
       <c r="V1" s="27" t="s">
-        <v>450</v>
+        <v>432</v>
       </c>
       <c r="W1" s="12" t="s">
         <v>17</v>
@@ -12365,7 +12183,7 @@
     </row>
     <row r="2" spans="1:26" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
-        <v>380</v>
+        <v>362</v>
       </c>
       <c r="B2" s="9" t="s">
         <v>56</v>
@@ -12445,7 +12263,7 @@
     </row>
     <row r="3" spans="1:26" ht="45" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
-        <v>467</v>
+        <v>449</v>
       </c>
       <c r="B3" s="2" t="s">
         <v>56</v>
@@ -12469,7 +12287,7 @@
         <v>500</v>
       </c>
       <c r="I3" s="9" t="s">
-        <v>396</v>
+        <v>378</v>
       </c>
       <c r="J3" s="2">
         <v>500</v>
@@ -12490,7 +12308,7 @@
         <v>240</v>
       </c>
       <c r="P3" s="2" t="s">
-        <v>397</v>
+        <v>379</v>
       </c>
       <c r="Q3" s="7" t="s">
         <v>98</v>
@@ -12525,7 +12343,7 @@
     </row>
     <row r="4" spans="1:26" ht="45" x14ac:dyDescent="0.25">
       <c r="A4" s="2" t="s">
-        <v>466</v>
+        <v>448</v>
       </c>
       <c r="B4" s="2" t="s">
         <v>56</v>
@@ -12549,7 +12367,7 @@
         <v>25</v>
       </c>
       <c r="I4" s="9" t="s">
-        <v>396</v>
+        <v>378</v>
       </c>
       <c r="J4" s="2">
         <v>500</v>
@@ -12567,10 +12385,10 @@
         <v>239</v>
       </c>
       <c r="O4" s="2" t="s">
-        <v>398</v>
+        <v>380</v>
       </c>
       <c r="P4" s="2" t="s">
-        <v>399</v>
+        <v>381</v>
       </c>
       <c r="Q4" s="7" t="s">
         <v>98</v>
@@ -12605,7 +12423,7 @@
     </row>
     <row r="5" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A5" s="2" t="s">
-        <v>360</v>
+        <v>345</v>
       </c>
       <c r="B5" s="2" t="s">
         <v>44</v>
@@ -12620,7 +12438,7 @@
         <v>0.45800000000000002</v>
       </c>
       <c r="F5" s="2" t="s">
-        <v>309</v>
+        <v>300</v>
       </c>
       <c r="G5" s="2" t="s">
         <v>46</v>
@@ -12644,13 +12462,13 @@
         <v>98</v>
       </c>
       <c r="N5" s="2" t="s">
-        <v>400</v>
+        <v>382</v>
       </c>
       <c r="O5" s="2" t="s">
-        <v>401</v>
+        <v>383</v>
       </c>
       <c r="P5" s="2" t="s">
-        <v>401</v>
+        <v>383</v>
       </c>
       <c r="Q5" s="7" t="s">
         <v>98</v>
@@ -12715,8 +12533,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{718676A1-F033-4171-B0C1-6902E36836B2}">
   <dimension ref="A1:Z6"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A6" sqref="A6"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="Q6" sqref="Q6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -12791,13 +12609,13 @@
         <v>12</v>
       </c>
       <c r="O1" s="10" t="s">
-        <v>448</v>
+        <v>430</v>
       </c>
       <c r="P1" s="10" t="s">
         <v>13</v>
       </c>
       <c r="Q1" s="12" t="s">
-        <v>449</v>
+        <v>431</v>
       </c>
       <c r="R1" s="10" t="s">
         <v>14</v>
@@ -12806,13 +12624,13 @@
         <v>15</v>
       </c>
       <c r="T1" s="10" t="s">
-        <v>447</v>
+        <v>429</v>
       </c>
       <c r="U1" s="10" t="s">
         <v>16</v>
       </c>
       <c r="V1" s="27" t="s">
-        <v>450</v>
+        <v>432</v>
       </c>
       <c r="W1" s="10" t="s">
         <v>17</v>
@@ -12844,7 +12662,7 @@
         <v>1</v>
       </c>
       <c r="F2" s="19" t="s">
-        <v>351</v>
+        <v>341</v>
       </c>
       <c r="G2" s="19" t="s">
         <v>46</v>
@@ -12865,16 +12683,16 @@
         <v>151</v>
       </c>
       <c r="M2" s="19" t="s">
-        <v>72</v>
+        <v>477</v>
       </c>
       <c r="N2" s="19" t="s">
-        <v>361</v>
-      </c>
-      <c r="O2" s="22" t="s">
-        <v>98</v>
+        <v>479</v>
+      </c>
+      <c r="O2" s="19" t="s">
+        <v>480</v>
       </c>
       <c r="P2" s="19" t="s">
-        <v>352</v>
+        <v>481</v>
       </c>
       <c r="Q2" s="22" t="s">
         <v>98</v>
@@ -12883,13 +12701,13 @@
         <v>4</v>
       </c>
       <c r="S2" s="19" t="s">
-        <v>353</v>
-      </c>
-      <c r="T2" s="22" t="s">
-        <v>98</v>
+        <v>481</v>
+      </c>
+      <c r="T2" s="19" t="s">
+        <v>484</v>
       </c>
       <c r="U2" s="19" t="s">
-        <v>354</v>
+        <v>485</v>
       </c>
       <c r="V2" s="22" t="s">
         <v>98</v>
@@ -12924,7 +12742,7 @@
         <v>1</v>
       </c>
       <c r="F3" s="19" t="s">
-        <v>351</v>
+        <v>341</v>
       </c>
       <c r="G3" s="19" t="s">
         <v>46</v>
@@ -12945,16 +12763,16 @@
         <v>151</v>
       </c>
       <c r="M3" s="19" t="s">
-        <v>72</v>
+        <v>478</v>
       </c>
       <c r="N3" s="19" t="s">
-        <v>361</v>
-      </c>
-      <c r="O3" s="22" t="s">
-        <v>98</v>
+        <v>479</v>
+      </c>
+      <c r="O3" s="19" t="s">
+        <v>480</v>
       </c>
       <c r="P3" s="19" t="s">
-        <v>352</v>
+        <v>481</v>
       </c>
       <c r="Q3" s="22" t="s">
         <v>98</v>
@@ -12963,13 +12781,13 @@
         <v>4</v>
       </c>
       <c r="S3" s="19" t="s">
-        <v>355</v>
-      </c>
-      <c r="T3" s="22" t="s">
-        <v>98</v>
+        <v>486</v>
+      </c>
+      <c r="T3" s="19" t="s">
+        <v>487</v>
       </c>
       <c r="U3" s="19" t="s">
-        <v>356</v>
+        <v>488</v>
       </c>
       <c r="V3" s="22" t="s">
         <v>98</v>
@@ -12989,7 +12807,7 @@
     </row>
     <row r="4" spans="1:26" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A4" s="2" t="s">
-        <v>357</v>
+        <v>342</v>
       </c>
       <c r="B4" s="19" t="s">
         <v>56</v>
@@ -13004,7 +12822,7 @@
         <v>0.64</v>
       </c>
       <c r="F4" s="19" t="s">
-        <v>362</v>
+        <v>346</v>
       </c>
       <c r="G4" s="19" t="s">
         <v>46</v>
@@ -13037,7 +12855,7 @@
         <v>98</v>
       </c>
       <c r="Q4" s="20" t="s">
-        <v>358</v>
+        <v>343</v>
       </c>
       <c r="R4" s="19">
         <v>14</v>
@@ -13052,7 +12870,7 @@
         <v>98</v>
       </c>
       <c r="V4" s="19" t="s">
-        <v>359</v>
+        <v>344</v>
       </c>
       <c r="W4" s="19">
         <v>14</v>
@@ -13108,13 +12926,13 @@
         <v>72</v>
       </c>
       <c r="N5" s="23" t="s">
-        <v>366</v>
-      </c>
-      <c r="O5" s="22" t="s">
-        <v>98</v>
+        <v>350</v>
+      </c>
+      <c r="O5" s="19" t="s">
+        <v>482</v>
       </c>
       <c r="P5" s="23" t="s">
-        <v>367</v>
+        <v>483</v>
       </c>
       <c r="Q5" s="22" t="s">
         <v>98</v>
@@ -13123,13 +12941,13 @@
         <v>10</v>
       </c>
       <c r="S5" s="23" t="s">
-        <v>368</v>
-      </c>
-      <c r="T5" s="41" t="s">
-        <v>98</v>
+        <v>351</v>
+      </c>
+      <c r="T5" s="23" t="s">
+        <v>489</v>
       </c>
       <c r="U5" s="23" t="s">
-        <v>369</v>
+        <v>490</v>
       </c>
       <c r="V5" s="22" t="s">
         <v>98</v>
@@ -13149,7 +12967,7 @@
     </row>
     <row r="6" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A6" s="2" t="s">
-        <v>360</v>
+        <v>345</v>
       </c>
       <c r="B6" s="19" t="s">
         <v>44</v>
@@ -13164,7 +12982,7 @@
         <v>0.46</v>
       </c>
       <c r="F6" s="19" t="s">
-        <v>363</v>
+        <v>347</v>
       </c>
       <c r="G6" s="19" t="s">
         <v>46</v>
@@ -13188,13 +13006,13 @@
         <v>98</v>
       </c>
       <c r="N6" s="19" t="s">
-        <v>364</v>
+        <v>348</v>
       </c>
       <c r="O6" s="22" t="s">
         <v>98</v>
       </c>
       <c r="P6" s="19" t="s">
-        <v>365</v>
+        <v>349</v>
       </c>
       <c r="Q6" s="22" t="s">
         <v>98</v>
